--- a/wiaaWebscrape/wiaa_model_inputs_2024.xlsx
+++ b/wiaaWebscrape/wiaa_model_inputs_2024.xlsx
@@ -1240,7 +1240,7 @@
     <t>St. Croix Central</t>
   </si>
   <si>
-    <t>St. Mary's Springs</t>
+    <t>St. Marys Springs</t>
   </si>
   <si>
     <t>Stanley-Boyd</t>
@@ -1926,16 +1926,16 @@
         <v>0.47619</v>
       </c>
       <c r="G2">
-        <v>0.477273</v>
+        <v>0.516269</v>
       </c>
       <c r="H2">
-        <v>0.51192</v>
+        <v>0.504607</v>
       </c>
       <c r="I2">
-        <v>0.358586</v>
+        <v>0.356164</v>
       </c>
       <c r="J2">
-        <v>0.506325</v>
+        <v>0.499301</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1958,16 +1958,16 @@
         <v>0.7619050000000001</v>
       </c>
       <c r="G3">
-        <v>0.47093</v>
+        <v>0.409639</v>
       </c>
       <c r="H3">
-        <v>0.50569</v>
+        <v>0.504478</v>
       </c>
       <c r="I3">
-        <v>0.356589</v>
+        <v>0.320261</v>
       </c>
       <c r="J3">
-        <v>0.512416</v>
+        <v>0.502876</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1993,13 +1993,13 @@
         <v>0.575937</v>
       </c>
       <c r="H4">
-        <v>0.475904</v>
+        <v>0.482784</v>
       </c>
       <c r="I4">
         <v>0.264368</v>
       </c>
       <c r="J4">
-        <v>0.480359</v>
+        <v>0.516393</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2022,16 +2022,16 @@
         <v>0.869565</v>
       </c>
       <c r="G5">
-        <v>0.47619</v>
+        <v>0.461538</v>
       </c>
       <c r="H5">
-        <v>0.513307</v>
+        <v>0.5109669999999999</v>
       </c>
       <c r="I5">
-        <v>0.417582</v>
+        <v>0.397129</v>
       </c>
       <c r="J5">
-        <v>0.516027</v>
+        <v>0.514428</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2054,16 +2054,16 @@
         <v>0.545455</v>
       </c>
       <c r="G6">
-        <v>0.452459</v>
+        <v>0.48218</v>
       </c>
       <c r="H6">
-        <v>0.498577</v>
+        <v>0.491527</v>
       </c>
       <c r="I6">
-        <v>0.270115</v>
+        <v>0.284615</v>
       </c>
       <c r="J6">
-        <v>0.516306</v>
+        <v>0.505536</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2086,16 +2086,16 @@
         <v>0.571429</v>
       </c>
       <c r="G7">
-        <v>0.513447</v>
+        <v>0.527594</v>
       </c>
       <c r="H7">
-        <v>0.500389</v>
+        <v>0.494071</v>
       </c>
       <c r="I7">
         <v>0.395349</v>
       </c>
       <c r="J7">
-        <v>0.493438</v>
+        <v>0.490185</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2118,16 +2118,16 @@
         <v>0.55</v>
       </c>
       <c r="G8">
-        <v>0.517241</v>
+        <v>0.516509</v>
       </c>
       <c r="H8">
-        <v>0.504679</v>
+        <v>0.494154</v>
       </c>
       <c r="I8">
-        <v>0.361905</v>
+        <v>0.372807</v>
       </c>
       <c r="J8">
-        <v>0.489701</v>
+        <v>0.48259</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2150,16 +2150,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G9">
-        <v>0.331126</v>
+        <v>0.405063</v>
       </c>
       <c r="H9">
-        <v>0.507284</v>
+        <v>0.503471</v>
       </c>
       <c r="I9">
-        <v>0.277992</v>
+        <v>0.261628</v>
       </c>
       <c r="J9">
-        <v>0.530652</v>
+        <v>0.5177619999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2182,16 +2182,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G10">
-        <v>0.644258</v>
+        <v>0.584867</v>
       </c>
       <c r="H10">
-        <v>0.549525</v>
+        <v>0.529475</v>
       </c>
       <c r="I10">
-        <v>0.577236</v>
+        <v>0.519663</v>
       </c>
       <c r="J10">
-        <v>0.542805</v>
+        <v>0.519931</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2214,16 +2214,16 @@
         <v>0.363636</v>
       </c>
       <c r="G11">
-        <v>0.551637</v>
+        <v>0.5360819999999999</v>
       </c>
       <c r="H11">
-        <v>0.562739</v>
+        <v>0.538161</v>
       </c>
       <c r="I11">
-        <v>0.333333</v>
+        <v>0.302857</v>
       </c>
       <c r="J11">
-        <v>0.542268</v>
+        <v>0.525141</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2246,16 +2246,16 @@
         <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.473684</v>
+        <v>0.491632</v>
       </c>
       <c r="H12">
-        <v>0.525362</v>
+        <v>0.503277</v>
       </c>
       <c r="I12">
-        <v>0.210526</v>
+        <v>0.247899</v>
       </c>
       <c r="J12">
-        <v>0.5460390000000001</v>
+        <v>0.525644</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2278,16 +2278,16 @@
         <v>0.238095</v>
       </c>
       <c r="G13">
-        <v>0.551075</v>
+        <v>0.535948</v>
       </c>
       <c r="H13">
-        <v>0.517227</v>
+        <v>0.504838</v>
       </c>
       <c r="I13">
-        <v>0.234375</v>
+        <v>0.283019</v>
       </c>
       <c r="J13">
-        <v>0.495441</v>
+        <v>0.481874</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2310,16 +2310,16 @@
         <v>0.571429</v>
       </c>
       <c r="G14">
-        <v>0.480969</v>
+        <v>0.477516</v>
       </c>
       <c r="H14">
-        <v>0.552449</v>
+        <v>0.538508</v>
       </c>
       <c r="I14">
-        <v>0.310734</v>
+        <v>0.30566</v>
       </c>
       <c r="J14">
-        <v>0.553016</v>
+        <v>0.539811</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2342,16 +2342,16 @@
         <v>0.52381</v>
       </c>
       <c r="G15">
-        <v>0.6006010000000001</v>
+        <v>0.568376</v>
       </c>
       <c r="H15">
-        <v>0.542307</v>
+        <v>0.530409</v>
       </c>
       <c r="I15">
-        <v>0.435897</v>
+        <v>0.390244</v>
       </c>
       <c r="J15">
-        <v>0.545933</v>
+        <v>0.541032</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2377,13 +2377,13 @@
         <v>0.559671</v>
       </c>
       <c r="H16">
-        <v>0.539528</v>
+        <v>0.52389</v>
       </c>
       <c r="I16">
         <v>0.477273</v>
       </c>
       <c r="J16">
-        <v>0.527517</v>
+        <v>0.505711</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2406,16 +2406,16 @@
         <v>0.863636</v>
       </c>
       <c r="G17">
-        <v>0.661538</v>
+        <v>0.514463</v>
       </c>
       <c r="H17">
-        <v>0.543036</v>
+        <v>0.5238930000000001</v>
       </c>
       <c r="I17">
-        <v>0.652174</v>
+        <v>0.480952</v>
       </c>
       <c r="J17">
-        <v>0.53891</v>
+        <v>0.522373</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2438,16 +2438,16 @@
         <v>0.636364</v>
       </c>
       <c r="G18">
-        <v>0.465587</v>
+        <v>0.466395</v>
       </c>
       <c r="H18">
-        <v>0.525398</v>
+        <v>0.506719</v>
       </c>
       <c r="I18">
-        <v>0.322785</v>
+        <v>0.292063</v>
       </c>
       <c r="J18">
-        <v>0.50493</v>
+        <v>0.494602</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2470,16 +2470,16 @@
         <v>0.952381</v>
       </c>
       <c r="G19">
-        <v>0.484848</v>
+        <v>0.485459</v>
       </c>
       <c r="H19">
-        <v>0.528334</v>
+        <v>0.522299</v>
       </c>
       <c r="I19">
-        <v>0.473684</v>
+        <v>0.476526</v>
       </c>
       <c r="J19">
-        <v>0.521739</v>
+        <v>0.518344</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2502,16 +2502,16 @@
         <v>0.904762</v>
       </c>
       <c r="G20">
-        <v>0.66343</v>
+        <v>0.62635</v>
       </c>
       <c r="H20">
-        <v>0.584365</v>
+        <v>0.5714089999999999</v>
       </c>
       <c r="I20">
-        <v>0.655052</v>
+        <v>0.624703</v>
       </c>
       <c r="J20">
-        <v>0.579526</v>
+        <v>0.570734</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2534,16 +2534,16 @@
         <v>0.238095</v>
       </c>
       <c r="G21">
-        <v>0.513298</v>
+        <v>0.49892</v>
       </c>
       <c r="H21">
-        <v>0.50227</v>
+        <v>0.481349</v>
       </c>
       <c r="I21">
-        <v>0.174603</v>
+        <v>0.153846</v>
       </c>
       <c r="J21">
-        <v>0.527778</v>
+        <v>0.516919</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2566,16 +2566,16 @@
         <v>0.565217</v>
       </c>
       <c r="G22">
-        <v>0.491961</v>
+        <v>0.474708</v>
       </c>
       <c r="H22">
-        <v>0.516208</v>
+        <v>0.49972</v>
       </c>
       <c r="I22">
-        <v>0.365169</v>
+        <v>0.32646</v>
       </c>
       <c r="J22">
-        <v>0.516682</v>
+        <v>0.507823</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2598,16 +2598,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.494253</v>
+        <v>0.495633</v>
       </c>
       <c r="H23">
-        <v>0.513408</v>
+        <v>0.505844</v>
       </c>
       <c r="I23">
-        <v>0.494253</v>
+        <v>0.495633</v>
       </c>
       <c r="J23">
-        <v>0.513408</v>
+        <v>0.505844</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2630,16 +2630,16 @@
         <v>0.636364</v>
       </c>
       <c r="G24">
-        <v>0.568182</v>
+        <v>0.549793</v>
       </c>
       <c r="H24">
-        <v>0.523848</v>
+        <v>0.510818</v>
       </c>
       <c r="I24">
-        <v>0.371429</v>
+        <v>0.370492</v>
       </c>
       <c r="J24">
-        <v>0.521944</v>
+        <v>0.514476</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2662,16 +2662,16 @@
         <v>0.636364</v>
       </c>
       <c r="G25">
-        <v>0.473868</v>
+        <v>0.553719</v>
       </c>
       <c r="H25">
-        <v>0.530325</v>
+        <v>0.516086</v>
       </c>
       <c r="I25">
-        <v>0.340909</v>
+        <v>0.381107</v>
       </c>
       <c r="J25">
-        <v>0.528571</v>
+        <v>0.517163</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2697,13 +2697,13 @@
         <v>0.452116</v>
       </c>
       <c r="H26">
-        <v>0.487784</v>
+        <v>0.486051</v>
       </c>
       <c r="I26">
         <v>0.193548</v>
       </c>
       <c r="J26">
-        <v>0.468366</v>
+        <v>0.459581</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2726,16 +2726,16 @@
         <v>0.545455</v>
       </c>
       <c r="G27">
-        <v>0.516923</v>
+        <v>0.504237</v>
       </c>
       <c r="H27">
-        <v>0.5003339999999999</v>
+        <v>0.491554</v>
       </c>
       <c r="I27">
-        <v>0.353741</v>
+        <v>0.34</v>
       </c>
       <c r="J27">
-        <v>0.48499</v>
+        <v>0.483605</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2758,16 +2758,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G28">
-        <v>0.61859</v>
+        <v>0.570842</v>
       </c>
       <c r="H28">
-        <v>0.55721</v>
+        <v>0.540337</v>
       </c>
       <c r="I28">
-        <v>0.5083800000000001</v>
+        <v>0.497175</v>
       </c>
       <c r="J28">
-        <v>0.549492</v>
+        <v>0.5346919999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2790,16 +2790,16 @@
         <v>0.857143</v>
       </c>
       <c r="G29">
-        <v>0.5</v>
+        <v>0.533623</v>
       </c>
       <c r="H29">
-        <v>0.516682</v>
+        <v>0.499308</v>
       </c>
       <c r="I29">
-        <v>0.460905</v>
+        <v>0.475949</v>
       </c>
       <c r="J29">
-        <v>0.515276</v>
+        <v>0.501038</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2822,13 +2822,13 @@
         <v>0.136364</v>
       </c>
       <c r="G30">
-        <v>0.572238</v>
+        <v>0.547521</v>
       </c>
       <c r="H30">
-        <v>0.512309</v>
+        <v>0.5</v>
       </c>
       <c r="I30">
-        <v>0.090909</v>
+        <v>0.07692300000000001</v>
       </c>
       <c r="J30">
         <v>0.519131</v>
@@ -2854,16 +2854,16 @@
         <v>0.454545</v>
       </c>
       <c r="G31">
-        <v>0.560127</v>
+        <v>0.576674</v>
       </c>
       <c r="H31">
-        <v>0.509832</v>
+        <v>0.503605</v>
       </c>
       <c r="I31">
-        <v>0.265734</v>
+        <v>0.27451</v>
       </c>
       <c r="J31">
-        <v>0.505508</v>
+        <v>0.507515</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2886,16 +2886,16 @@
         <v>0.695652</v>
       </c>
       <c r="G32">
-        <v>0.478827</v>
+        <v>0.457256</v>
       </c>
       <c r="H32">
-        <v>0.524635</v>
+        <v>0.510345</v>
       </c>
       <c r="I32">
-        <v>0.408333</v>
+        <v>0.354467</v>
       </c>
       <c r="J32">
-        <v>0.5150439999999999</v>
+        <v>0.5016080000000001</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2918,16 +2918,16 @@
         <v>0.272727</v>
       </c>
       <c r="G33">
-        <v>0.5550349999999999</v>
+        <v>0.524291</v>
       </c>
       <c r="H33">
-        <v>0.512088</v>
+        <v>0.49644</v>
       </c>
       <c r="I33">
-        <v>0.263736</v>
+        <v>0.242647</v>
       </c>
       <c r="J33">
-        <v>0.520053</v>
+        <v>0.501965</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2941,7 +2941,13 @@
         <v>0.55163</v>
       </c>
       <c r="H34">
-        <v>0.447048</v>
+        <v>0.450876</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2964,16 +2970,16 @@
         <v>0.782609</v>
       </c>
       <c r="G35">
-        <v>0.64</v>
+        <v>0.600398</v>
       </c>
       <c r="H35">
-        <v>0.584394</v>
+        <v>0.571262</v>
       </c>
       <c r="I35">
-        <v>0.577406</v>
+        <v>0.574684</v>
       </c>
       <c r="J35">
-        <v>0.590674</v>
+        <v>0.578839</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2996,16 +3002,16 @@
         <v>0.666667</v>
       </c>
       <c r="G36">
-        <v>0.5946669999999999</v>
+        <v>0.577007</v>
       </c>
       <c r="H36">
-        <v>0.538934</v>
+        <v>0.528738</v>
       </c>
       <c r="I36">
-        <v>0.495868</v>
+        <v>0.469055</v>
       </c>
       <c r="J36">
-        <v>0.5234760000000001</v>
+        <v>0.520514</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3028,16 +3034,16 @@
         <v>0.714286</v>
       </c>
       <c r="G37">
-        <v>0.582237</v>
+        <v>0.566372</v>
       </c>
       <c r="H37">
-        <v>0.505395</v>
+        <v>0.500254</v>
       </c>
       <c r="I37">
-        <v>0.472222</v>
+        <v>0.454829</v>
       </c>
       <c r="J37">
-        <v>0.494885</v>
+        <v>0.501481</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3060,16 +3066,16 @@
         <v>0.444444</v>
       </c>
       <c r="G38">
-        <v>0.441176</v>
+        <v>0.462338</v>
       </c>
       <c r="H38">
-        <v>0.488593</v>
+        <v>0.486957</v>
       </c>
       <c r="I38">
-        <v>0.333333</v>
+        <v>0.267857</v>
       </c>
       <c r="J38">
-        <v>0.447201</v>
+        <v>0.45508</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3092,16 +3098,16 @@
         <v>0.238095</v>
       </c>
       <c r="G39">
-        <v>0.390244</v>
+        <v>0.478555</v>
       </c>
       <c r="H39">
-        <v>0.516081</v>
+        <v>0.511857</v>
       </c>
       <c r="I39">
-        <v>0.051282</v>
+        <v>0.153846</v>
       </c>
       <c r="J39">
-        <v>0.524309</v>
+        <v>0.540909</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3124,16 +3130,16 @@
         <v>0.545455</v>
       </c>
       <c r="G40">
-        <v>0.549598</v>
+        <v>0.56341</v>
       </c>
       <c r="H40">
-        <v>0.517541</v>
+        <v>0.510672</v>
       </c>
       <c r="I40">
-        <v>0.436937</v>
+        <v>0.433962</v>
       </c>
       <c r="J40">
-        <v>0.501889</v>
+        <v>0.498773</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3156,16 +3162,16 @@
         <v>0.318182</v>
       </c>
       <c r="G41">
-        <v>0.483117</v>
+        <v>0.480932</v>
       </c>
       <c r="H41">
-        <v>0.492609</v>
+        <v>0.486419</v>
       </c>
       <c r="I41">
-        <v>0.288</v>
+        <v>0.267123</v>
       </c>
       <c r="J41">
-        <v>0.509976</v>
+        <v>0.498878</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3191,7 +3197,13 @@
         <v>0.471698</v>
       </c>
       <c r="H42">
-        <v>0.470015</v>
+        <v>0.450006</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3214,16 +3226,16 @@
         <v>0.454545</v>
       </c>
       <c r="G43">
-        <v>0.530769</v>
+        <v>0.572043</v>
       </c>
       <c r="H43">
-        <v>0.51623</v>
+        <v>0.499488</v>
       </c>
       <c r="I43">
-        <v>0.340909</v>
+        <v>0.35122</v>
       </c>
       <c r="J43">
-        <v>0.552732</v>
+        <v>0.532826</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3246,16 +3258,16 @@
         <v>0.083333</v>
       </c>
       <c r="G44">
-        <v>0.494709</v>
+        <v>0.492509</v>
       </c>
       <c r="H44">
-        <v>0.492191</v>
+        <v>0.480672</v>
       </c>
       <c r="I44">
-        <v>0.285714</v>
+        <v>0.272727</v>
       </c>
       <c r="J44">
-        <v>0.465211</v>
+        <v>0.453237</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3278,16 +3290,16 @@
         <v>0.363636</v>
       </c>
       <c r="G45">
-        <v>0.496183</v>
+        <v>0.53277</v>
       </c>
       <c r="H45">
-        <v>0.495728</v>
+        <v>0.488601</v>
       </c>
       <c r="I45">
-        <v>0.149254</v>
+        <v>0.321839</v>
       </c>
       <c r="J45">
-        <v>0.497034</v>
+        <v>0.494718</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3310,16 +3322,16 @@
         <v>0.454545</v>
       </c>
       <c r="G46">
-        <v>0.522388</v>
+        <v>0.525355</v>
       </c>
       <c r="H46">
-        <v>0.542694</v>
+        <v>0.526663</v>
       </c>
       <c r="I46">
-        <v>0.230769</v>
+        <v>0.232143</v>
       </c>
       <c r="J46">
-        <v>0.531169</v>
+        <v>0.527039</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3342,16 +3354,16 @@
         <v>0.913043</v>
       </c>
       <c r="G47">
-        <v>0.58104</v>
+        <v>0.536926</v>
       </c>
       <c r="H47">
-        <v>0.524608</v>
+        <v>0.515974</v>
       </c>
       <c r="I47">
-        <v>0.542553</v>
+        <v>0.508772</v>
       </c>
       <c r="J47">
-        <v>0.513049</v>
+        <v>0.505263</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3374,16 +3386,16 @@
         <v>0.285714</v>
       </c>
       <c r="G48">
-        <v>0.501961</v>
+        <v>0.511111</v>
       </c>
       <c r="H48">
-        <v>0.5</v>
+        <v>0.492684</v>
       </c>
       <c r="I48">
-        <v>0.121951</v>
+        <v>0.145161</v>
       </c>
       <c r="J48">
-        <v>0.489557</v>
+        <v>0.5083490000000001</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3406,16 +3418,16 @@
         <v>0.55</v>
       </c>
       <c r="G49">
-        <v>0.37276</v>
+        <v>0.423077</v>
       </c>
       <c r="H49">
-        <v>0.471513</v>
+        <v>0.467719</v>
       </c>
       <c r="I49">
-        <v>0.231788</v>
+        <v>0.245</v>
       </c>
       <c r="J49">
-        <v>0.459988</v>
+        <v>0.443689</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3438,16 +3450,16 @@
         <v>0.409091</v>
       </c>
       <c r="G50">
-        <v>0.483173</v>
+        <v>0.45929</v>
       </c>
       <c r="H50">
-        <v>0.521549</v>
+        <v>0.503416</v>
       </c>
       <c r="I50">
-        <v>0.264901</v>
+        <v>0.235602</v>
       </c>
       <c r="J50">
-        <v>0.5</v>
+        <v>0.491242</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3470,16 +3482,16 @@
         <v>0.333333</v>
       </c>
       <c r="G51">
-        <v>0.475904</v>
+        <v>0.481641</v>
       </c>
       <c r="H51">
-        <v>0.487891</v>
+        <v>0.490094</v>
       </c>
       <c r="I51">
-        <v>0.255814</v>
+        <v>0.245033</v>
       </c>
       <c r="J51">
-        <v>0.5014459999999999</v>
+        <v>0.514256</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3502,16 +3514,16 @@
         <v>0.636364</v>
       </c>
       <c r="G52">
-        <v>0.519512</v>
+        <v>0.503158</v>
       </c>
       <c r="H52">
-        <v>0.495783</v>
+        <v>0.492876</v>
       </c>
       <c r="I52">
-        <v>0.386719</v>
+        <v>0.347826</v>
       </c>
       <c r="J52">
-        <v>0.507947</v>
+        <v>0.503567</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3534,16 +3546,16 @@
         <v>0.5</v>
       </c>
       <c r="G53">
-        <v>0.498155</v>
+        <v>0.494709</v>
       </c>
       <c r="H53">
-        <v>0.513248</v>
+        <v>0.501076</v>
       </c>
       <c r="I53">
-        <v>0.442857</v>
+        <v>0.437158</v>
       </c>
       <c r="J53">
-        <v>0.515936</v>
+        <v>0.500457</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3566,16 +3578,16 @@
         <v>0.136364</v>
       </c>
       <c r="G54">
-        <v>0.642384</v>
+        <v>0.6367429999999999</v>
       </c>
       <c r="H54">
-        <v>0.5538149999999999</v>
+        <v>0.542874</v>
       </c>
       <c r="I54">
-        <v>0.325</v>
+        <v>0.370968</v>
       </c>
       <c r="J54">
-        <v>0.540833</v>
+        <v>0.530474</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3598,16 +3610,16 @@
         <v>0.869565</v>
       </c>
       <c r="G55">
-        <v>0.58908</v>
+        <v>0.549098</v>
       </c>
       <c r="H55">
-        <v>0.569736</v>
+        <v>0.555168</v>
       </c>
       <c r="I55">
-        <v>0.542763</v>
+        <v>0.5</v>
       </c>
       <c r="J55">
-        <v>0.567574</v>
+        <v>0.557351</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3630,16 +3642,16 @@
         <v>0.565217</v>
       </c>
       <c r="G56">
-        <v>0.449664</v>
+        <v>0.45935</v>
       </c>
       <c r="H56">
-        <v>0.492376</v>
+        <v>0.488665</v>
       </c>
       <c r="I56">
-        <v>0.262032</v>
+        <v>0.336996</v>
       </c>
       <c r="J56">
-        <v>0.505216</v>
+        <v>0.49605</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3662,16 +3674,16 @@
         <v>0.681818</v>
       </c>
       <c r="G57">
-        <v>0.445578</v>
+        <v>0.460177</v>
       </c>
       <c r="H57">
-        <v>0.5101869999999999</v>
+        <v>0.488451</v>
       </c>
       <c r="I57">
-        <v>0.383495</v>
+        <v>0.381271</v>
       </c>
       <c r="J57">
-        <v>0.482078</v>
+        <v>0.464528</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3694,13 +3706,13 @@
         <v>0.15</v>
       </c>
       <c r="G58">
-        <v>0.457143</v>
+        <v>0.447307</v>
       </c>
       <c r="H58">
-        <v>0.460099</v>
+        <v>0.443765</v>
       </c>
       <c r="I58">
-        <v>0.02439</v>
+        <v>0.016393</v>
       </c>
       <c r="J58">
         <v>0.489412</v>
@@ -3726,16 +3738,16 @@
         <v>0.409091</v>
       </c>
       <c r="G59">
-        <v>0.515528</v>
+        <v>0.487179</v>
       </c>
       <c r="H59">
-        <v>0.495886</v>
+        <v>0.487092</v>
       </c>
       <c r="I59">
-        <v>0.342857</v>
+        <v>0.291005</v>
       </c>
       <c r="J59">
-        <v>0.5161289999999999</v>
+        <v>0.505533</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3758,16 +3770,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G60">
-        <v>0.421603</v>
+        <v>0.429213</v>
       </c>
       <c r="H60">
-        <v>0.465435</v>
+        <v>0.457281</v>
       </c>
       <c r="I60">
-        <v>0.303483</v>
+        <v>0.297468</v>
       </c>
       <c r="J60">
-        <v>0.485741</v>
+        <v>0.471066</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3790,16 +3802,16 @@
         <v>0.434783</v>
       </c>
       <c r="G61">
-        <v>0.52568</v>
+        <v>0.541176</v>
       </c>
       <c r="H61">
-        <v>0.520043</v>
+        <v>0.505691</v>
       </c>
       <c r="I61">
-        <v>0.4</v>
+        <v>0.345455</v>
       </c>
       <c r="J61">
-        <v>0.492126</v>
+        <v>0.477422</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3822,16 +3834,16 @@
         <v>0.272727</v>
       </c>
       <c r="G62">
-        <v>0.453401</v>
+        <v>0.427332</v>
       </c>
       <c r="H62">
-        <v>0.491162</v>
+        <v>0.476893</v>
       </c>
       <c r="I62">
-        <v>0.148148</v>
+        <v>0.177419</v>
       </c>
       <c r="J62">
-        <v>0.506548</v>
+        <v>0.495357</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3854,16 +3866,16 @@
         <v>0.652174</v>
       </c>
       <c r="G63">
-        <v>0.580808</v>
+        <v>0.568588</v>
       </c>
       <c r="H63">
-        <v>0.528314</v>
+        <v>0.521471</v>
       </c>
       <c r="I63">
-        <v>0.423868</v>
+        <v>0.425532</v>
       </c>
       <c r="J63">
-        <v>0.538014</v>
+        <v>0.537981</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3886,16 +3898,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G64">
-        <v>0.456274</v>
+        <v>0.45567</v>
       </c>
       <c r="H64">
-        <v>0.51391</v>
+        <v>0.495774</v>
       </c>
       <c r="I64">
-        <v>0.302326</v>
+        <v>0.366577</v>
       </c>
       <c r="J64">
-        <v>0.521053</v>
+        <v>0.506572</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3918,13 +3930,16 @@
         <v>0.05</v>
       </c>
       <c r="G65">
-        <v>0.412162</v>
+        <v>0.569124</v>
       </c>
       <c r="H65">
-        <v>0.515193</v>
+        <v>0.517487</v>
       </c>
       <c r="I65">
         <v>0.5</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3947,16 +3962,16 @@
         <v>0.235294</v>
       </c>
       <c r="G66">
-        <v>0.42268</v>
+        <v>0.429967</v>
       </c>
       <c r="H66">
-        <v>0.476332</v>
+        <v>0.434783</v>
       </c>
       <c r="I66">
-        <v>0.1</v>
+        <v>0.240741</v>
       </c>
       <c r="J66">
-        <v>0.491284</v>
+        <v>0.482014</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3979,16 +3994,16 @@
         <v>0.782609</v>
       </c>
       <c r="G67">
-        <v>0.454849</v>
+        <v>0.449597</v>
       </c>
       <c r="H67">
-        <v>0.505616</v>
+        <v>0.502911</v>
       </c>
       <c r="I67">
-        <v>0.360515</v>
+        <v>0.362694</v>
       </c>
       <c r="J67">
-        <v>0.516559</v>
+        <v>0.5084379999999999</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4011,16 +4026,16 @@
         <v>0.428571</v>
       </c>
       <c r="G68">
-        <v>0.470886</v>
+        <v>0.468966</v>
       </c>
       <c r="H68">
-        <v>0.489289</v>
+        <v>0.483727</v>
       </c>
       <c r="I68">
-        <v>0.33758</v>
+        <v>0.346369</v>
       </c>
       <c r="J68">
-        <v>0.515388</v>
+        <v>0.500154</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4043,16 +4058,16 @@
         <v>0.909091</v>
       </c>
       <c r="G69">
-        <v>0.547529</v>
+        <v>0.52588</v>
       </c>
       <c r="H69">
-        <v>0.556532</v>
+        <v>0.552586</v>
       </c>
       <c r="I69">
-        <v>0.516529</v>
+        <v>0.5</v>
       </c>
       <c r="J69">
-        <v>0.54987</v>
+        <v>0.546202</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4075,16 +4090,16 @@
         <v>0.380952</v>
       </c>
       <c r="G70">
-        <v>0.603226</v>
+        <v>0.572354</v>
       </c>
       <c r="H70">
-        <v>0.497689</v>
+        <v>0.500055</v>
       </c>
       <c r="I70">
-        <v>0.340909</v>
+        <v>0.369318</v>
       </c>
       <c r="J70">
-        <v>0.490372</v>
+        <v>0.490651</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4107,16 +4122,16 @@
         <v>0.454545</v>
       </c>
       <c r="G71">
-        <v>0.620482</v>
+        <v>0.593429</v>
       </c>
       <c r="H71">
-        <v>0.550341</v>
+        <v>0.538285</v>
       </c>
       <c r="I71">
-        <v>0.371212</v>
+        <v>0.361991</v>
       </c>
       <c r="J71">
-        <v>0.504669</v>
+        <v>0.506246</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4139,16 +4154,16 @@
         <v>0.5</v>
       </c>
       <c r="G72">
-        <v>0.563798</v>
+        <v>0.514223</v>
       </c>
       <c r="H72">
-        <v>0.500729</v>
+        <v>0.469999</v>
       </c>
       <c r="I72">
-        <v>0.314516</v>
+        <v>0.294643</v>
       </c>
       <c r="J72">
-        <v>0.5152910000000001</v>
+        <v>0.488306</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4174,13 +4189,13 @@
         <v>0.503171</v>
       </c>
       <c r="H73">
-        <v>0.510198</v>
+        <v>0.492669</v>
       </c>
       <c r="I73">
         <v>0.293103</v>
       </c>
       <c r="J73">
-        <v>0.500938</v>
+        <v>0.468247</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4203,16 +4218,16 @@
         <v>0.764706</v>
       </c>
       <c r="G74">
-        <v>0.378205</v>
+        <v>0.416667</v>
       </c>
       <c r="H74">
-        <v>0.484677</v>
+        <v>0.465715</v>
       </c>
       <c r="I74">
-        <v>0.284483</v>
+        <v>0.316514</v>
       </c>
       <c r="J74">
-        <v>0.501583</v>
+        <v>0.479508</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4235,16 +4250,16 @@
         <v>0.391304</v>
       </c>
       <c r="G75">
-        <v>0.510029</v>
+        <v>0.496032</v>
       </c>
       <c r="H75">
-        <v>0.493764</v>
+        <v>0.472742</v>
       </c>
       <c r="I75">
-        <v>0.273333</v>
+        <v>0.239583</v>
       </c>
       <c r="J75">
-        <v>0.5115499999999999</v>
+        <v>0.498777</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4267,16 +4282,16 @@
         <v>0.652174</v>
       </c>
       <c r="G76">
-        <v>0.400612</v>
+        <v>0.408367</v>
       </c>
       <c r="H76">
-        <v>0.503152</v>
+        <v>0.504809</v>
       </c>
       <c r="I76">
-        <v>0.279793</v>
+        <v>0.277778</v>
       </c>
       <c r="J76">
-        <v>0.521308</v>
+        <v>0.5199009999999999</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4299,16 +4314,16 @@
         <v>0.227273</v>
       </c>
       <c r="G77">
-        <v>0.566239</v>
+        <v>0.541922</v>
       </c>
       <c r="H77">
-        <v>0.544389</v>
+        <v>0.534852</v>
       </c>
       <c r="I77">
-        <v>0.310345</v>
+        <v>0.25</v>
       </c>
       <c r="J77">
-        <v>0.554065</v>
+        <v>0.539542</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4331,16 +4346,16 @@
         <v>0.681818</v>
       </c>
       <c r="G78">
-        <v>0.441472</v>
+        <v>0.406452</v>
       </c>
       <c r="H78">
-        <v>0.487672</v>
+        <v>0.473048</v>
       </c>
       <c r="I78">
-        <v>0.297619</v>
+        <v>0.305732</v>
       </c>
       <c r="J78">
-        <v>0.474547</v>
+        <v>0.457762</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4363,16 +4378,16 @@
         <v>0.863636</v>
       </c>
       <c r="G79">
-        <v>0.481967</v>
+        <v>0.517745</v>
       </c>
       <c r="H79">
-        <v>0.527813</v>
+        <v>0.514494</v>
       </c>
       <c r="I79">
-        <v>0.45583</v>
+        <v>0.485507</v>
       </c>
       <c r="J79">
-        <v>0.527434</v>
+        <v>0.513883</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4398,13 +4413,13 @@
         <v>0.498911</v>
       </c>
       <c r="H80">
-        <v>0.491419</v>
+        <v>0.487158</v>
       </c>
       <c r="I80">
         <v>0.307692</v>
       </c>
       <c r="J80">
-        <v>0.498208</v>
+        <v>0.482796</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4427,16 +4442,16 @@
         <v>0.136364</v>
       </c>
       <c r="G81">
-        <v>0.498462</v>
+        <v>0.485294</v>
       </c>
       <c r="H81">
-        <v>0.50581</v>
+        <v>0.488447</v>
       </c>
       <c r="I81">
-        <v>0.119048</v>
+        <v>0.079365</v>
       </c>
       <c r="J81">
-        <v>0.512077</v>
+        <v>0.508197</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4459,16 +4474,16 @@
         <v>0.952381</v>
       </c>
       <c r="G82">
-        <v>0.505952</v>
+        <v>0.487805</v>
       </c>
       <c r="H82">
-        <v>0.512702</v>
+        <v>0.508599</v>
       </c>
       <c r="I82">
-        <v>0.506757</v>
+        <v>0.487239</v>
       </c>
       <c r="J82">
-        <v>0.512702</v>
+        <v>0.508599</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4491,16 +4506,16 @@
         <v>0.142857</v>
       </c>
       <c r="G83">
-        <v>0.485714</v>
+        <v>0.51087</v>
       </c>
       <c r="H83">
-        <v>0.508996</v>
+        <v>0.5074</v>
       </c>
       <c r="I83">
         <v>0.164179</v>
       </c>
       <c r="J83">
-        <v>0.523274</v>
+        <v>0.523777</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4523,16 +4538,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G84">
-        <v>0.501672</v>
+        <v>0.493562</v>
       </c>
       <c r="H84">
-        <v>0.532284</v>
+        <v>0.520965</v>
       </c>
       <c r="I84">
-        <v>0.405983</v>
+        <v>0.387574</v>
       </c>
       <c r="J84">
-        <v>0.532558</v>
+        <v>0.517219</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4555,16 +4570,16 @@
         <v>0.681818</v>
       </c>
       <c r="G85">
-        <v>0.563003</v>
+        <v>0.524008</v>
       </c>
       <c r="H85">
-        <v>0.544668</v>
+        <v>0.532178</v>
       </c>
       <c r="I85">
-        <v>0.443515</v>
+        <v>0.386997</v>
       </c>
       <c r="J85">
-        <v>0.541112</v>
+        <v>0.528555</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4590,13 +4605,13 @@
         <v>0.609053</v>
       </c>
       <c r="H86">
-        <v>0.532477</v>
+        <v>0.526678</v>
       </c>
       <c r="I86">
         <v>0.496732</v>
       </c>
       <c r="J86">
-        <v>0.502373</v>
+        <v>0.500455</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4619,16 +4634,16 @@
         <v>0.434783</v>
       </c>
       <c r="G87">
-        <v>0.577259</v>
+        <v>0.566802</v>
       </c>
       <c r="H87">
-        <v>0.488745</v>
+        <v>0.49834</v>
       </c>
       <c r="I87">
-        <v>0.375839</v>
+        <v>0.341121</v>
       </c>
       <c r="J87">
-        <v>0.484836</v>
+        <v>0.492731</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4651,16 +4666,16 @@
         <v>0.238095</v>
       </c>
       <c r="G88">
-        <v>0.488372</v>
+        <v>0.476615</v>
       </c>
       <c r="H88">
-        <v>0.468956</v>
+        <v>0.456954</v>
       </c>
       <c r="I88">
-        <v>0.168675</v>
+        <v>0.135922</v>
       </c>
       <c r="J88">
-        <v>0.474983</v>
+        <v>0.464306</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4683,16 +4698,16 @@
         <v>0.7619050000000001</v>
       </c>
       <c r="G89">
-        <v>0.486486</v>
+        <v>0.52027</v>
       </c>
       <c r="H89">
-        <v>0.532881</v>
+        <v>0.511801</v>
       </c>
       <c r="I89">
-        <v>0.448413</v>
+        <v>0.464072</v>
       </c>
       <c r="J89">
-        <v>0.533925</v>
+        <v>0.51324</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4715,16 +4730,16 @@
         <v>0.315789</v>
       </c>
       <c r="G90">
-        <v>0.542169</v>
+        <v>0.548387</v>
       </c>
       <c r="H90">
-        <v>0.454039</v>
+        <v>0.444273</v>
       </c>
       <c r="I90">
-        <v>0.333333</v>
+        <v>0.315789</v>
       </c>
       <c r="J90">
-        <v>0.479722</v>
+        <v>0.44727</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4747,16 +4762,16 @@
         <v>0.681818</v>
       </c>
       <c r="G91">
-        <v>0.468227</v>
+        <v>0.446809</v>
       </c>
       <c r="H91">
-        <v>0.520367</v>
+        <v>0.511029</v>
       </c>
       <c r="I91">
-        <v>0.347368</v>
+        <v>0.324921</v>
       </c>
       <c r="J91">
-        <v>0.5232250000000001</v>
+        <v>0.509462</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4779,16 +4794,16 @@
         <v>0.818182</v>
       </c>
       <c r="G92">
-        <v>0.687179</v>
+        <v>0.553236</v>
       </c>
       <c r="H92">
-        <v>0.559863</v>
+        <v>0.542585</v>
       </c>
       <c r="I92">
-        <v>0.646154</v>
+        <v>0.498728</v>
       </c>
       <c r="J92">
-        <v>0.539687</v>
+        <v>0.526353</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4811,16 +4826,16 @@
         <v>0.263158</v>
       </c>
       <c r="G93">
-        <v>0.537234</v>
+        <v>0.518987</v>
       </c>
       <c r="H93">
-        <v>0.474394</v>
+        <v>0.471608</v>
       </c>
       <c r="I93">
-        <v>0.3625</v>
+        <v>0.323232</v>
       </c>
       <c r="J93">
-        <v>0.405745</v>
+        <v>0.425725</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4846,7 +4861,13 @@
         <v>0.517241</v>
       </c>
       <c r="H94">
-        <v>0.5037</v>
+        <v>0.487079</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4872,13 +4893,13 @@
         <v>0.527778</v>
       </c>
       <c r="H95">
-        <v>0.507961</v>
+        <v>0.497296</v>
       </c>
       <c r="I95">
         <v>0.318182</v>
       </c>
       <c r="J95">
-        <v>0.556355</v>
+        <v>0.5370239999999999</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4901,16 +4922,16 @@
         <v>0.681818</v>
       </c>
       <c r="G96">
-        <v>0.478548</v>
+        <v>0.461216</v>
       </c>
       <c r="H96">
-        <v>0.529094</v>
+        <v>0.513404</v>
       </c>
       <c r="I96">
-        <v>0.368664</v>
+        <v>0.33945</v>
       </c>
       <c r="J96">
-        <v>0.529971</v>
+        <v>0.518728</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4933,16 +4954,16 @@
         <v>0.73913</v>
       </c>
       <c r="G97">
-        <v>0.554007</v>
+        <v>0.492188</v>
       </c>
       <c r="H97">
-        <v>0.52319</v>
+        <v>0.5043879999999999</v>
       </c>
       <c r="I97">
-        <v>0.409091</v>
+        <v>0.379947</v>
       </c>
       <c r="J97">
-        <v>0.51656</v>
+        <v>0.49848</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4965,16 +4986,16 @@
         <v>0.52381</v>
       </c>
       <c r="G98">
-        <v>0.495845</v>
+        <v>0.47973</v>
       </c>
       <c r="H98">
-        <v>0.482957</v>
+        <v>0.485483</v>
       </c>
       <c r="I98">
-        <v>0.358289</v>
+        <v>0.333333</v>
       </c>
       <c r="J98">
-        <v>0.494872</v>
+        <v>0.498463</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4997,16 +5018,16 @@
         <v>0.590909</v>
       </c>
       <c r="G99">
-        <v>0.540897</v>
+        <v>0.560976</v>
       </c>
       <c r="H99">
-        <v>0.583109</v>
+        <v>0.56676</v>
       </c>
       <c r="I99">
-        <v>0.439024</v>
+        <v>0.439863</v>
       </c>
       <c r="J99">
-        <v>0.556972</v>
+        <v>0.539188</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -5029,16 +5050,16 @@
         <v>0.681818</v>
       </c>
       <c r="G100">
-        <v>0.481818</v>
+        <v>0.501124</v>
       </c>
       <c r="H100">
-        <v>0.518782</v>
+        <v>0.505395</v>
       </c>
       <c r="I100">
-        <v>0.388889</v>
+        <v>0.419244</v>
       </c>
       <c r="J100">
-        <v>0.501535</v>
+        <v>0.495778</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -5061,16 +5082,16 @@
         <v>0.454545</v>
       </c>
       <c r="G101">
-        <v>0.44186</v>
+        <v>0.461864</v>
       </c>
       <c r="H101">
-        <v>0.49912</v>
+        <v>0.49014</v>
       </c>
       <c r="I101">
-        <v>0.295302</v>
+        <v>0.28436</v>
       </c>
       <c r="J101">
-        <v>0.510424</v>
+        <v>0.501225</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -5093,16 +5114,16 @@
         <v>0.565217</v>
       </c>
       <c r="G102">
-        <v>0.417957</v>
+        <v>0.443548</v>
       </c>
       <c r="H102">
-        <v>0.510642</v>
+        <v>0.491382</v>
       </c>
       <c r="I102">
-        <v>0.28655</v>
+        <v>0.31295</v>
       </c>
       <c r="J102">
-        <v>0.511613</v>
+        <v>0.491445</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -5112,6 +5133,18 @@
       <c r="F103">
         <v>0</v>
       </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
@@ -5133,16 +5166,16 @@
         <v>0.590909</v>
       </c>
       <c r="G104">
-        <v>0.5571430000000001</v>
+        <v>0.54262</v>
       </c>
       <c r="H104">
-        <v>0.55625</v>
+        <v>0.5419079999999999</v>
       </c>
       <c r="I104">
-        <v>0.419355</v>
+        <v>0.379433</v>
       </c>
       <c r="J104">
-        <v>0.544886</v>
+        <v>0.53412</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -5165,16 +5198,16 @@
         <v>0.318182</v>
       </c>
       <c r="G105">
-        <v>0.487414</v>
+        <v>0.466083</v>
       </c>
       <c r="H105">
-        <v>0.507481</v>
+        <v>0.489685</v>
       </c>
       <c r="I105">
-        <v>0.180328</v>
+        <v>0.15493</v>
       </c>
       <c r="J105">
-        <v>0.501966</v>
+        <v>0.494298</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -5197,16 +5230,16 @@
         <v>0.681818</v>
       </c>
       <c r="G106">
-        <v>0.483755</v>
+        <v>0.457447</v>
       </c>
       <c r="H106">
-        <v>0.543954</v>
+        <v>0.523427</v>
       </c>
       <c r="I106">
-        <v>0.347059</v>
+        <v>0.335423</v>
       </c>
       <c r="J106">
-        <v>0.532725</v>
+        <v>0.5301940000000001</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -5229,16 +5262,16 @@
         <v>0.73913</v>
       </c>
       <c r="G107">
-        <v>0.550725</v>
+        <v>0.511066</v>
       </c>
       <c r="H107">
-        <v>0.541191</v>
+        <v>0.524551</v>
       </c>
       <c r="I107">
-        <v>0.428571</v>
+        <v>0.423823</v>
       </c>
       <c r="J107">
-        <v>0.515639</v>
+        <v>0.506406</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -5261,16 +5294,16 @@
         <v>0.7619050000000001</v>
       </c>
       <c r="G108">
-        <v>0.341564</v>
+        <v>0.385343</v>
       </c>
       <c r="H108">
-        <v>0.499884</v>
+        <v>0.492117</v>
       </c>
       <c r="I108">
-        <v>0.269663</v>
+        <v>0.307937</v>
       </c>
       <c r="J108">
-        <v>0.498103</v>
+        <v>0.491616</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -5293,16 +5326,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G109">
-        <v>0.559633</v>
+        <v>0.543933</v>
       </c>
       <c r="H109">
-        <v>0.548289</v>
+        <v>0.523956</v>
       </c>
       <c r="I109">
-        <v>0.48855</v>
+        <v>0.43804</v>
       </c>
       <c r="J109">
-        <v>0.543816</v>
+        <v>0.517976</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -5325,16 +5358,16 @@
         <v>0.454545</v>
       </c>
       <c r="G110">
-        <v>0.458967</v>
+        <v>0.480331</v>
       </c>
       <c r="H110">
-        <v>0.496615</v>
+        <v>0.487913</v>
       </c>
       <c r="I110">
-        <v>0.358382</v>
+        <v>0.345622</v>
       </c>
       <c r="J110">
-        <v>0.487264</v>
+        <v>0.482824</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -5348,7 +5381,13 @@
         <v>0.518382</v>
       </c>
       <c r="H111">
-        <v>0.466667</v>
+        <v>0.451269</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -5371,16 +5410,16 @@
         <v>0.5</v>
       </c>
       <c r="G112">
-        <v>0.486577</v>
+        <v>0.507853</v>
       </c>
       <c r="H112">
-        <v>0.504343</v>
+        <v>0.496646</v>
       </c>
       <c r="I112">
-        <v>0.313609</v>
+        <v>0.333333</v>
       </c>
       <c r="J112">
-        <v>0.506559</v>
+        <v>0.507155</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -5403,16 +5442,16 @@
         <v>0.863636</v>
       </c>
       <c r="G113">
-        <v>0.512111</v>
+        <v>0.508163</v>
       </c>
       <c r="H113">
-        <v>0.555791</v>
+        <v>0.540215</v>
       </c>
       <c r="I113">
-        <v>0.490637</v>
+        <v>0.460993</v>
       </c>
       <c r="J113">
-        <v>0.542566</v>
+        <v>0.53204</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -5435,16 +5474,16 @@
         <v>0.391304</v>
       </c>
       <c r="G114">
-        <v>0.492021</v>
+        <v>0.498031</v>
       </c>
       <c r="H114">
-        <v>0.54118</v>
+        <v>0.535102</v>
       </c>
       <c r="I114">
-        <v>0.233766</v>
+        <v>0.208122</v>
       </c>
       <c r="J114">
-        <v>0.535855</v>
+        <v>0.529932</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -5467,16 +5506,16 @@
         <v>0.454545</v>
       </c>
       <c r="G115">
-        <v>0.547368</v>
+        <v>0.545833</v>
       </c>
       <c r="H115">
-        <v>0.506865</v>
+        <v>0.502057</v>
       </c>
       <c r="I115">
-        <v>0.320611</v>
+        <v>0.304147</v>
       </c>
       <c r="J115">
-        <v>0.521451</v>
+        <v>0.5044920000000001</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -5499,16 +5538,16 @@
         <v>0.954545</v>
       </c>
       <c r="G116">
-        <v>0.475</v>
+        <v>0.472279</v>
       </c>
       <c r="H116">
-        <v>0.527051</v>
+        <v>0.523106</v>
       </c>
       <c r="I116">
-        <v>0.462963</v>
+        <v>0.462366</v>
       </c>
       <c r="J116">
-        <v>0.525244</v>
+        <v>0.520116</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -5531,16 +5570,16 @@
         <v>0.863636</v>
       </c>
       <c r="G117">
-        <v>0.578348</v>
+        <v>0.53527</v>
       </c>
       <c r="H117">
-        <v>0.563963</v>
+        <v>0.541161</v>
       </c>
       <c r="I117">
-        <v>0.521127</v>
+        <v>0.489157</v>
       </c>
       <c r="J117">
-        <v>0.552239</v>
+        <v>0.528717</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5563,16 +5602,16 @@
         <v>0.055556</v>
       </c>
       <c r="G118">
-        <v>0.417476</v>
+        <v>0.404826</v>
       </c>
       <c r="H118">
-        <v>0.489521</v>
+        <v>0.465694</v>
       </c>
       <c r="I118">
         <v>0.227273</v>
       </c>
       <c r="J118">
-        <v>0.363057</v>
+        <v>0.399527</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -5595,16 +5634,16 @@
         <v>0.227273</v>
       </c>
       <c r="G119">
-        <v>0.537778</v>
+        <v>0.52017</v>
       </c>
       <c r="H119">
-        <v>0.491057</v>
+        <v>0.488515</v>
       </c>
       <c r="I119">
-        <v>0.216867</v>
+        <v>0.201923</v>
       </c>
       <c r="J119">
-        <v>0.463096</v>
+        <v>0.455817</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -5627,16 +5666,16 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <v>0.539394</v>
+        <v>0.526971</v>
       </c>
       <c r="H120">
-        <v>0.562357</v>
+        <v>0.54122</v>
       </c>
       <c r="I120">
-        <v>0.539394</v>
+        <v>0.526971</v>
       </c>
       <c r="J120">
-        <v>0.562357</v>
+        <v>0.54122</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -5659,16 +5698,16 @@
         <v>0.409091</v>
       </c>
       <c r="G121">
-        <v>0.396226</v>
+        <v>0.475789</v>
       </c>
       <c r="H121">
-        <v>0.516896</v>
+        <v>0.499244</v>
       </c>
       <c r="I121">
-        <v>0.34375</v>
+        <v>0.373057</v>
       </c>
       <c r="J121">
-        <v>0.486849</v>
+        <v>0.4584</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -5691,16 +5730,16 @@
         <v>0.818182</v>
       </c>
       <c r="G122">
-        <v>0.425466</v>
+        <v>0.442553</v>
       </c>
       <c r="H122">
-        <v>0.53069</v>
+        <v>0.50835</v>
       </c>
       <c r="I122">
-        <v>0.335938</v>
+        <v>0.366492</v>
       </c>
       <c r="J122">
-        <v>0.5176770000000001</v>
+        <v>0.499309</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -5723,16 +5762,16 @@
         <v>0.636364</v>
       </c>
       <c r="G123">
-        <v>0.570621</v>
+        <v>0.514523</v>
       </c>
       <c r="H123">
-        <v>0.566381</v>
+        <v>0.544811</v>
       </c>
       <c r="I123">
-        <v>0.522222</v>
+        <v>0.452769</v>
       </c>
       <c r="J123">
-        <v>0.554584</v>
+        <v>0.538812</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5755,16 +5794,16 @@
         <v>0.272727</v>
       </c>
       <c r="G124">
-        <v>0.563441</v>
+        <v>0.552361</v>
       </c>
       <c r="H124">
-        <v>0.501275</v>
+        <v>0.490404</v>
       </c>
       <c r="I124">
-        <v>0.302752</v>
+        <v>0.305344</v>
       </c>
       <c r="J124">
-        <v>0.48573</v>
+        <v>0.479898</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -5787,16 +5826,16 @@
         <v>0.65</v>
       </c>
       <c r="G125">
-        <v>0.469388</v>
+        <v>0.389535</v>
       </c>
       <c r="H125">
-        <v>0.494135</v>
+        <v>0.489822</v>
       </c>
       <c r="I125">
-        <v>0.263158</v>
+        <v>0.304348</v>
       </c>
       <c r="J125">
-        <v>0.48903</v>
+        <v>0.484242</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -5819,16 +5858,16 @@
         <v>0.863636</v>
       </c>
       <c r="G126">
-        <v>0.619808</v>
+        <v>0.574037</v>
       </c>
       <c r="H126">
-        <v>0.532429</v>
+        <v>0.517076</v>
       </c>
       <c r="I126">
-        <v>0.54878</v>
+        <v>0.525822</v>
       </c>
       <c r="J126">
-        <v>0.528474</v>
+        <v>0.513993</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5851,16 +5890,16 @@
         <v>0.521739</v>
       </c>
       <c r="G127">
-        <v>0.519337</v>
+        <v>0.46748</v>
       </c>
       <c r="H127">
-        <v>0.5068009999999999</v>
+        <v>0.491916</v>
       </c>
       <c r="I127">
-        <v>0.359375</v>
+        <v>0.333333</v>
       </c>
       <c r="J127">
-        <v>0.481855</v>
+        <v>0.48455</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5883,16 +5922,16 @@
         <v>0.652174</v>
       </c>
       <c r="G128">
-        <v>0.508721</v>
+        <v>0.475709</v>
       </c>
       <c r="H128">
-        <v>0.525014</v>
+        <v>0.507105</v>
       </c>
       <c r="I128">
-        <v>0.356808</v>
+        <v>0.321875</v>
       </c>
       <c r="J128">
-        <v>0.509946</v>
+        <v>0.510524</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5915,16 +5954,16 @@
         <v>0.318182</v>
       </c>
       <c r="G129">
-        <v>0.433022</v>
+        <v>0.423077</v>
       </c>
       <c r="H129">
-        <v>0.471595</v>
+        <v>0.45305</v>
       </c>
       <c r="I129">
-        <v>0.109756</v>
+        <v>0.174825</v>
       </c>
       <c r="J129">
-        <v>0.48196</v>
+        <v>0.468866</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5947,16 +5986,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G130">
-        <v>0.446254</v>
+        <v>0.459207</v>
       </c>
       <c r="H130">
-        <v>0.527322</v>
+        <v>0.511469</v>
       </c>
       <c r="I130">
-        <v>0.373134</v>
+        <v>0.378738</v>
       </c>
       <c r="J130">
-        <v>0.554257</v>
+        <v>0.510252</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5979,16 +6018,16 @@
         <v>0.217391</v>
       </c>
       <c r="G131">
-        <v>0.598485</v>
+        <v>0.573123</v>
       </c>
       <c r="H131">
-        <v>0.54631</v>
+        <v>0.534679</v>
       </c>
       <c r="I131">
-        <v>0.348485</v>
+        <v>0.3</v>
       </c>
       <c r="J131">
-        <v>0.525722</v>
+        <v>0.520844</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -6014,13 +6053,13 @@
         <v>0.556468</v>
       </c>
       <c r="H132">
-        <v>0.546714</v>
+        <v>0.545625</v>
       </c>
       <c r="I132">
         <v>0.271028</v>
       </c>
       <c r="J132">
-        <v>0.486413</v>
+        <v>0.483775</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -6043,16 +6082,16 @@
         <v>0.4</v>
       </c>
       <c r="G133">
-        <v>0.534979</v>
+        <v>0.505669</v>
       </c>
       <c r="H133">
-        <v>0.506703</v>
+        <v>0.495169</v>
       </c>
       <c r="I133">
-        <v>0.151515</v>
+        <v>0.272727</v>
       </c>
       <c r="J133">
-        <v>0.509279</v>
+        <v>0.488527</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -6075,16 +6114,16 @@
         <v>0.636364</v>
       </c>
       <c r="G134">
-        <v>0.602241</v>
+        <v>0.565306</v>
       </c>
       <c r="H134">
-        <v>0.532322</v>
+        <v>0.529547</v>
       </c>
       <c r="I134">
-        <v>0.472637</v>
+        <v>0.461538</v>
       </c>
       <c r="J134">
-        <v>0.523822</v>
+        <v>0.524278</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -6107,16 +6146,16 @@
         <v>0.272727</v>
       </c>
       <c r="G135">
-        <v>0.577434</v>
+        <v>0.567511</v>
       </c>
       <c r="H135">
-        <v>0.493314</v>
+        <v>0.492281</v>
       </c>
       <c r="I135">
         <v>0.409449</v>
       </c>
       <c r="J135">
-        <v>0.48</v>
+        <v>0.469844</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -6139,16 +6178,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G136">
-        <v>0.527972</v>
+        <v>0.489627</v>
       </c>
       <c r="H136">
-        <v>0.508066</v>
+        <v>0.498433</v>
       </c>
       <c r="I136">
-        <v>0.365714</v>
+        <v>0.375358</v>
       </c>
       <c r="J136">
-        <v>0.48922</v>
+        <v>0.480935</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -6171,16 +6210,16 @@
         <v>0.227273</v>
       </c>
       <c r="G137">
-        <v>0.488064</v>
+        <v>0.471429</v>
       </c>
       <c r="H137">
-        <v>0.503324</v>
+        <v>0.494575</v>
       </c>
       <c r="I137">
-        <v>0.244444</v>
+        <v>0.210526</v>
       </c>
       <c r="J137">
-        <v>0.479243</v>
+        <v>0.482828</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -6203,16 +6242,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G138">
-        <v>0.5902579999999999</v>
+        <v>0.5645829999999999</v>
       </c>
       <c r="H138">
-        <v>0.578286</v>
+        <v>0.561477</v>
       </c>
       <c r="I138">
-        <v>0.54023</v>
+        <v>0.52973</v>
       </c>
       <c r="J138">
-        <v>0.574972</v>
+        <v>0.5567029999999999</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -6235,16 +6274,16 @@
         <v>0.409091</v>
       </c>
       <c r="G139">
-        <v>0.501779</v>
+        <v>0.452991</v>
       </c>
       <c r="H139">
-        <v>0.492276</v>
+        <v>0.486549</v>
       </c>
       <c r="I139">
-        <v>0.238462</v>
+        <v>0.208556</v>
       </c>
       <c r="J139">
-        <v>0.505481</v>
+        <v>0.489813</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -6267,16 +6306,16 @@
         <v>0.545455</v>
       </c>
       <c r="G140">
-        <v>0.462264</v>
+        <v>0.491453</v>
       </c>
       <c r="H140">
-        <v>0.511759</v>
+        <v>0.5020289999999999</v>
       </c>
       <c r="I140">
-        <v>0.310345</v>
+        <v>0.383399</v>
       </c>
       <c r="J140">
-        <v>0.528965</v>
+        <v>0.511809</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -6299,16 +6338,16 @@
         <v>0.409091</v>
       </c>
       <c r="G141">
-        <v>0.478528</v>
+        <v>0.471698</v>
       </c>
       <c r="H141">
-        <v>0.507672</v>
+        <v>0.501599</v>
       </c>
       <c r="I141">
-        <v>0.230769</v>
+        <v>0.21134</v>
       </c>
       <c r="J141">
-        <v>0.486116</v>
+        <v>0.481152</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -6318,6 +6357,18 @@
       <c r="F142">
         <v>0</v>
       </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
@@ -6339,16 +6390,16 @@
         <v>0.238095</v>
       </c>
       <c r="G143">
-        <v>0.44</v>
+        <v>0.443956</v>
       </c>
       <c r="H143">
-        <v>0.538718</v>
+        <v>0.516998</v>
       </c>
       <c r="I143">
-        <v>0.216867</v>
+        <v>0.176471</v>
       </c>
       <c r="J143">
-        <v>0.511405</v>
+        <v>0.498606</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -6371,16 +6422,16 @@
         <v>0.47619</v>
       </c>
       <c r="G144">
-        <v>0.436975</v>
+        <v>0.425676</v>
       </c>
       <c r="H144">
-        <v>0.485399</v>
+        <v>0.466042</v>
       </c>
       <c r="I144">
-        <v>0.302326</v>
+        <v>0.266667</v>
       </c>
       <c r="J144">
-        <v>0.417281</v>
+        <v>0.417243</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -6403,16 +6454,16 @@
         <v>0.157895</v>
       </c>
       <c r="G145">
-        <v>0.5080209999999999</v>
+        <v>0.470588</v>
       </c>
       <c r="H145">
-        <v>0.501677</v>
+        <v>0.495455</v>
       </c>
       <c r="I145">
         <v>0.055556</v>
       </c>
       <c r="J145">
-        <v>0.417476</v>
+        <v>0.404826</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -6435,16 +6486,16 @@
         <v>0.681818</v>
       </c>
       <c r="G146">
-        <v>0.584507</v>
+        <v>0.569647</v>
       </c>
       <c r="H146">
-        <v>0.535787</v>
+        <v>0.5235379999999999</v>
       </c>
       <c r="I146">
-        <v>0.461538</v>
+        <v>0.432515</v>
       </c>
       <c r="J146">
-        <v>0.527589</v>
+        <v>0.518604</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -6454,6 +6505,18 @@
       <c r="F147">
         <v>0</v>
       </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
@@ -6475,16 +6538,16 @@
         <v>0.681818</v>
       </c>
       <c r="G148">
-        <v>0.527687</v>
+        <v>0.516598</v>
       </c>
       <c r="H148">
-        <v>0.5223</v>
+        <v>0.5137969999999999</v>
       </c>
       <c r="I148">
-        <v>0.40553</v>
+        <v>0.392638</v>
       </c>
       <c r="J148">
-        <v>0.540208</v>
+        <v>0.529213</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -6510,13 +6573,13 @@
         <v>0.482838</v>
       </c>
       <c r="H149">
-        <v>0.517519</v>
+        <v>0.521612</v>
       </c>
       <c r="I149">
         <v>0.095238</v>
       </c>
       <c r="J149">
-        <v>0.46871</v>
+        <v>0.461707</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -6539,16 +6602,16 @@
         <v>0.272727</v>
       </c>
       <c r="G150">
-        <v>0.52194</v>
+        <v>0.516807</v>
       </c>
       <c r="H150">
-        <v>0.486591</v>
+        <v>0.487914</v>
       </c>
       <c r="I150">
-        <v>0.231481</v>
+        <v>0.207692</v>
       </c>
       <c r="J150">
-        <v>0.512061</v>
+        <v>0.496575</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -6571,16 +6634,16 @@
         <v>0.304348</v>
       </c>
       <c r="G151">
-        <v>0.504478</v>
+        <v>0.478599</v>
       </c>
       <c r="H151">
-        <v>0.518227</v>
+        <v>0.497454</v>
       </c>
       <c r="I151">
-        <v>0.244444</v>
+        <v>0.282051</v>
       </c>
       <c r="J151">
-        <v>0.51657</v>
+        <v>0.507728</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -6603,16 +6666,16 @@
         <v>0.590909</v>
       </c>
       <c r="G152">
-        <v>0.467128</v>
+        <v>0.463415</v>
       </c>
       <c r="H152">
-        <v>0.52861</v>
+        <v>0.509551</v>
       </c>
       <c r="I152">
-        <v>0.321608</v>
+        <v>0.301038</v>
       </c>
       <c r="J152">
-        <v>0.524656</v>
+        <v>0.511338</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -6628,6 +6691,12 @@
       <c r="H153">
         <v>0.482838</v>
       </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
@@ -6649,16 +6718,16 @@
         <v>0.391304</v>
       </c>
       <c r="G154">
-        <v>0.5</v>
+        <v>0.497018</v>
       </c>
       <c r="H154">
-        <v>0.556377</v>
+        <v>0.534593</v>
       </c>
       <c r="I154">
-        <v>0.238411</v>
+        <v>0.268041</v>
       </c>
       <c r="J154">
-        <v>0.503434</v>
+        <v>0.493184</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -6681,16 +6750,16 @@
         <v>0.681818</v>
       </c>
       <c r="G155">
-        <v>0.42522</v>
+        <v>0.414163</v>
       </c>
       <c r="H155">
-        <v>0.511104</v>
+        <v>0.503252</v>
       </c>
       <c r="I155">
-        <v>0.34632</v>
+        <v>0.338658</v>
       </c>
       <c r="J155">
-        <v>0.5146579999999999</v>
+        <v>0.508275</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -6713,16 +6782,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G156">
-        <v>0.518868</v>
+        <v>0.5127119999999999</v>
       </c>
       <c r="H156">
-        <v>0.497385</v>
+        <v>0.501685</v>
       </c>
       <c r="I156">
-        <v>0.444444</v>
+        <v>0.426087</v>
       </c>
       <c r="J156">
-        <v>0.491836</v>
+        <v>0.494725</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -6745,16 +6814,16 @@
         <v>0.8</v>
       </c>
       <c r="G157">
-        <v>0.39557</v>
+        <v>0.395577</v>
       </c>
       <c r="H157">
-        <v>0.50726</v>
+        <v>0.495372</v>
       </c>
       <c r="I157">
-        <v>0.305677</v>
+        <v>0.33125</v>
       </c>
       <c r="J157">
-        <v>0.506825</v>
+        <v>0.486904</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -6777,16 +6846,16 @@
         <v>0.428571</v>
       </c>
       <c r="G158">
-        <v>0.555944</v>
+        <v>0.561822</v>
       </c>
       <c r="H158">
-        <v>0.549679</v>
+        <v>0.541861</v>
       </c>
       <c r="I158">
-        <v>0.353846</v>
+        <v>0.321429</v>
       </c>
       <c r="J158">
-        <v>0.542202</v>
+        <v>0.541741</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6809,16 +6878,16 @@
         <v>0.909091</v>
       </c>
       <c r="G159">
-        <v>0.50974</v>
+        <v>0.5031060000000001</v>
       </c>
       <c r="H159">
-        <v>0.569993</v>
+        <v>0.556118</v>
       </c>
       <c r="I159">
-        <v>0.463878</v>
+        <v>0.474886</v>
       </c>
       <c r="J159">
-        <v>0.562769</v>
+        <v>0.552197</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -6841,16 +6910,16 @@
         <v>0.695652</v>
       </c>
       <c r="G160">
-        <v>0.446809</v>
+        <v>0.452381</v>
       </c>
       <c r="H160">
-        <v>0.528468</v>
+        <v>0.505678</v>
       </c>
       <c r="I160">
-        <v>0.341014</v>
+        <v>0.362069</v>
       </c>
       <c r="J160">
-        <v>0.523259</v>
+        <v>0.5016389999999999</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -6873,16 +6942,16 @@
         <v>0.47619</v>
       </c>
       <c r="G161">
-        <v>0.517751</v>
+        <v>0.484919</v>
       </c>
       <c r="H161">
-        <v>0.488372</v>
+        <v>0.478964</v>
       </c>
       <c r="I161">
-        <v>0.412698</v>
+        <v>0.35533</v>
       </c>
       <c r="J161">
-        <v>0.497233</v>
+        <v>0.47843</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6905,16 +6974,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G162">
-        <v>0.544892</v>
+        <v>0.509514</v>
       </c>
       <c r="H162">
-        <v>0.501069</v>
+        <v>0.496277</v>
       </c>
       <c r="I162">
-        <v>0.461864</v>
+        <v>0.436813</v>
       </c>
       <c r="J162">
-        <v>0.511146</v>
+        <v>0.508107</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6940,13 +7009,13 @@
         <v>0.511482</v>
       </c>
       <c r="H163">
-        <v>0.500789</v>
+        <v>0.487666</v>
       </c>
       <c r="I163">
         <v>0.47619</v>
       </c>
       <c r="J163">
-        <v>0.475703</v>
+        <v>0.41225</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -6969,16 +7038,16 @@
         <v>0.363636</v>
       </c>
       <c r="G164">
-        <v>0.583333</v>
+        <v>0.566667</v>
       </c>
       <c r="H164">
-        <v>0.475717</v>
+        <v>0.481134</v>
       </c>
       <c r="I164">
-        <v>0.254717</v>
+        <v>0.295858</v>
       </c>
       <c r="J164">
-        <v>0.522279</v>
+        <v>0.508954</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -6992,7 +7061,13 @@
         <v>0.492308</v>
       </c>
       <c r="H165">
-        <v>0.459035</v>
+        <v>0.437076</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -7015,16 +7090,16 @@
         <v>0.565217</v>
       </c>
       <c r="G166">
-        <v>0.593548</v>
+        <v>0.531373</v>
       </c>
       <c r="H166">
-        <v>0.519744</v>
+        <v>0.511623</v>
       </c>
       <c r="I166">
-        <v>0.44697</v>
+        <v>0.385417</v>
       </c>
       <c r="J166">
-        <v>0.51301</v>
+        <v>0.510144</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -7047,16 +7122,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G167">
-        <v>0.663158</v>
+        <v>0.580913</v>
       </c>
       <c r="H167">
-        <v>0.546184</v>
+        <v>0.537137</v>
       </c>
       <c r="I167">
-        <v>0.558376</v>
+        <v>0.486559</v>
       </c>
       <c r="J167">
-        <v>0.53884</v>
+        <v>0.537691</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -7079,16 +7154,16 @@
         <v>0.409091</v>
       </c>
       <c r="G168">
-        <v>0.524116</v>
+        <v>0.501085</v>
       </c>
       <c r="H168">
-        <v>0.496899</v>
+        <v>0.482873</v>
       </c>
       <c r="I168">
-        <v>0.253968</v>
+        <v>0.221053</v>
       </c>
       <c r="J168">
-        <v>0.49918</v>
+        <v>0.500641</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -7111,16 +7186,16 @@
         <v>0.818182</v>
       </c>
       <c r="G169">
-        <v>0.639535</v>
+        <v>0.575569</v>
       </c>
       <c r="H169">
-        <v>0.56633</v>
+        <v>0.542468</v>
       </c>
       <c r="I169">
-        <v>0.545455</v>
+        <v>0.520101</v>
       </c>
       <c r="J169">
-        <v>0.565499</v>
+        <v>0.547378</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -7143,13 +7218,16 @@
         <v>0.363636</v>
       </c>
       <c r="G170">
-        <v>0.5</v>
+        <v>0.482402</v>
       </c>
       <c r="H170">
-        <v>0.531737</v>
+        <v>0.526941</v>
+      </c>
+      <c r="I170">
+        <v>0.234286</v>
       </c>
       <c r="J170">
-        <v>0.527287</v>
+        <v>0.524365</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -7172,16 +7250,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G171">
-        <v>0.64191</v>
+        <v>0.601643</v>
       </c>
       <c r="H171">
-        <v>0.541667</v>
+        <v>0.531453</v>
       </c>
       <c r="I171">
-        <v>0.586806</v>
+        <v>0.542553</v>
       </c>
       <c r="J171">
-        <v>0.542318</v>
+        <v>0.526892</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -7204,16 +7282,16 @@
         <v>0.47619</v>
       </c>
       <c r="G172">
-        <v>0.494565</v>
+        <v>0.50939</v>
       </c>
       <c r="H172">
-        <v>0.458134</v>
+        <v>0.455057</v>
       </c>
       <c r="I172">
-        <v>0.275</v>
+        <v>0.348259</v>
       </c>
       <c r="J172">
-        <v>0.479891</v>
+        <v>0.471449</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -7236,10 +7314,16 @@
         <v>0</v>
       </c>
       <c r="G173">
-        <v>0.559242</v>
+        <v>0.556872</v>
       </c>
       <c r="H173">
-        <v>0.493658</v>
+        <v>0.467252</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -7262,16 +7346,16 @@
         <v>0.695652</v>
       </c>
       <c r="G174">
-        <v>0.550964</v>
+        <v>0.522634</v>
       </c>
       <c r="H174">
-        <v>0.4842</v>
+        <v>0.479826</v>
       </c>
       <c r="I174">
-        <v>0.474138</v>
+        <v>0.431138</v>
       </c>
       <c r="J174">
-        <v>0.485702</v>
+        <v>0.482194</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -7297,7 +7381,13 @@
         <v>0.5669459999999999</v>
       </c>
       <c r="H175">
-        <v>0.497137</v>
+        <v>0.487303</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -7320,16 +7410,16 @@
         <v>0.380952</v>
       </c>
       <c r="G176">
-        <v>0.547855</v>
+        <v>0.524017</v>
       </c>
       <c r="H176">
-        <v>0.504616</v>
+        <v>0.492704</v>
       </c>
       <c r="I176">
-        <v>0.215909</v>
+        <v>0.301136</v>
       </c>
       <c r="J176">
-        <v>0.508419</v>
+        <v>0.506736</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -7352,16 +7442,16 @@
         <v>0.590909</v>
       </c>
       <c r="G177">
-        <v>0.451327</v>
+        <v>0.458065</v>
       </c>
       <c r="H177">
-        <v>0.502945</v>
+        <v>0.498281</v>
       </c>
       <c r="I177">
-        <v>0.312169</v>
+        <v>0.316176</v>
       </c>
       <c r="J177">
-        <v>0.524848</v>
+        <v>0.51847</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -7384,16 +7474,16 @@
         <v>0.454545</v>
       </c>
       <c r="G178">
-        <v>0.531343</v>
+        <v>0.487013</v>
       </c>
       <c r="H178">
-        <v>0.512092</v>
+        <v>0.492158</v>
       </c>
       <c r="I178">
-        <v>0.290076</v>
+        <v>0.296296</v>
       </c>
       <c r="J178">
-        <v>0.506167</v>
+        <v>0.494783</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -7419,13 +7509,13 @@
         <v>0.474895</v>
       </c>
       <c r="H179">
-        <v>0.509698</v>
+        <v>0.484756</v>
       </c>
       <c r="I179">
         <v>0.181818</v>
       </c>
       <c r="J179">
-        <v>0.517583</v>
+        <v>0.497527</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -7448,16 +7538,16 @@
         <v>0.5</v>
       </c>
       <c r="G180">
-        <v>0.507901</v>
+        <v>0.486653</v>
       </c>
       <c r="H180">
-        <v>0.497987</v>
+        <v>0.491413</v>
       </c>
       <c r="I180">
-        <v>0.405</v>
+        <v>0.381148</v>
       </c>
       <c r="J180">
-        <v>0.503665</v>
+        <v>0.497326</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -7480,16 +7570,16 @@
         <v>0.368421</v>
       </c>
       <c r="G181">
-        <v>0.432024</v>
+        <v>0.454308</v>
       </c>
       <c r="H181">
-        <v>0.4916</v>
+        <v>0.483405</v>
       </c>
       <c r="I181">
-        <v>0.172043</v>
+        <v>0.264</v>
       </c>
       <c r="J181">
-        <v>0.493437</v>
+        <v>0.491102</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -7515,13 +7605,13 @@
         <v>0.554945</v>
       </c>
       <c r="H182">
-        <v>0.489609</v>
+        <v>0.487146</v>
       </c>
       <c r="I182">
         <v>0.65</v>
       </c>
       <c r="J182">
-        <v>0.469388</v>
+        <v>0.389535</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -7544,16 +7634,16 @@
         <v>0.363636</v>
       </c>
       <c r="G183">
-        <v>0.469697</v>
+        <v>0.528067</v>
       </c>
       <c r="H183">
-        <v>0.564758</v>
+        <v>0.544591</v>
       </c>
       <c r="I183">
-        <v>0.235955</v>
+        <v>0.306818</v>
       </c>
       <c r="J183">
-        <v>0.566763</v>
+        <v>0.5523</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -7576,16 +7666,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G184">
-        <v>0.529915</v>
+        <v>0.491736</v>
       </c>
       <c r="H184">
-        <v>0.5100209999999999</v>
+        <v>0.500525</v>
       </c>
       <c r="I184">
-        <v>0.470833</v>
+        <v>0.425714</v>
       </c>
       <c r="J184">
-        <v>0.499383</v>
+        <v>0.490055</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -7608,16 +7698,16 @@
         <v>0.421053</v>
       </c>
       <c r="G185">
-        <v>0.574713</v>
+        <v>0.5482089999999999</v>
       </c>
       <c r="H185">
-        <v>0.477706</v>
+        <v>0.465604</v>
       </c>
       <c r="I185">
-        <v>0.514706</v>
+        <v>0.461538</v>
       </c>
       <c r="J185">
-        <v>0.488432</v>
+        <v>0.464781</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -7640,16 +7730,16 @@
         <v>0.5</v>
       </c>
       <c r="G186">
-        <v>0.438395</v>
+        <v>0.46473</v>
       </c>
       <c r="H186">
-        <v>0.520782</v>
+        <v>0.510389</v>
       </c>
       <c r="I186">
-        <v>0.28866</v>
+        <v>0.285714</v>
       </c>
       <c r="J186">
-        <v>0.524664</v>
+        <v>0.51419</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -7672,16 +7762,16 @@
         <v>0.636364</v>
       </c>
       <c r="G187">
-        <v>0.491103</v>
+        <v>0.467091</v>
       </c>
       <c r="H187">
-        <v>0.523435</v>
+        <v>0.508073</v>
       </c>
       <c r="I187">
-        <v>0.33557</v>
+        <v>0.352542</v>
       </c>
       <c r="J187">
-        <v>0.522429</v>
+        <v>0.5115150000000001</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -7704,16 +7794,16 @@
         <v>0.695652</v>
       </c>
       <c r="G188">
-        <v>0.497326</v>
+        <v>0.492095</v>
       </c>
       <c r="H188">
-        <v>0.531782</v>
+        <v>0.515301</v>
       </c>
       <c r="I188">
-        <v>0.405858</v>
+        <v>0.418338</v>
       </c>
       <c r="J188">
-        <v>0.501516</v>
+        <v>0.488979</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -7736,16 +7826,16 @@
         <v>0.681818</v>
       </c>
       <c r="G189">
-        <v>0.56535</v>
+        <v>0.576763</v>
       </c>
       <c r="H189">
-        <v>0.563056</v>
+        <v>0.552304</v>
       </c>
       <c r="I189">
-        <v>0.491667</v>
+        <v>0.493902</v>
       </c>
       <c r="J189">
-        <v>0.553159</v>
+        <v>0.538609</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -7768,16 +7858,16 @@
         <v>0.818182</v>
       </c>
       <c r="G190">
-        <v>0.554878</v>
+        <v>0.53112</v>
       </c>
       <c r="H190">
-        <v>0.5645210000000001</v>
+        <v>0.54755</v>
       </c>
       <c r="I190">
-        <v>0.505703</v>
+        <v>0.481013</v>
       </c>
       <c r="J190">
-        <v>0.553504</v>
+        <v>0.541859</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -7800,16 +7890,16 @@
         <v>0.454545</v>
       </c>
       <c r="G191">
-        <v>0.52459</v>
+        <v>0.519751</v>
       </c>
       <c r="H191">
-        <v>0.542139</v>
+        <v>0.536392</v>
       </c>
       <c r="I191">
-        <v>0.390625</v>
+        <v>0.345622</v>
       </c>
       <c r="J191">
-        <v>0.526766</v>
+        <v>0.537889</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -7832,16 +7922,16 @@
         <v>0.904762</v>
       </c>
       <c r="G192">
-        <v>0.512367</v>
+        <v>0.497817</v>
       </c>
       <c r="H192">
-        <v>0.502478</v>
+        <v>0.49288</v>
       </c>
       <c r="I192">
-        <v>0.512367</v>
+        <v>0.46988</v>
       </c>
       <c r="J192">
-        <v>0.502478</v>
+        <v>0.49288</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -7864,16 +7954,16 @@
         <v>0.695652</v>
       </c>
       <c r="G193">
-        <v>0.493075</v>
+        <v>0.502058</v>
       </c>
       <c r="H193">
-        <v>0.491122</v>
+        <v>0.485821</v>
       </c>
       <c r="I193">
-        <v>0.354582</v>
+        <v>0.36036</v>
       </c>
       <c r="J193">
-        <v>0.515551</v>
+        <v>0.508751</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -7896,16 +7986,16 @@
         <v>0.318182</v>
       </c>
       <c r="G194">
-        <v>0.575758</v>
+        <v>0.554639</v>
       </c>
       <c r="H194">
-        <v>0.48033</v>
+        <v>0.482022</v>
       </c>
       <c r="I194">
-        <v>0.4</v>
+        <v>0.315789</v>
       </c>
       <c r="J194">
-        <v>0.524579</v>
+        <v>0.500178</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7928,16 +8018,16 @@
         <v>0.863636</v>
       </c>
       <c r="G195">
-        <v>0.571856</v>
+        <v>0.541922</v>
       </c>
       <c r="H195">
-        <v>0.565192</v>
+        <v>0.544919</v>
       </c>
       <c r="I195">
-        <v>0.522491</v>
+        <v>0.490521</v>
       </c>
       <c r="J195">
-        <v>0.562585</v>
+        <v>0.545907</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7960,16 +8050,16 @@
         <v>0.363636</v>
       </c>
       <c r="G196">
-        <v>0.570776</v>
+        <v>0.551867</v>
       </c>
       <c r="H196">
-        <v>0.514917</v>
+        <v>0.5145690000000001</v>
       </c>
       <c r="I196">
-        <v>0.317881</v>
+        <v>0.300578</v>
       </c>
       <c r="J196">
-        <v>0.538065</v>
+        <v>0.523961</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7992,16 +8082,16 @@
         <v>0.347826</v>
       </c>
       <c r="G197">
-        <v>0.555556</v>
+        <v>0.5422400000000001</v>
       </c>
       <c r="H197">
-        <v>0.528909</v>
+        <v>0.511029</v>
       </c>
       <c r="I197">
-        <v>0.358209</v>
+        <v>0.301136</v>
       </c>
       <c r="J197">
-        <v>0.533528</v>
+        <v>0.526146</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -8024,16 +8114,16 @@
         <v>0.227273</v>
       </c>
       <c r="G198">
-        <v>0.518717</v>
+        <v>0.525773</v>
       </c>
       <c r="H198">
-        <v>0.53503</v>
+        <v>0.509091</v>
       </c>
       <c r="I198">
-        <v>0.186047</v>
+        <v>0.203704</v>
       </c>
       <c r="J198">
-        <v>0.506684</v>
+        <v>0.509701</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -8056,16 +8146,16 @@
         <v>0.285714</v>
       </c>
       <c r="G199">
-        <v>0.467153</v>
+        <v>0.501124</v>
       </c>
       <c r="H199">
-        <v>0.490108</v>
+        <v>0.485814</v>
       </c>
       <c r="I199">
-        <v>0.243902</v>
+        <v>0.276423</v>
       </c>
       <c r="J199">
-        <v>0.514823</v>
+        <v>0.507562</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -8091,7 +8181,7 @@
         <v>0.507042</v>
       </c>
       <c r="H200">
-        <v>0.45212</v>
+        <v>0.447732</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -8120,16 +8210,16 @@
         <v>0.909091</v>
       </c>
       <c r="G201">
-        <v>0.611538</v>
+        <v>0.549474</v>
       </c>
       <c r="H201">
-        <v>0.544772</v>
+        <v>0.542582</v>
       </c>
       <c r="I201">
-        <v>0.620833</v>
+        <v>0.535797</v>
       </c>
       <c r="J201">
-        <v>0.544772</v>
+        <v>0.543195</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -8152,16 +8242,16 @@
         <v>0.272727</v>
       </c>
       <c r="G202">
-        <v>0.512821</v>
+        <v>0.494824</v>
       </c>
       <c r="H202">
-        <v>0.507944</v>
+        <v>0.485975</v>
       </c>
       <c r="I202">
-        <v>0.235294</v>
+        <v>0.224806</v>
       </c>
       <c r="J202">
-        <v>0.510917</v>
+        <v>0.501912</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -8184,16 +8274,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G203">
-        <v>0.470383</v>
+        <v>0.494553</v>
       </c>
       <c r="H203">
-        <v>0.527002</v>
+        <v>0.516301</v>
       </c>
       <c r="I203">
-        <v>0.377778</v>
+        <v>0.398176</v>
       </c>
       <c r="J203">
-        <v>0.525331</v>
+        <v>0.513927</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -8216,16 +8306,16 @@
         <v>0.454545</v>
       </c>
       <c r="G204">
-        <v>0.43314</v>
+        <v>0.416136</v>
       </c>
       <c r="H204">
-        <v>0.483301</v>
+        <v>0.465626</v>
       </c>
       <c r="I204">
-        <v>0.27027</v>
+        <v>0.229665</v>
       </c>
       <c r="J204">
-        <v>0.470099</v>
+        <v>0.456952</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -8248,16 +8338,16 @@
         <v>0.695652</v>
       </c>
       <c r="G205">
-        <v>0.582766</v>
+        <v>0.5697449999999999</v>
       </c>
       <c r="H205">
-        <v>0.538133</v>
+        <v>0.528019</v>
       </c>
       <c r="I205">
-        <v>0.496503</v>
+        <v>0.49435</v>
       </c>
       <c r="J205">
-        <v>0.546422</v>
+        <v>0.5333329999999999</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -8280,16 +8370,16 @@
         <v>0.913043</v>
       </c>
       <c r="G206">
-        <v>0.472561</v>
+        <v>0.479125</v>
       </c>
       <c r="H206">
-        <v>0.548103</v>
+        <v>0.541529</v>
       </c>
       <c r="I206">
-        <v>0.452297</v>
+        <v>0.467249</v>
       </c>
       <c r="J206">
-        <v>0.538666</v>
+        <v>0.530814</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -8312,16 +8402,16 @@
         <v>0.5</v>
       </c>
       <c r="G207">
-        <v>0.538462</v>
+        <v>0.535642</v>
       </c>
       <c r="H207">
-        <v>0.553321</v>
+        <v>0.545343</v>
       </c>
       <c r="I207">
-        <v>0.405</v>
+        <v>0.395918</v>
       </c>
       <c r="J207">
-        <v>0.545865</v>
+        <v>0.539959</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -8344,16 +8434,16 @@
         <v>0.4</v>
       </c>
       <c r="G208">
-        <v>0.498638</v>
+        <v>0.497664</v>
       </c>
       <c r="H208">
-        <v>0.51462</v>
+        <v>0.495967</v>
       </c>
       <c r="I208">
-        <v>0.195946</v>
+        <v>0.172619</v>
       </c>
       <c r="J208">
-        <v>0.52701</v>
+        <v>0.530419</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -8376,16 +8466,16 @@
         <v>0.954545</v>
       </c>
       <c r="G209">
-        <v>0.444853</v>
+        <v>0.492408</v>
       </c>
       <c r="H209">
-        <v>0.500753</v>
+        <v>0.490525</v>
       </c>
       <c r="I209">
-        <v>0.444853</v>
+        <v>0.479545</v>
       </c>
       <c r="J209">
-        <v>0.501722</v>
+        <v>0.4885</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -8411,7 +8501,13 @@
         <v>0.480263</v>
       </c>
       <c r="H210">
-        <v>0.495256</v>
+        <v>0.476046</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -8434,16 +8530,16 @@
         <v>0.954545</v>
       </c>
       <c r="G211">
-        <v>0.385542</v>
+        <v>0.388764</v>
       </c>
       <c r="H211">
-        <v>0.522081</v>
+        <v>0.523574</v>
       </c>
       <c r="I211">
-        <v>0.385542</v>
+        <v>0.389151</v>
       </c>
       <c r="J211">
-        <v>0.51667</v>
+        <v>0.520258</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -8466,16 +8562,16 @@
         <v>0.391304</v>
       </c>
       <c r="G212">
-        <v>0.494305</v>
+        <v>0.499014</v>
       </c>
       <c r="H212">
-        <v>0.53816</v>
+        <v>0.527097</v>
       </c>
       <c r="I212">
         <v>0.285714</v>
       </c>
       <c r="J212">
-        <v>0.534972</v>
+        <v>0.530631</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -8498,16 +8594,16 @@
         <v>0.565217</v>
       </c>
       <c r="G213">
-        <v>0.540761</v>
+        <v>0.532</v>
       </c>
       <c r="H213">
-        <v>0.514954</v>
+        <v>0.515222</v>
       </c>
       <c r="I213">
-        <v>0.476923</v>
+        <v>0.411348</v>
       </c>
       <c r="J213">
-        <v>0.527724</v>
+        <v>0.523012</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -8530,16 +8626,16 @@
         <v>0.9</v>
       </c>
       <c r="G214">
-        <v>0.545763</v>
+        <v>0.49763</v>
       </c>
       <c r="H214">
-        <v>0.513994</v>
+        <v>0.51146</v>
       </c>
       <c r="I214">
-        <v>0.515873</v>
+        <v>0.472296</v>
       </c>
       <c r="J214">
-        <v>0.503192</v>
+        <v>0.5046890000000001</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -8562,16 +8658,16 @@
         <v>0.65</v>
       </c>
       <c r="G215">
-        <v>0.475285</v>
+        <v>0.484018</v>
       </c>
       <c r="H215">
-        <v>0.52607</v>
+        <v>0.518606</v>
       </c>
       <c r="I215">
-        <v>0.340909</v>
+        <v>0.339161</v>
       </c>
       <c r="J215">
-        <v>0.530071</v>
+        <v>0.520968</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -8594,16 +8690,16 @@
         <v>0.227273</v>
       </c>
       <c r="G216">
-        <v>0.565217</v>
+        <v>0.584551</v>
       </c>
       <c r="H216">
-        <v>0.500579</v>
+        <v>0.499798</v>
       </c>
       <c r="I216">
         <v>0.407407</v>
       </c>
       <c r="J216">
-        <v>0.488782</v>
+        <v>0.480034</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -8626,16 +8722,16 @@
         <v>0.478261</v>
       </c>
       <c r="G217">
-        <v>0.548611</v>
+        <v>0.504892</v>
       </c>
       <c r="H217">
-        <v>0.497946</v>
+        <v>0.487673</v>
       </c>
       <c r="I217">
-        <v>0.285714</v>
+        <v>0.273469</v>
       </c>
       <c r="J217">
-        <v>0.483585</v>
+        <v>0.473761</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -8658,16 +8754,16 @@
         <v>0.454545</v>
       </c>
       <c r="G218">
-        <v>0.5419349999999999</v>
+        <v>0.497934</v>
       </c>
       <c r="H218">
-        <v>0.502058</v>
+        <v>0.489425</v>
       </c>
       <c r="I218">
-        <v>0.4</v>
+        <v>0.354545</v>
       </c>
       <c r="J218">
-        <v>0.484848</v>
+        <v>0.472641</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -8681,7 +8777,13 @@
         <v>0.521531</v>
       </c>
       <c r="H219">
-        <v>0.478656</v>
+        <v>0.472896</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -8704,16 +8806,16 @@
         <v>0.8125</v>
       </c>
       <c r="G220">
-        <v>0.432292</v>
+        <v>0.387097</v>
       </c>
       <c r="H220">
-        <v>0.514787</v>
+        <v>0.491993</v>
       </c>
       <c r="I220">
-        <v>0.354331</v>
+        <v>0.34058</v>
       </c>
       <c r="J220">
-        <v>0.5067199999999999</v>
+        <v>0.488946</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -8736,16 +8838,16 @@
         <v>0.578947</v>
       </c>
       <c r="G221">
-        <v>0.491228</v>
+        <v>0.478803</v>
       </c>
       <c r="H221">
-        <v>0.528809</v>
+        <v>0.500885</v>
       </c>
       <c r="I221">
-        <v>0.292308</v>
+        <v>0.310924</v>
       </c>
       <c r="J221">
-        <v>0.508647</v>
+        <v>0.488547</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -8768,16 +8870,16 @@
         <v>0.590909</v>
       </c>
       <c r="G222">
-        <v>0.50996</v>
+        <v>0.477516</v>
       </c>
       <c r="H222">
-        <v>0.538395</v>
+        <v>0.514803</v>
       </c>
       <c r="I222">
-        <v>0.375758</v>
+        <v>0.335766</v>
       </c>
       <c r="J222">
-        <v>0.500825</v>
+        <v>0.478914</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -8800,16 +8902,16 @@
         <v>0.227273</v>
       </c>
       <c r="G223">
-        <v>0.492268</v>
+        <v>0.461538</v>
       </c>
       <c r="H223">
-        <v>0.483877</v>
+        <v>0.464214</v>
       </c>
       <c r="I223">
-        <v>0.182927</v>
+        <v>0.173077</v>
       </c>
       <c r="J223">
-        <v>0.423935</v>
+        <v>0.430283</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -8832,16 +8934,16 @@
         <v>0.5</v>
       </c>
       <c r="G224">
-        <v>0.516393</v>
+        <v>0.512605</v>
       </c>
       <c r="H224">
-        <v>0.499922</v>
+        <v>0.484279</v>
       </c>
       <c r="I224">
-        <v>0.375</v>
+        <v>0.330508</v>
       </c>
       <c r="J224">
-        <v>0.5066349999999999</v>
+        <v>0.49176</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -8864,16 +8966,16 @@
         <v>0.545455</v>
       </c>
       <c r="G225">
-        <v>0.438312</v>
+        <v>0.464213</v>
       </c>
       <c r="H225">
-        <v>0.516608</v>
+        <v>0.493984</v>
       </c>
       <c r="I225">
-        <v>0.245033</v>
+        <v>0.318182</v>
       </c>
       <c r="J225">
-        <v>0.511798</v>
+        <v>0.492673</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -8896,16 +8998,16 @@
         <v>0.818182</v>
       </c>
       <c r="G226">
-        <v>0.518519</v>
+        <v>0.45629</v>
       </c>
       <c r="H226">
-        <v>0.531061</v>
+        <v>0.521859</v>
       </c>
       <c r="I226">
-        <v>0.357143</v>
+        <v>0.353403</v>
       </c>
       <c r="J226">
-        <v>0.519401</v>
+        <v>0.517702</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -8931,13 +9033,13 @@
         <v>0.51357</v>
       </c>
       <c r="H227">
-        <v>0.504972</v>
+        <v>0.496544</v>
       </c>
       <c r="I227">
         <v>0.209302</v>
       </c>
       <c r="J227">
-        <v>0.498925</v>
+        <v>0.498929</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -8960,16 +9062,16 @@
         <v>0.818182</v>
       </c>
       <c r="G228">
-        <v>0.496732</v>
+        <v>0.488565</v>
       </c>
       <c r="H228">
-        <v>0.506694</v>
+        <v>0.489327</v>
       </c>
       <c r="I228">
-        <v>0.448133</v>
+        <v>0.462121</v>
       </c>
       <c r="J228">
-        <v>0.505125</v>
+        <v>0.488086</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -8992,16 +9094,16 @@
         <v>0.227273</v>
       </c>
       <c r="G229">
-        <v>0.363057</v>
+        <v>0.399527</v>
       </c>
       <c r="H229">
-        <v>0.454938</v>
+        <v>0.436548</v>
       </c>
       <c r="I229">
-        <v>0.323077</v>
+        <v>0.291667</v>
       </c>
       <c r="J229">
-        <v>0.412245</v>
+        <v>0.405825</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -9024,16 +9126,16 @@
         <v>0.333333</v>
       </c>
       <c r="G230">
-        <v>0.471947</v>
+        <v>0.481319</v>
       </c>
       <c r="H230">
-        <v>0.498937</v>
+        <v>0.478837</v>
       </c>
       <c r="I230">
-        <v>0.230769</v>
+        <v>0.324503</v>
       </c>
       <c r="J230">
-        <v>0.467449</v>
+        <v>0.437175</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -9059,13 +9161,13 @@
         <v>0.550696</v>
       </c>
       <c r="H231">
-        <v>0.533566</v>
+        <v>0.525002</v>
       </c>
       <c r="I231">
         <v>0.355932</v>
       </c>
       <c r="J231">
-        <v>0.532765</v>
+        <v>0.523499</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -9088,16 +9190,16 @@
         <v>0.681818</v>
       </c>
       <c r="G232">
-        <v>0.509615</v>
+        <v>0.494867</v>
       </c>
       <c r="H232">
-        <v>0.532752</v>
+        <v>0.518106</v>
       </c>
       <c r="I232">
-        <v>0.351759</v>
+        <v>0.357576</v>
       </c>
       <c r="J232">
-        <v>0.527353</v>
+        <v>0.514296</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -9120,16 +9222,16 @@
         <v>0.363636</v>
       </c>
       <c r="G233">
-        <v>0.593583</v>
+        <v>0.595876</v>
       </c>
       <c r="H233">
-        <v>0.529092</v>
+        <v>0.513471</v>
       </c>
       <c r="I233">
-        <v>0.398438</v>
+        <v>0.391813</v>
       </c>
       <c r="J233">
-        <v>0.522655</v>
+        <v>0.513804</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -9152,16 +9254,16 @@
         <v>0.681818</v>
       </c>
       <c r="G234">
-        <v>0.318059</v>
+        <v>0.343035</v>
       </c>
       <c r="H234">
-        <v>0.5183140000000001</v>
+        <v>0.510421</v>
       </c>
       <c r="I234">
-        <v>0.168582</v>
+        <v>0.168196</v>
       </c>
       <c r="J234">
-        <v>0.529688</v>
+        <v>0.52601</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -9184,16 +9286,16 @@
         <v>0.136364</v>
       </c>
       <c r="G235">
-        <v>0.5229009999999999</v>
+        <v>0.569937</v>
       </c>
       <c r="H235">
-        <v>0.5185920000000001</v>
+        <v>0.509428</v>
       </c>
       <c r="I235">
-        <v>0.243902</v>
+        <v>0.180328</v>
       </c>
       <c r="J235">
-        <v>0.440154</v>
+        <v>0.509827</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -9216,16 +9318,16 @@
         <v>0.913043</v>
       </c>
       <c r="G236">
-        <v>0.550898</v>
+        <v>0.521401</v>
       </c>
       <c r="H236">
-        <v>0.560322</v>
+        <v>0.541529</v>
       </c>
       <c r="I236">
-        <v>0.535256</v>
+        <v>0.493617</v>
       </c>
       <c r="J236">
-        <v>0.554556</v>
+        <v>0.537566</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -9248,16 +9350,16 @@
         <v>0.782609</v>
       </c>
       <c r="G237">
-        <v>0.598684</v>
+        <v>0.58483</v>
       </c>
       <c r="H237">
-        <v>0.546878</v>
+        <v>0.526815</v>
       </c>
       <c r="I237">
-        <v>0.483871</v>
+        <v>0.494898</v>
       </c>
       <c r="J237">
-        <v>0.525703</v>
+        <v>0.507873</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -9280,16 +9382,16 @@
         <v>0.478261</v>
       </c>
       <c r="G238">
-        <v>0.622845</v>
+        <v>0.594862</v>
       </c>
       <c r="H238">
-        <v>0.513037</v>
+        <v>0.509527</v>
       </c>
       <c r="I238">
-        <v>0.451282</v>
+        <v>0.421941</v>
       </c>
       <c r="J238">
-        <v>0.510607</v>
+        <v>0.51165</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -9312,16 +9414,16 @@
         <v>0.571429</v>
       </c>
       <c r="G239">
-        <v>0.444056</v>
+        <v>0.440559</v>
       </c>
       <c r="H239">
-        <v>0.462455</v>
+        <v>0.458013</v>
       </c>
       <c r="I239">
-        <v>0.251613</v>
+        <v>0.255319</v>
       </c>
       <c r="J239">
-        <v>0.5009130000000001</v>
+        <v>0.486512</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -9344,16 +9446,16 @@
         <v>0.590909</v>
       </c>
       <c r="G240">
-        <v>0.454054</v>
+        <v>0.451883</v>
       </c>
       <c r="H240">
-        <v>0.512778</v>
+        <v>0.503868</v>
       </c>
       <c r="I240">
-        <v>0.34728</v>
+        <v>0.322695</v>
       </c>
       <c r="J240">
-        <v>0.490566</v>
+        <v>0.487603</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -9376,16 +9478,16 @@
         <v>0.590909</v>
       </c>
       <c r="G241">
-        <v>0.566092</v>
+        <v>0.574689</v>
       </c>
       <c r="H241">
-        <v>0.522661</v>
+        <v>0.521916</v>
       </c>
       <c r="I241">
-        <v>0.528037</v>
+        <v>0.512456</v>
       </c>
       <c r="J241">
-        <v>0.498229</v>
+        <v>0.499227</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -9408,16 +9510,16 @@
         <v>0.380952</v>
       </c>
       <c r="G242">
-        <v>0.644128</v>
+        <v>0.596491</v>
       </c>
       <c r="H242">
-        <v>0.499023</v>
+        <v>0.488856</v>
       </c>
       <c r="I242">
-        <v>0.464286</v>
+        <v>0.389535</v>
       </c>
       <c r="J242">
-        <v>0.4994</v>
+        <v>0.493069</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -9440,16 +9542,16 @@
         <v>0.619048</v>
       </c>
       <c r="G243">
-        <v>0.536667</v>
+        <v>0.554084</v>
       </c>
       <c r="H243">
-        <v>0.546956</v>
+        <v>0.538003</v>
       </c>
       <c r="I243">
-        <v>0.385965</v>
+        <v>0.426523</v>
       </c>
       <c r="J243">
-        <v>0.532984</v>
+        <v>0.533426</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -9472,16 +9574,16 @@
         <v>0.869565</v>
       </c>
       <c r="G244">
-        <v>0.511278</v>
+        <v>0.536204</v>
       </c>
       <c r="H244">
-        <v>0.568678</v>
+        <v>0.543929</v>
       </c>
       <c r="I244">
-        <v>0.479508</v>
+        <v>0.498876</v>
       </c>
       <c r="J244">
-        <v>0.571635</v>
+        <v>0.546144</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -9504,16 +9606,16 @@
         <v>0.263158</v>
       </c>
       <c r="G245">
-        <v>0.566434</v>
+        <v>0.498708</v>
       </c>
       <c r="H245">
-        <v>0.45185</v>
+        <v>0.452902</v>
       </c>
       <c r="I245">
-        <v>0.375</v>
+        <v>0.152174</v>
       </c>
       <c r="J245">
-        <v>0.520877</v>
+        <v>0.5142600000000001</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -9536,16 +9638,16 @@
         <v>0.47619</v>
       </c>
       <c r="G246">
-        <v>0.5</v>
+        <v>0.495633</v>
       </c>
       <c r="H246">
-        <v>0.518671</v>
+        <v>0.5047509999999999</v>
       </c>
       <c r="I246">
         <v>0.376147</v>
       </c>
       <c r="J246">
-        <v>0.516599</v>
+        <v>0.501706</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -9568,16 +9670,16 @@
         <v>0.428571</v>
       </c>
       <c r="G247">
-        <v>0.451351</v>
+        <v>0.450116</v>
       </c>
       <c r="H247">
-        <v>0.493596</v>
+        <v>0.485366</v>
       </c>
       <c r="I247">
-        <v>0.267516</v>
+        <v>0.284091</v>
       </c>
       <c r="J247">
-        <v>0.487118</v>
+        <v>0.481328</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -9600,16 +9702,16 @@
         <v>0.181818</v>
       </c>
       <c r="G248">
-        <v>0.55836</v>
+        <v>0.532609</v>
       </c>
       <c r="H248">
-        <v>0.524585</v>
+        <v>0.504497</v>
       </c>
       <c r="I248">
-        <v>0.344262</v>
+        <v>0.313253</v>
       </c>
       <c r="J248">
-        <v>0.473535</v>
+        <v>0.446625</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -9632,16 +9734,16 @@
         <v>0.478261</v>
       </c>
       <c r="G249">
-        <v>0.546939</v>
+        <v>0.533203</v>
       </c>
       <c r="H249">
-        <v>0.561384</v>
+        <v>0.556165</v>
       </c>
       <c r="I249">
-        <v>0.321267</v>
+        <v>0.312757</v>
       </c>
       <c r="J249">
-        <v>0.5222020000000001</v>
+        <v>0.514025</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -9664,16 +9766,16 @@
         <v>0.608696</v>
       </c>
       <c r="G250">
-        <v>0.682432</v>
+        <v>0.647658</v>
       </c>
       <c r="H250">
-        <v>0.526603</v>
+        <v>0.506953</v>
       </c>
       <c r="I250">
-        <v>0.557576</v>
+        <v>0.520548</v>
       </c>
       <c r="J250">
-        <v>0.5034690000000001</v>
+        <v>0.493797</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -9687,13 +9789,13 @@
         <v>0.488189</v>
       </c>
       <c r="H251">
-        <v>0.462637</v>
+        <v>0.439401</v>
       </c>
       <c r="I251">
         <v>0.290323</v>
       </c>
       <c r="J251">
-        <v>0.501266</v>
+        <v>0.487476</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -9716,16 +9818,16 @@
         <v>0.8</v>
       </c>
       <c r="G252">
-        <v>0.369048</v>
+        <v>0.336538</v>
       </c>
       <c r="H252">
-        <v>0.464761</v>
+        <v>0.463713</v>
       </c>
       <c r="I252">
-        <v>0.384615</v>
+        <v>0.290984</v>
       </c>
       <c r="J252">
-        <v>0.479407</v>
+        <v>0.473054</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -9748,16 +9850,16 @@
         <v>0.26087</v>
       </c>
       <c r="G253">
-        <v>0.322695</v>
+        <v>0.371179</v>
       </c>
       <c r="H253">
-        <v>0.461375</v>
+        <v>0.436844</v>
       </c>
       <c r="I253">
-        <v>0.085714</v>
+        <v>0.242991</v>
       </c>
       <c r="J253">
-        <v>0.463991</v>
+        <v>0.434241</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -9780,16 +9882,16 @@
         <v>0.846154</v>
       </c>
       <c r="G254">
-        <v>0.435644</v>
+        <v>0.438596</v>
       </c>
       <c r="H254">
-        <v>0.460094</v>
+        <v>0.463972</v>
       </c>
       <c r="I254">
-        <v>0.474359</v>
+        <v>0.42623</v>
       </c>
       <c r="J254">
-        <v>0.462014</v>
+        <v>0.440169</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -9812,16 +9914,16 @@
         <v>0.722222</v>
       </c>
       <c r="G255">
-        <v>0.407407</v>
+        <v>0.391192</v>
       </c>
       <c r="H255">
-        <v>0.471743</v>
+        <v>0.453023</v>
       </c>
       <c r="I255">
-        <v>0.266667</v>
+        <v>0.330909</v>
       </c>
       <c r="J255">
-        <v>0.433849</v>
+        <v>0.422107</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -9844,16 +9946,16 @@
         <v>0.47619</v>
       </c>
       <c r="G256">
-        <v>0.415541</v>
+        <v>0.437642</v>
       </c>
       <c r="H256">
-        <v>0.504131</v>
+        <v>0.496215</v>
       </c>
       <c r="I256">
-        <v>0.32</v>
+        <v>0.339806</v>
       </c>
       <c r="J256">
-        <v>0.490972</v>
+        <v>0.476025</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -9876,16 +9978,16 @@
         <v>0.555556</v>
       </c>
       <c r="G257">
-        <v>0.305556</v>
+        <v>0.430962</v>
       </c>
       <c r="H257">
-        <v>0.479083</v>
+        <v>0.442712</v>
       </c>
       <c r="I257">
-        <v>0.305556</v>
+        <v>0.224299</v>
       </c>
       <c r="J257">
-        <v>0.5</v>
+        <v>0.483871</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -9899,7 +10001,7 @@
         <v>0.62</v>
       </c>
       <c r="H258">
-        <v>0.415133</v>
+        <v>0.4</v>
       </c>
       <c r="I258">
         <v>0.222222</v>
@@ -9931,13 +10033,13 @@
         <v>0.458015</v>
       </c>
       <c r="H259">
-        <v>0.434575</v>
+        <v>0.413944</v>
       </c>
       <c r="I259">
         <v>0.209302</v>
       </c>
       <c r="J259">
-        <v>0.463612</v>
+        <v>0.419467</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -9947,13 +10049,25 @@
       <c r="F260">
         <v>0</v>
       </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
         <v>269</v>
       </c>
       <c r="B261">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
         <v>495</v>
@@ -9968,16 +10082,16 @@
         <v>0.380952</v>
       </c>
       <c r="G261">
-        <v>0.45</v>
+        <v>0.40991</v>
       </c>
       <c r="H261">
-        <v>0.474424</v>
+        <v>0.453484</v>
       </c>
       <c r="I261">
-        <v>0.25</v>
+        <v>0.22093</v>
       </c>
       <c r="J261">
-        <v>0.445599</v>
+        <v>0.436469</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -10000,16 +10114,16 @@
         <v>0.136364</v>
       </c>
       <c r="G262">
-        <v>0.384279</v>
+        <v>0.419069</v>
       </c>
       <c r="H262">
-        <v>0.46191</v>
+        <v>0.438553</v>
       </c>
       <c r="I262">
-        <v>0.190476</v>
+        <v>0.215385</v>
       </c>
       <c r="J262">
-        <v>0.401481</v>
+        <v>0.411281</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -10032,16 +10146,16 @@
         <v>0.652174</v>
       </c>
       <c r="G263">
-        <v>0.5220590000000001</v>
+        <v>0.440748</v>
       </c>
       <c r="H263">
-        <v>0.487943</v>
+        <v>0.482614</v>
       </c>
       <c r="I263">
-        <v>0.395683</v>
+        <v>0.33657</v>
       </c>
       <c r="J263">
-        <v>0.449925</v>
+        <v>0.43914</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -10055,7 +10169,7 @@
         <v>0.5164840000000001</v>
       </c>
       <c r="H264">
-        <v>0.419118</v>
+        <v>0.414349</v>
       </c>
       <c r="I264">
         <v>0.25</v>
@@ -10084,16 +10198,16 @@
         <v>0.5333329999999999</v>
       </c>
       <c r="G265">
-        <v>0.467213</v>
+        <v>0.455285</v>
       </c>
       <c r="H265">
-        <v>0.492025</v>
+        <v>0.461917</v>
       </c>
       <c r="I265">
-        <v>0.153846</v>
+        <v>0.261538</v>
       </c>
       <c r="J265">
-        <v>0.466667</v>
+        <v>0.457664</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -10116,16 +10230,16 @@
         <v>0.45</v>
       </c>
       <c r="G266">
-        <v>0.444976</v>
+        <v>0.434988</v>
       </c>
       <c r="H266">
-        <v>0.470368</v>
+        <v>0.459501</v>
       </c>
       <c r="I266">
-        <v>0.256098</v>
+        <v>0.227513</v>
       </c>
       <c r="J266">
-        <v>0.440964</v>
+        <v>0.432508</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -10148,16 +10262,16 @@
         <v>0.857143</v>
       </c>
       <c r="G267">
-        <v>0.453571</v>
+        <v>0.46696</v>
       </c>
       <c r="H267">
-        <v>0.547154</v>
+        <v>0.52319</v>
       </c>
       <c r="I267">
-        <v>0.383966</v>
+        <v>0.40617</v>
       </c>
       <c r="J267">
-        <v>0.5389969999999999</v>
+        <v>0.523794</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -10180,16 +10294,16 @@
         <v>0.636364</v>
       </c>
       <c r="G268">
-        <v>0.564935</v>
+        <v>0.5383019999999999</v>
       </c>
       <c r="H268">
-        <v>0.5221209999999999</v>
+        <v>0.509338</v>
       </c>
       <c r="I268">
-        <v>0.357955</v>
+        <v>0.358306</v>
       </c>
       <c r="J268">
-        <v>0.494752</v>
+        <v>0.503634</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -10212,16 +10326,16 @@
         <v>0.608696</v>
       </c>
       <c r="G269">
-        <v>0.564033</v>
+        <v>0.517172</v>
       </c>
       <c r="H269">
-        <v>0.532505</v>
+        <v>0.516598</v>
       </c>
       <c r="I269">
-        <v>0.396226</v>
+        <v>0.347973</v>
       </c>
       <c r="J269">
-        <v>0.508954</v>
+        <v>0.495419</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -10244,16 +10358,16 @@
         <v>0.590909</v>
       </c>
       <c r="G270">
-        <v>0.63764</v>
+        <v>0.6408160000000001</v>
       </c>
       <c r="H270">
-        <v>0.578989</v>
+        <v>0.561591</v>
       </c>
       <c r="I270">
-        <v>0.55</v>
+        <v>0.519164</v>
       </c>
       <c r="J270">
-        <v>0.571793</v>
+        <v>0.557561</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -10276,16 +10390,16 @@
         <v>0.090909</v>
       </c>
       <c r="G271">
-        <v>0.478632</v>
+        <v>0.471459</v>
       </c>
       <c r="H271">
-        <v>0.500438</v>
+        <v>0.49184</v>
       </c>
       <c r="I271">
-        <v>0.058824</v>
+        <v>0.135135</v>
       </c>
       <c r="J271">
-        <v>0.5194029999999999</v>
+        <v>0.53616</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -10308,16 +10422,16 @@
         <v>0.142857</v>
       </c>
       <c r="G272">
-        <v>0.44186</v>
+        <v>0.420705</v>
       </c>
       <c r="H272">
-        <v>0.479865</v>
+        <v>0.464379</v>
       </c>
       <c r="I272">
-        <v>0.25</v>
+        <v>0.246154</v>
       </c>
       <c r="J272">
-        <v>0.449275</v>
+        <v>0.439224</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -10340,16 +10454,16 @@
         <v>0.681818</v>
       </c>
       <c r="G273">
-        <v>0.52568</v>
+        <v>0.525773</v>
       </c>
       <c r="H273">
-        <v>0.522698</v>
+        <v>0.517011</v>
       </c>
       <c r="I273">
-        <v>0.413223</v>
+        <v>0.396341</v>
       </c>
       <c r="J273">
-        <v>0.524583</v>
+        <v>0.521573</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -10372,16 +10486,16 @@
         <v>0.318182</v>
       </c>
       <c r="G274">
-        <v>0.559859</v>
+        <v>0.509395</v>
       </c>
       <c r="H274">
-        <v>0.532081</v>
+        <v>0.522028</v>
       </c>
       <c r="I274">
-        <v>0.227273</v>
+        <v>0.18543</v>
       </c>
       <c r="J274">
-        <v>0.531633</v>
+        <v>0.531145</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -10404,16 +10518,16 @@
         <v>0.52381</v>
       </c>
       <c r="G275">
-        <v>0.5042489999999999</v>
+        <v>0.509677</v>
       </c>
       <c r="H275">
-        <v>0.546565</v>
+        <v>0.548783</v>
       </c>
       <c r="I275">
-        <v>0.333333</v>
+        <v>0.301653</v>
       </c>
       <c r="J275">
-        <v>0.532245</v>
+        <v>0.531592</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -10436,16 +10550,16 @@
         <v>0.782609</v>
       </c>
       <c r="G276">
-        <v>0.529915</v>
+        <v>0.5546720000000001</v>
       </c>
       <c r="H276">
-        <v>0.573465</v>
+        <v>0.564601</v>
       </c>
       <c r="I276">
-        <v>0.477273</v>
+        <v>0.483544</v>
       </c>
       <c r="J276">
-        <v>0.562219</v>
+        <v>0.559572</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -10471,13 +10585,13 @@
         <v>0.574032</v>
       </c>
       <c r="H277">
-        <v>0.466215</v>
+        <v>0.480253</v>
       </c>
       <c r="I277">
         <v>0.181818</v>
       </c>
       <c r="J277">
-        <v>0.433476</v>
+        <v>0.514831</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -10500,16 +10614,16 @@
         <v>0.826087</v>
       </c>
       <c r="G278">
-        <v>0.568627</v>
+        <v>0.535714</v>
       </c>
       <c r="H278">
-        <v>0.579336</v>
+        <v>0.560331</v>
       </c>
       <c r="I278">
-        <v>0.520913</v>
+        <v>0.470024</v>
       </c>
       <c r="J278">
-        <v>0.571071</v>
+        <v>0.553137</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -10532,16 +10646,16 @@
         <v>0.863636</v>
       </c>
       <c r="G279">
-        <v>0.584967</v>
+        <v>0.553236</v>
       </c>
       <c r="H279">
-        <v>0.5219009999999999</v>
+        <v>0.51952</v>
       </c>
       <c r="I279">
-        <v>0.491667</v>
+        <v>0.493947</v>
       </c>
       <c r="J279">
-        <v>0.514028</v>
+        <v>0.516559</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -10564,16 +10678,16 @@
         <v>0.181818</v>
       </c>
       <c r="G280">
-        <v>0.433476</v>
+        <v>0.514831</v>
       </c>
       <c r="H280">
-        <v>0.47299</v>
+        <v>0.465643</v>
       </c>
       <c r="I280">
-        <v>0.174603</v>
+        <v>0.166667</v>
       </c>
       <c r="J280">
-        <v>0.485477</v>
+        <v>0.454815</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -10596,16 +10710,16 @@
         <v>0.863636</v>
       </c>
       <c r="G281">
-        <v>0.445545</v>
+        <v>0.406852</v>
       </c>
       <c r="H281">
-        <v>0.481443</v>
+        <v>0.471804</v>
       </c>
       <c r="I281">
-        <v>0.367089</v>
+        <v>0.354115</v>
       </c>
       <c r="J281">
-        <v>0.478489</v>
+        <v>0.46777</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -10628,16 +10742,16 @@
         <v>0.545455</v>
       </c>
       <c r="G282">
-        <v>0.6231</v>
+        <v>0.585062</v>
       </c>
       <c r="H282">
-        <v>0.548268</v>
+        <v>0.530008</v>
       </c>
       <c r="I282">
-        <v>0.528736</v>
+        <v>0.454198</v>
       </c>
       <c r="J282">
-        <v>0.5162330000000001</v>
+        <v>0.501655</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -10660,16 +10774,16 @@
         <v>0.304348</v>
       </c>
       <c r="G283">
-        <v>0.5979640000000001</v>
+        <v>0.565737</v>
       </c>
       <c r="H283">
-        <v>0.5671659999999999</v>
+        <v>0.545002</v>
       </c>
       <c r="I283">
-        <v>0.321429</v>
+        <v>0.333333</v>
       </c>
       <c r="J283">
-        <v>0.511811</v>
+        <v>0.502884</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -10692,16 +10806,16 @@
         <v>0.904762</v>
       </c>
       <c r="G284">
-        <v>0.549598</v>
+        <v>0.534783</v>
       </c>
       <c r="H284">
-        <v>0.547524</v>
+        <v>0.533957</v>
       </c>
       <c r="I284">
-        <v>0.5</v>
+        <v>0.494005</v>
       </c>
       <c r="J284">
-        <v>0.548501</v>
+        <v>0.534233</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -10724,13 +10838,16 @@
         <v>0.304348</v>
       </c>
       <c r="G285">
-        <v>0.492308</v>
+        <v>0.558468</v>
       </c>
       <c r="H285">
-        <v>0.46921</v>
+        <v>0.481354</v>
+      </c>
+      <c r="I285">
+        <v>0.34965</v>
       </c>
       <c r="J285">
-        <v>0.423889</v>
+        <v>0.469801</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -10753,16 +10870,16 @@
         <v>0.227273</v>
       </c>
       <c r="G286">
-        <v>0.58194</v>
+        <v>0.549683</v>
       </c>
       <c r="H286">
-        <v>0.474303</v>
+        <v>0.482377</v>
       </c>
       <c r="I286">
-        <v>0.292683</v>
+        <v>0.27619</v>
       </c>
       <c r="J286">
-        <v>0.509521</v>
+        <v>0.498078</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -10785,16 +10902,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G287">
-        <v>0.470255</v>
+        <v>0.490722</v>
       </c>
       <c r="H287">
-        <v>0.5414909999999999</v>
+        <v>0.534123</v>
       </c>
       <c r="I287">
-        <v>0.426573</v>
+        <v>0.415954</v>
       </c>
       <c r="J287">
-        <v>0.532099</v>
+        <v>0.519111</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -10817,10 +10934,16 @@
         <v>0</v>
       </c>
       <c r="G288">
-        <v>0.60804</v>
+        <v>0.588745</v>
       </c>
       <c r="H288">
-        <v>0.5559539999999999</v>
+        <v>0.54288</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -10843,16 +10966,16 @@
         <v>0.318182</v>
       </c>
       <c r="G289">
-        <v>0.553314</v>
+        <v>0.493724</v>
       </c>
       <c r="H289">
-        <v>0.515783</v>
+        <v>0.506964</v>
       </c>
       <c r="I289">
-        <v>0.215385</v>
+        <v>0.264901</v>
       </c>
       <c r="J289">
-        <v>0.530631</v>
+        <v>0.498385</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -10875,16 +10998,16 @@
         <v>0.5</v>
       </c>
       <c r="G290">
-        <v>0.552542</v>
+        <v>0.552916</v>
       </c>
       <c r="H290">
-        <v>0.501197</v>
+        <v>0.493528</v>
       </c>
       <c r="I290">
-        <v>0.414634</v>
+        <v>0.361607</v>
       </c>
       <c r="J290">
-        <v>0.532744</v>
+        <v>0.505734</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -10907,16 +11030,16 @@
         <v>0.272727</v>
       </c>
       <c r="G291">
-        <v>0.484472</v>
+        <v>0.466083</v>
       </c>
       <c r="H291">
-        <v>0.529498</v>
+        <v>0.523191</v>
       </c>
       <c r="I291">
-        <v>0.139535</v>
+        <v>0.116071</v>
       </c>
       <c r="J291">
-        <v>0.473072</v>
+        <v>0.476852</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -10939,16 +11062,16 @@
         <v>0.35</v>
       </c>
       <c r="G292">
-        <v>0.46129</v>
+        <v>0.446602</v>
       </c>
       <c r="H292">
-        <v>0.485154</v>
+        <v>0.487883</v>
       </c>
       <c r="I292">
-        <v>0.22449</v>
+        <v>0.211679</v>
       </c>
       <c r="J292">
-        <v>0.529412</v>
+        <v>0.526215</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -10971,16 +11094,16 @@
         <v>0.52381</v>
       </c>
       <c r="G293">
-        <v>0.44186</v>
+        <v>0.495614</v>
       </c>
       <c r="H293">
-        <v>0.5234490000000001</v>
+        <v>0.527232</v>
       </c>
       <c r="I293">
-        <v>0.409091</v>
+        <v>0.341772</v>
       </c>
       <c r="J293">
-        <v>0.526728</v>
+        <v>0.5197349999999999</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -11003,16 +11126,16 @@
         <v>0.45</v>
       </c>
       <c r="G294">
-        <v>0.448276</v>
+        <v>0.401985</v>
       </c>
       <c r="H294">
-        <v>0.449197</v>
+        <v>0.457106</v>
       </c>
       <c r="I294">
-        <v>0.269841</v>
+        <v>0.236994</v>
       </c>
       <c r="J294">
-        <v>0.433032</v>
+        <v>0.45097</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -11035,16 +11158,16 @@
         <v>0.333333</v>
       </c>
       <c r="G295">
-        <v>0.5</v>
+        <v>0.545852</v>
       </c>
       <c r="H295">
-        <v>0.514649</v>
+        <v>0.4992</v>
       </c>
       <c r="I295">
-        <v>0.403846</v>
+        <v>0.385135</v>
       </c>
       <c r="J295">
-        <v>0.470526</v>
+        <v>0.470183</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -11067,16 +11190,16 @@
         <v>0.545455</v>
       </c>
       <c r="G296">
-        <v>0.557692</v>
+        <v>0.481481</v>
       </c>
       <c r="H296">
-        <v>0.506238</v>
+        <v>0.492775</v>
       </c>
       <c r="I296">
-        <v>0.376147</v>
+        <v>0.321839</v>
       </c>
       <c r="J296">
-        <v>0.519467</v>
+        <v>0.504675</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -11099,16 +11222,16 @@
         <v>0.363636</v>
       </c>
       <c r="G297">
-        <v>0.51735</v>
+        <v>0.515991</v>
       </c>
       <c r="H297">
-        <v>0.509724</v>
+        <v>0.505158</v>
       </c>
       <c r="I297">
-        <v>0.239669</v>
+        <v>0.242424</v>
       </c>
       <c r="J297">
-        <v>0.510269</v>
+        <v>0.501997</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -11131,16 +11254,16 @@
         <v>0.954545</v>
       </c>
       <c r="G298">
-        <v>0.471631</v>
+        <v>0.449485</v>
       </c>
       <c r="H298">
-        <v>0.520299</v>
+        <v>0.496612</v>
       </c>
       <c r="I298">
-        <v>0.430769</v>
+        <v>0.425486</v>
       </c>
       <c r="J298">
-        <v>0.512249</v>
+        <v>0.491955</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -11163,16 +11286,16 @@
         <v>0.590909</v>
       </c>
       <c r="G299">
-        <v>0.588732</v>
+        <v>0.558522</v>
       </c>
       <c r="H299">
-        <v>0.545588</v>
+        <v>0.530602</v>
       </c>
       <c r="I299">
-        <v>0.418079</v>
+        <v>0.421603</v>
       </c>
       <c r="J299">
-        <v>0.530618</v>
+        <v>0.520523</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -11195,16 +11318,16 @@
         <v>0.863636</v>
       </c>
       <c r="G300">
-        <v>0.496403</v>
+        <v>0.464819</v>
       </c>
       <c r="H300">
-        <v>0.518833</v>
+        <v>0.507338</v>
       </c>
       <c r="I300">
-        <v>0.436441</v>
+        <v>0.422222</v>
       </c>
       <c r="J300">
-        <v>0.5163180000000001</v>
+        <v>0.505664</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -11218,7 +11341,7 @@
         <v>0.377049</v>
       </c>
       <c r="H301">
-        <v>0.476695</v>
+        <v>0.465831</v>
       </c>
       <c r="I301">
         <v>0.222222</v>
@@ -11247,16 +11370,16 @@
         <v>0.454545</v>
       </c>
       <c r="G302">
-        <v>0.558739</v>
+        <v>0.5991649999999999</v>
       </c>
       <c r="H302">
-        <v>0.565126</v>
+        <v>0.554455</v>
       </c>
       <c r="I302">
-        <v>0.4</v>
+        <v>0.43318</v>
       </c>
       <c r="J302">
-        <v>0.564815</v>
+        <v>0.547445</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -11279,16 +11402,16 @@
         <v>0.681818</v>
       </c>
       <c r="G303">
-        <v>0.516556</v>
+        <v>0.493671</v>
       </c>
       <c r="H303">
-        <v>0.498357</v>
+        <v>0.486937</v>
       </c>
       <c r="I303">
-        <v>0.333333</v>
+        <v>0.383178</v>
       </c>
       <c r="J303">
-        <v>0.515746</v>
+        <v>0.503542</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -11311,16 +11434,16 @@
         <v>0.590909</v>
       </c>
       <c r="G304">
-        <v>0.443662</v>
+        <v>0.445833</v>
       </c>
       <c r="H304">
-        <v>0.521669</v>
+        <v>0.501609</v>
       </c>
       <c r="I304">
-        <v>0.326531</v>
+        <v>0.312057</v>
       </c>
       <c r="J304">
-        <v>0.518092</v>
+        <v>0.505058</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -11343,16 +11466,16 @@
         <v>0.619048</v>
       </c>
       <c r="G305">
-        <v>0.476879</v>
+        <v>0.514161</v>
       </c>
       <c r="H305">
-        <v>0.543401</v>
+        <v>0.546207</v>
       </c>
       <c r="I305">
-        <v>0.455959</v>
+        <v>0.348592</v>
       </c>
       <c r="J305">
-        <v>0.533935</v>
+        <v>0.558577</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -11375,16 +11498,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G306">
-        <v>0.534535</v>
+        <v>0.484536</v>
       </c>
       <c r="H306">
-        <v>0.512301</v>
+        <v>0.509914</v>
       </c>
       <c r="I306">
-        <v>0.392694</v>
+        <v>0.378917</v>
       </c>
       <c r="J306">
-        <v>0.499867</v>
+        <v>0.507121</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -11407,16 +11530,16 @@
         <v>0.545455</v>
       </c>
       <c r="G307">
-        <v>0.5203759999999999</v>
+        <v>0.493534</v>
       </c>
       <c r="H307">
-        <v>0.505724</v>
+        <v>0.505526</v>
       </c>
       <c r="I307">
-        <v>0.383562</v>
+        <v>0.348178</v>
       </c>
       <c r="J307">
-        <v>0.534544</v>
+        <v>0.519225</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -11439,16 +11562,16 @@
         <v>0.956522</v>
       </c>
       <c r="G308">
-        <v>0.542484</v>
+        <v>0.531873</v>
       </c>
       <c r="H308">
-        <v>0.552775</v>
+        <v>0.545678</v>
       </c>
       <c r="I308">
-        <v>0.514085</v>
+        <v>0.514583</v>
       </c>
       <c r="J308">
-        <v>0.5496529999999999</v>
+        <v>0.545443</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -11471,16 +11594,16 @@
         <v>1</v>
       </c>
       <c r="G309">
-        <v>0.610272</v>
+        <v>0.592213</v>
       </c>
       <c r="H309">
-        <v>0.570782</v>
+        <v>0.559494</v>
       </c>
       <c r="I309">
-        <v>0.610272</v>
+        <v>0.592213</v>
       </c>
       <c r="J309">
-        <v>0.570782</v>
+        <v>0.559494</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -11506,13 +11629,13 @@
         <v>0.587269</v>
       </c>
       <c r="H310">
-        <v>0.55644</v>
+        <v>0.5317460000000001</v>
       </c>
       <c r="I310">
         <v>0.340909</v>
       </c>
       <c r="J310">
-        <v>0.562393</v>
+        <v>0.545073</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -11538,13 +11661,13 @@
         <v>0.574786</v>
       </c>
       <c r="H311">
-        <v>0.545455</v>
+        <v>0.533094</v>
       </c>
       <c r="I311">
         <v>0.377358</v>
       </c>
       <c r="J311">
-        <v>0.525966</v>
+        <v>0.516358</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -11567,16 +11690,16 @@
         <v>0.565217</v>
       </c>
       <c r="G312">
-        <v>0.540984</v>
+        <v>0.530815</v>
       </c>
       <c r="H312">
-        <v>0.566055</v>
+        <v>0.54705</v>
       </c>
       <c r="I312">
-        <v>0.431472</v>
+        <v>0.392982</v>
       </c>
       <c r="J312">
-        <v>0.543865</v>
+        <v>0.530579</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -11599,16 +11722,16 @@
         <v>0.521739</v>
       </c>
       <c r="G313">
-        <v>0.548628</v>
+        <v>0.512671</v>
       </c>
       <c r="H313">
-        <v>0.535462</v>
+        <v>0.5235649999999999</v>
       </c>
       <c r="I313">
-        <v>0.290503</v>
+        <v>0.289963</v>
       </c>
       <c r="J313">
-        <v>0.513924</v>
+        <v>0.510406</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -11631,16 +11754,16 @@
         <v>0.714286</v>
       </c>
       <c r="G314">
-        <v>0.438953</v>
+        <v>0.454545</v>
       </c>
       <c r="H314">
-        <v>0.51492</v>
+        <v>0.512175</v>
       </c>
       <c r="I314">
-        <v>0.374517</v>
+        <v>0.36646</v>
       </c>
       <c r="J314">
-        <v>0.498795</v>
+        <v>0.500358</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -11666,13 +11789,13 @@
         <v>0.54262</v>
       </c>
       <c r="H315">
-        <v>0.510894</v>
+        <v>0.510775</v>
       </c>
       <c r="I315">
         <v>0.151163</v>
       </c>
       <c r="J315">
-        <v>0.488066</v>
+        <v>0.514973</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -11695,16 +11818,16 @@
         <v>0.954545</v>
       </c>
       <c r="G316">
-        <v>0.444785</v>
+        <v>0.447479</v>
       </c>
       <c r="H316">
-        <v>0.535343</v>
+        <v>0.523083</v>
       </c>
       <c r="I316">
-        <v>0.424342</v>
+        <v>0.433921</v>
       </c>
       <c r="J316">
-        <v>0.53627</v>
+        <v>0.523734</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -11727,16 +11850,16 @@
         <v>0.7</v>
       </c>
       <c r="G317">
-        <v>0.448052</v>
+        <v>0.464891</v>
       </c>
       <c r="H317">
-        <v>0.480961</v>
+        <v>0.461398</v>
       </c>
       <c r="I317">
-        <v>0.361991</v>
+        <v>0.347518</v>
       </c>
       <c r="J317">
-        <v>0.479964</v>
+        <v>0.461211</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -11759,16 +11882,16 @@
         <v>0.65</v>
       </c>
       <c r="G318">
-        <v>0.438163</v>
+        <v>0.411085</v>
       </c>
       <c r="H318">
-        <v>0.504111</v>
+        <v>0.487728</v>
       </c>
       <c r="I318">
-        <v>0.328205</v>
+        <v>0.321555</v>
       </c>
       <c r="J318">
-        <v>0.499128</v>
+        <v>0.477201</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -11791,16 +11914,16 @@
         <v>0.347826</v>
       </c>
       <c r="G319">
-        <v>0.512346</v>
+        <v>0.49453</v>
       </c>
       <c r="H319">
-        <v>0.486645</v>
+        <v>0.473671</v>
       </c>
       <c r="I319">
-        <v>0.340909</v>
+        <v>0.276119</v>
       </c>
       <c r="J319">
-        <v>0.486827</v>
+        <v>0.48452</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -11826,13 +11949,13 @@
         <v>0.583682</v>
       </c>
       <c r="H320">
-        <v>0.483017</v>
+        <v>0.476707</v>
       </c>
       <c r="I320">
         <v>0.477273</v>
       </c>
       <c r="J320">
-        <v>0.480801</v>
+        <v>0.472222</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -11855,16 +11978,16 @@
         <v>0.954545</v>
       </c>
       <c r="G321">
-        <v>0.59697</v>
+        <v>0.540541</v>
       </c>
       <c r="H321">
-        <v>0.573675</v>
+        <v>0.5488499999999999</v>
       </c>
       <c r="I321">
-        <v>0.603226</v>
+        <v>0.542299</v>
       </c>
       <c r="J321">
-        <v>0.573675</v>
+        <v>0.5488499999999999</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -11874,6 +11997,18 @@
       <c r="F322">
         <v>0</v>
       </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
@@ -11895,16 +12030,16 @@
         <v>0.913043</v>
       </c>
       <c r="G323">
-        <v>0.558824</v>
+        <v>0.47379</v>
       </c>
       <c r="H323">
-        <v>0.523001</v>
+        <v>0.516833</v>
       </c>
       <c r="I323">
-        <v>0.496124</v>
+        <v>0.448352</v>
       </c>
       <c r="J323">
-        <v>0.524439</v>
+        <v>0.518192</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -11927,16 +12062,16 @@
         <v>0.809524</v>
       </c>
       <c r="G324">
-        <v>0.382143</v>
+        <v>0.462389</v>
       </c>
       <c r="H324">
-        <v>0.501627</v>
+        <v>0.500701</v>
       </c>
       <c r="I324">
-        <v>0.320675</v>
+        <v>0.391781</v>
       </c>
       <c r="J324">
-        <v>0.51466</v>
+        <v>0.503701</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -11959,16 +12094,16 @@
         <v>0.681818</v>
       </c>
       <c r="G325">
-        <v>0.645455</v>
+        <v>0.585921</v>
       </c>
       <c r="H325">
-        <v>0.5567220000000001</v>
+        <v>0.533395</v>
       </c>
       <c r="I325">
-        <v>0.5600000000000001</v>
+        <v>0.486405</v>
       </c>
       <c r="J325">
-        <v>0.528908</v>
+        <v>0.513894</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -11991,16 +12126,16 @@
         <v>0.652174</v>
       </c>
       <c r="G326">
-        <v>0.672897</v>
+        <v>0.505071</v>
       </c>
       <c r="H326">
-        <v>0.522047</v>
+        <v>0.505034</v>
       </c>
       <c r="I326">
-        <v>0.583333</v>
+        <v>0.365325</v>
       </c>
       <c r="J326">
-        <v>0.52281</v>
+        <v>0.508001</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -12026,7 +12161,13 @@
         <v>0.51816</v>
       </c>
       <c r="H327">
-        <v>0.5222830000000001</v>
+        <v>0.506331</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -12052,13 +12193,13 @@
         <v>0.496032</v>
       </c>
       <c r="H328">
-        <v>0.5294759999999999</v>
+        <v>0.52507</v>
       </c>
       <c r="I328">
         <v>0.282486</v>
       </c>
       <c r="J328">
-        <v>0.54238</v>
+        <v>0.528854</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -12081,16 +12222,16 @@
         <v>0.142857</v>
       </c>
       <c r="G329">
-        <v>0.496471</v>
+        <v>0.484305</v>
       </c>
       <c r="H329">
-        <v>0.466717</v>
+        <v>0.46816</v>
       </c>
       <c r="I329">
         <v>0.31746</v>
       </c>
       <c r="J329">
-        <v>0.430255</v>
+        <v>0.430699</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -12113,16 +12254,16 @@
         <v>0.333333</v>
       </c>
       <c r="G330">
-        <v>0.434667</v>
+        <v>0.466523</v>
       </c>
       <c r="H330">
-        <v>0.5382400000000001</v>
+        <v>0.528725</v>
       </c>
       <c r="I330">
         <v>0.279221</v>
       </c>
       <c r="J330">
-        <v>0.5026620000000001</v>
+        <v>0.502696</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -12148,13 +12289,13 @@
         <v>0.509719</v>
       </c>
       <c r="H331">
-        <v>0.510212</v>
+        <v>0.498521</v>
       </c>
       <c r="I331">
         <v>0.181818</v>
       </c>
       <c r="J331">
-        <v>0.433476</v>
+        <v>0.514831</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -12177,16 +12318,16 @@
         <v>0.136364</v>
       </c>
       <c r="G332">
-        <v>0.5</v>
+        <v>0.52452</v>
       </c>
       <c r="H332">
-        <v>0.51457</v>
+        <v>0.5073220000000001</v>
       </c>
       <c r="I332">
-        <v>0.238095</v>
+        <v>0.435484</v>
       </c>
       <c r="J332">
-        <v>0.452742</v>
+        <v>0.46717</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -12209,16 +12350,16 @@
         <v>0.565217</v>
       </c>
       <c r="G333">
-        <v>0.502404</v>
+        <v>0.5079050000000001</v>
       </c>
       <c r="H333">
-        <v>0.548882</v>
+        <v>0.534337</v>
       </c>
       <c r="I333">
-        <v>0.426778</v>
+        <v>0.415493</v>
       </c>
       <c r="J333">
-        <v>0.533404</v>
+        <v>0.5206769999999999</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -12241,16 +12382,16 @@
         <v>0.619048</v>
       </c>
       <c r="G334">
-        <v>0.44086</v>
+        <v>0.424107</v>
       </c>
       <c r="H334">
-        <v>0.483496</v>
+        <v>0.46689</v>
       </c>
       <c r="I334">
-        <v>0.317568</v>
+        <v>0.29304</v>
       </c>
       <c r="J334">
-        <v>0.458216</v>
+        <v>0.441218</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -12273,16 +12414,16 @@
         <v>0.857143</v>
       </c>
       <c r="G335">
-        <v>0.484058</v>
+        <v>0.451111</v>
       </c>
       <c r="H335">
-        <v>0.545783</v>
+        <v>0.51651</v>
       </c>
       <c r="I335">
-        <v>0.422383</v>
+        <v>0.400524</v>
       </c>
       <c r="J335">
-        <v>0.528027</v>
+        <v>0.509598</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -12305,16 +12446,16 @@
         <v>0.363636</v>
       </c>
       <c r="G336">
-        <v>0.492958</v>
+        <v>0.472689</v>
       </c>
       <c r="H336">
-        <v>0.506974</v>
+        <v>0.495403</v>
       </c>
       <c r="I336">
-        <v>0.329412</v>
+        <v>0.317647</v>
       </c>
       <c r="J336">
-        <v>0.485487</v>
+        <v>0.468314</v>
       </c>
     </row>
     <row r="337" spans="1:10">
@@ -12337,16 +12478,16 @@
         <v>0.590909</v>
       </c>
       <c r="G337">
-        <v>0.617978</v>
+        <v>0.581109</v>
       </c>
       <c r="H337">
-        <v>0.559369</v>
+        <v>0.54123</v>
       </c>
       <c r="I337">
-        <v>0.505</v>
+        <v>0.45993</v>
       </c>
       <c r="J337">
-        <v>0.55323</v>
+        <v>0.5374</v>
       </c>
     </row>
     <row r="338" spans="1:10">
@@ -12369,16 +12510,16 @@
         <v>0.454545</v>
       </c>
       <c r="G338">
-        <v>0.508834</v>
+        <v>0.477895</v>
       </c>
       <c r="H338">
-        <v>0.5</v>
+        <v>0.482162</v>
       </c>
       <c r="I338">
-        <v>0.255814</v>
+        <v>0.299539</v>
       </c>
       <c r="J338">
-        <v>0.468596</v>
+        <v>0.454902</v>
       </c>
     </row>
     <row r="339" spans="1:10">
@@ -12401,16 +12542,16 @@
         <v>0.478261</v>
       </c>
       <c r="G339">
-        <v>0.517685</v>
+        <v>0.491228</v>
       </c>
       <c r="H339">
-        <v>0.510733</v>
+        <v>0.496782</v>
       </c>
       <c r="I339">
-        <v>0.346154</v>
+        <v>0.323887</v>
       </c>
       <c r="J339">
-        <v>0.52162</v>
+        <v>0.5062720000000001</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -12433,16 +12574,16 @@
         <v>0.454545</v>
       </c>
       <c r="G340">
-        <v>0.488372</v>
+        <v>0.483193</v>
       </c>
       <c r="H340">
-        <v>0.531884</v>
+        <v>0.513999</v>
       </c>
       <c r="I340">
-        <v>0.337349</v>
+        <v>0.32381</v>
       </c>
       <c r="J340">
-        <v>0.489032</v>
+        <v>0.485209</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -12468,13 +12609,13 @@
         <v>0.495671</v>
       </c>
       <c r="H341">
-        <v>0.504294</v>
+        <v>0.495417</v>
       </c>
       <c r="I341">
         <v>0.227273</v>
       </c>
       <c r="J341">
-        <v>0.454628</v>
+        <v>0.454545</v>
       </c>
     </row>
     <row r="342" spans="1:10">
@@ -12497,13 +12638,16 @@
         <v>0.05</v>
       </c>
       <c r="G342">
-        <v>0.619048</v>
+        <v>0.535632</v>
       </c>
       <c r="H342">
-        <v>0.509745</v>
+        <v>0.49865</v>
+      </c>
+      <c r="I342">
+        <v>0.235294</v>
       </c>
       <c r="J342">
-        <v>0.483871</v>
+        <v>0.457912</v>
       </c>
     </row>
     <row r="343" spans="1:10">
@@ -12529,13 +12673,13 @@
         <v>0.483034</v>
       </c>
       <c r="H343">
-        <v>0.518962</v>
+        <v>0.503928</v>
       </c>
       <c r="I343">
         <v>0.34375</v>
       </c>
       <c r="J343">
-        <v>0.508033</v>
+        <v>0.492537</v>
       </c>
     </row>
     <row r="344" spans="1:10">
@@ -12558,16 +12702,16 @@
         <v>0.227273</v>
       </c>
       <c r="G344">
-        <v>0.557484</v>
+        <v>0.5363830000000001</v>
       </c>
       <c r="H344">
-        <v>0.5007</v>
+        <v>0.5002</v>
       </c>
       <c r="I344">
-        <v>0.277108</v>
+        <v>0.23301</v>
       </c>
       <c r="J344">
-        <v>0.471967</v>
+        <v>0.48449</v>
       </c>
     </row>
     <row r="345" spans="1:10">
@@ -12590,16 +12734,16 @@
         <v>0.7619050000000001</v>
       </c>
       <c r="G345">
-        <v>0.53169</v>
+        <v>0.5</v>
       </c>
       <c r="H345">
-        <v>0.5194569999999999</v>
+        <v>0.496468</v>
       </c>
       <c r="I345">
-        <v>0.456221</v>
+        <v>0.440922</v>
       </c>
       <c r="J345">
-        <v>0.49908</v>
+        <v>0.478382</v>
       </c>
     </row>
     <row r="346" spans="1:10">
@@ -12622,16 +12766,16 @@
         <v>0.545455</v>
       </c>
       <c r="G346">
-        <v>0.563025</v>
+        <v>0.5615869999999999</v>
       </c>
       <c r="H346">
-        <v>0.51874</v>
+        <v>0.517746</v>
       </c>
       <c r="I346">
-        <v>0.372093</v>
+        <v>0.430233</v>
       </c>
       <c r="J346">
-        <v>0.521273</v>
+        <v>0.517316</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -12654,16 +12798,16 @@
         <v>0.666667</v>
       </c>
       <c r="G347">
-        <v>0.444444</v>
+        <v>0.462366</v>
       </c>
       <c r="H347">
-        <v>0.546237</v>
+        <v>0.525473</v>
       </c>
       <c r="I347">
-        <v>0.331818</v>
+        <v>0.338762</v>
       </c>
       <c r="J347">
-        <v>0.529656</v>
+        <v>0.509811</v>
       </c>
     </row>
     <row r="348" spans="1:10">
@@ -12686,16 +12830,16 @@
         <v>0.333333</v>
       </c>
       <c r="G348">
-        <v>0.459364</v>
+        <v>0.541304</v>
       </c>
       <c r="H348">
-        <v>0.503246</v>
+        <v>0.493929</v>
       </c>
       <c r="I348">
-        <v>0.206897</v>
+        <v>0.24183</v>
       </c>
       <c r="J348">
-        <v>0.505348</v>
+        <v>0.498946</v>
       </c>
     </row>
     <row r="349" spans="1:10">
@@ -12718,16 +12862,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G349">
-        <v>0.480645</v>
+        <v>0.508163</v>
       </c>
       <c r="H349">
-        <v>0.537923</v>
+        <v>0.525471</v>
       </c>
       <c r="I349">
-        <v>0.411321</v>
+        <v>0.388889</v>
       </c>
       <c r="J349">
-        <v>0.524114</v>
+        <v>0.517795</v>
       </c>
     </row>
     <row r="350" spans="1:10">
@@ -12750,16 +12894,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G350">
-        <v>0.52459</v>
+        <v>0.502092</v>
       </c>
       <c r="H350">
-        <v>0.515373</v>
+        <v>0.511781</v>
       </c>
       <c r="I350">
-        <v>0.458333</v>
+        <v>0.415698</v>
       </c>
       <c r="J350">
-        <v>0.523077</v>
+        <v>0.517174</v>
       </c>
     </row>
     <row r="351" spans="1:10">
@@ -12782,16 +12926,16 @@
         <v>0.333333</v>
       </c>
       <c r="G351">
-        <v>0.514368</v>
+        <v>0.480349</v>
       </c>
       <c r="H351">
-        <v>0.5090170000000001</v>
+        <v>0.508821</v>
       </c>
       <c r="I351">
-        <v>0.317829</v>
+        <v>0.291391</v>
       </c>
       <c r="J351">
-        <v>0.491562</v>
+        <v>0.491504</v>
       </c>
     </row>
     <row r="352" spans="1:10">
@@ -12814,16 +12958,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G352">
-        <v>0.539326</v>
+        <v>0.5560079999999999</v>
       </c>
       <c r="H352">
-        <v>0.5473519999999999</v>
+        <v>0.5294720000000001</v>
       </c>
       <c r="I352">
-        <v>0.482759</v>
+        <v>0.478992</v>
       </c>
       <c r="J352">
-        <v>0.554491</v>
+        <v>0.531133</v>
       </c>
     </row>
     <row r="353" spans="1:10">
@@ -12849,7 +12993,13 @@
         <v>0.536697</v>
       </c>
       <c r="H353">
-        <v>0.495772</v>
+        <v>0.478939</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -12872,16 +13022,16 @@
         <v>0.272727</v>
       </c>
       <c r="G354">
-        <v>0.479624</v>
+        <v>0.455128</v>
       </c>
       <c r="H354">
-        <v>0.488716</v>
+        <v>0.469789</v>
       </c>
       <c r="I354">
-        <v>0.290323</v>
+        <v>0.216</v>
       </c>
       <c r="J354">
-        <v>0.47226</v>
+        <v>0.462673</v>
       </c>
     </row>
     <row r="355" spans="1:10">
@@ -12904,16 +13054,16 @@
         <v>0.318182</v>
       </c>
       <c r="G355">
-        <v>0.548035</v>
+        <v>0.538462</v>
       </c>
       <c r="H355">
-        <v>0.525056</v>
+        <v>0.525674</v>
       </c>
       <c r="I355">
         <v>0.322368</v>
       </c>
       <c r="J355">
-        <v>0.489419</v>
+        <v>0.509958</v>
       </c>
     </row>
     <row r="356" spans="1:10">
@@ -12936,16 +13086,16 @@
         <v>0.478261</v>
       </c>
       <c r="G356">
-        <v>0.521127</v>
+        <v>0.535714</v>
       </c>
       <c r="H356">
-        <v>0.570234</v>
+        <v>0.547611</v>
       </c>
       <c r="I356">
-        <v>0.348684</v>
+        <v>0.345833</v>
       </c>
       <c r="J356">
-        <v>0.5573709999999999</v>
+        <v>0.539095</v>
       </c>
     </row>
     <row r="357" spans="1:10">
@@ -12968,16 +13118,16 @@
         <v>0.6</v>
       </c>
       <c r="G357">
-        <v>0.402685</v>
+        <v>0.434988</v>
       </c>
       <c r="H357">
-        <v>0.5170439999999999</v>
+        <v>0.512981</v>
       </c>
       <c r="I357">
-        <v>0.306878</v>
+        <v>0.309524</v>
       </c>
       <c r="J357">
-        <v>0.504942</v>
+        <v>0.506314</v>
       </c>
     </row>
     <row r="358" spans="1:10">
@@ -13000,13 +13150,13 @@
         <v>0.142857</v>
       </c>
       <c r="G358">
-        <v>0.560714</v>
+        <v>0.543046</v>
       </c>
       <c r="H358">
-        <v>0.496505</v>
+        <v>0.48085</v>
       </c>
       <c r="I358">
-        <v>0</v>
+        <v>0.112903</v>
       </c>
       <c r="J358">
         <v>0.52323</v>
@@ -13035,13 +13185,13 @@
         <v>0.510684</v>
       </c>
       <c r="H359">
-        <v>0.507444</v>
+        <v>0.5</v>
       </c>
       <c r="I359">
         <v>0.202797</v>
       </c>
       <c r="J359">
-        <v>0.500713</v>
+        <v>0.513283</v>
       </c>
     </row>
     <row r="360" spans="1:10">
@@ -13064,16 +13214,16 @@
         <v>0.318182</v>
       </c>
       <c r="G360">
-        <v>0.498246</v>
+        <v>0.487552</v>
       </c>
       <c r="H360">
-        <v>0.470096</v>
+        <v>0.493301</v>
       </c>
       <c r="I360">
-        <v>0.280374</v>
+        <v>0.251656</v>
       </c>
       <c r="J360">
-        <v>0.467792</v>
+        <v>0.520099</v>
       </c>
     </row>
     <row r="361" spans="1:10">
@@ -13096,16 +13246,16 @@
         <v>0.238095</v>
       </c>
       <c r="G361">
-        <v>0.6355690000000001</v>
+        <v>0.560976</v>
       </c>
       <c r="H361">
-        <v>0.458111</v>
+        <v>0.466464</v>
       </c>
       <c r="I361">
-        <v>0.292683</v>
+        <v>0.238095</v>
       </c>
       <c r="J361">
-        <v>0.458758</v>
+        <v>0.437863</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -13128,16 +13278,16 @@
         <v>0.913043</v>
       </c>
       <c r="G362">
-        <v>0.384937</v>
+        <v>0.422846</v>
       </c>
       <c r="H362">
-        <v>0.506197</v>
+        <v>0.507621</v>
       </c>
       <c r="I362">
-        <v>0.33945</v>
+        <v>0.382932</v>
       </c>
       <c r="J362">
-        <v>0.506836</v>
+        <v>0.504236</v>
       </c>
     </row>
     <row r="363" spans="1:10">
@@ -13160,10 +13310,10 @@
         <v>0.235294</v>
       </c>
       <c r="G363">
-        <v>0.483871</v>
+        <v>0.457912</v>
       </c>
       <c r="H363">
-        <v>0.469144</v>
+        <v>0.469168</v>
       </c>
       <c r="I363">
         <v>0</v>
@@ -13192,16 +13342,16 @@
         <v>0.73913</v>
       </c>
       <c r="G364">
-        <v>0.468085</v>
+        <v>0.436</v>
       </c>
       <c r="H364">
-        <v>0.545642</v>
+        <v>0.521637</v>
       </c>
       <c r="I364">
-        <v>0.401826</v>
+        <v>0.383784</v>
       </c>
       <c r="J364">
-        <v>0.518127</v>
+        <v>0.497407</v>
       </c>
     </row>
     <row r="365" spans="1:10">
@@ -13224,16 +13374,16 @@
         <v>0.409091</v>
       </c>
       <c r="G365">
-        <v>0.5057469999999999</v>
+        <v>0.464368</v>
       </c>
       <c r="H365">
-        <v>0.502279</v>
+        <v>0.492368</v>
       </c>
       <c r="I365">
-        <v>0.504274</v>
+        <v>0.363095</v>
       </c>
       <c r="J365">
-        <v>0.497343</v>
+        <v>0.488453</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -13256,16 +13406,16 @@
         <v>0.5</v>
       </c>
       <c r="G366">
-        <v>0.497817</v>
+        <v>0.489489</v>
       </c>
       <c r="H366">
-        <v>0.469456</v>
+        <v>0.445894</v>
       </c>
       <c r="I366">
-        <v>0.336538</v>
+        <v>0.30719</v>
       </c>
       <c r="J366">
-        <v>0.499558</v>
+        <v>0.468401</v>
       </c>
     </row>
     <row r="367" spans="1:10">
@@ -13288,16 +13438,16 @@
         <v>0.954545</v>
       </c>
       <c r="G367">
-        <v>0.599349</v>
+        <v>0.546778</v>
       </c>
       <c r="H367">
-        <v>0.536453</v>
+        <v>0.5207580000000001</v>
       </c>
       <c r="I367">
-        <v>0.57193</v>
+        <v>0.527233</v>
       </c>
       <c r="J367">
-        <v>0.542386</v>
+        <v>0.525352</v>
       </c>
     </row>
     <row r="368" spans="1:10">
@@ -13323,7 +13473,7 @@
         <v>0.570667</v>
       </c>
       <c r="H368">
-        <v>0.504899</v>
+        <v>0.494487</v>
       </c>
       <c r="I368">
         <v>0</v>
@@ -13352,16 +13502,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G369">
-        <v>0.437086</v>
+        <v>0.473684</v>
       </c>
       <c r="H369">
-        <v>0.517998</v>
+        <v>0.503337</v>
       </c>
       <c r="I369">
-        <v>0.346154</v>
+        <v>0.352941</v>
       </c>
       <c r="J369">
-        <v>0.5092719999999999</v>
+        <v>0.500928</v>
       </c>
     </row>
     <row r="370" spans="1:10">
@@ -13384,16 +13534,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G370">
-        <v>0.428571</v>
+        <v>0.44665</v>
       </c>
       <c r="H370">
-        <v>0.494019</v>
+        <v>0.472335</v>
       </c>
       <c r="I370">
-        <v>0.403061</v>
+        <v>0.437086</v>
       </c>
       <c r="J370">
-        <v>0.491787</v>
+        <v>0.466161</v>
       </c>
     </row>
     <row r="371" spans="1:10">
@@ -13416,16 +13566,16 @@
         <v>0.571429</v>
       </c>
       <c r="G371">
-        <v>0.478754</v>
+        <v>0.444924</v>
       </c>
       <c r="H371">
-        <v>0.540365</v>
+        <v>0.528155</v>
       </c>
       <c r="I371">
-        <v>0.292929</v>
+        <v>0.262357</v>
       </c>
       <c r="J371">
-        <v>0.527311</v>
+        <v>0.516947</v>
       </c>
     </row>
     <row r="372" spans="1:10">
@@ -13451,7 +13601,7 @@
         <v>0.501319</v>
       </c>
       <c r="H372">
-        <v>0.469986</v>
+        <v>0.474182</v>
       </c>
       <c r="I372">
         <v>0.058824</v>
@@ -13480,16 +13630,16 @@
         <v>0.857143</v>
       </c>
       <c r="G373">
-        <v>0.382979</v>
+        <v>0.429515</v>
       </c>
       <c r="H373">
-        <v>0.521987</v>
+        <v>0.512117</v>
       </c>
       <c r="I373">
-        <v>0.285714</v>
+        <v>0.360825</v>
       </c>
       <c r="J373">
-        <v>0.518682</v>
+        <v>0.512591</v>
       </c>
     </row>
     <row r="374" spans="1:10">
@@ -13512,16 +13662,16 @@
         <v>0.363636</v>
       </c>
       <c r="G374">
-        <v>0.516043</v>
+        <v>0.538462</v>
       </c>
       <c r="H374">
-        <v>0.539324</v>
+        <v>0.530065</v>
       </c>
       <c r="I374">
-        <v>0.292308</v>
+        <v>0.298246</v>
       </c>
       <c r="J374">
-        <v>0.5190940000000001</v>
+        <v>0.499079</v>
       </c>
     </row>
     <row r="375" spans="1:10">
@@ -13544,16 +13694,16 @@
         <v>0.681818</v>
       </c>
       <c r="G375">
-        <v>0.521445</v>
+        <v>0.497942</v>
       </c>
       <c r="H375">
-        <v>0.525953</v>
+        <v>0.520602</v>
       </c>
       <c r="I375">
-        <v>0.41115</v>
+        <v>0.390909</v>
       </c>
       <c r="J375">
-        <v>0.518095</v>
+        <v>0.504059</v>
       </c>
     </row>
     <row r="376" spans="1:10">
@@ -13576,16 +13726,16 @@
         <v>0.619048</v>
       </c>
       <c r="G376">
-        <v>0.423664</v>
+        <v>0.521739</v>
       </c>
       <c r="H376">
-        <v>0.528372</v>
+        <v>0.513736</v>
       </c>
       <c r="I376">
-        <v>0.321429</v>
+        <v>0.35461</v>
       </c>
       <c r="J376">
-        <v>0.5213370000000001</v>
+        <v>0.506703</v>
       </c>
     </row>
     <row r="377" spans="1:10">
@@ -13608,16 +13758,16 @@
         <v>0.909091</v>
       </c>
       <c r="G377">
-        <v>0.355049</v>
+        <v>0.394628</v>
       </c>
       <c r="H377">
-        <v>0.5129359999999999</v>
+        <v>0.518006</v>
       </c>
       <c r="I377">
-        <v>0.306338</v>
+        <v>0.350797</v>
       </c>
       <c r="J377">
-        <v>0.507034</v>
+        <v>0.513577</v>
       </c>
     </row>
     <row r="378" spans="1:10">
@@ -13640,16 +13790,16 @@
         <v>0.818182</v>
       </c>
       <c r="G378">
-        <v>0.565916</v>
+        <v>0.551502</v>
       </c>
       <c r="H378">
-        <v>0.541441</v>
+        <v>0.527969</v>
       </c>
       <c r="I378">
-        <v>0.515038</v>
+        <v>0.464</v>
       </c>
       <c r="J378">
-        <v>0.526885</v>
+        <v>0.520114</v>
       </c>
     </row>
     <row r="379" spans="1:10">
@@ -13672,16 +13822,16 @@
         <v>0.173913</v>
       </c>
       <c r="G379">
-        <v>0.56168</v>
+        <v>0.537864</v>
       </c>
       <c r="H379">
-        <v>0.501227</v>
+        <v>0.485466</v>
       </c>
       <c r="I379">
-        <v>0.242424</v>
+        <v>0.204545</v>
       </c>
       <c r="J379">
-        <v>0.480897</v>
+        <v>0.481985</v>
       </c>
     </row>
     <row r="380" spans="1:10">
@@ -13707,13 +13857,13 @@
         <v>0.5</v>
       </c>
       <c r="H380">
-        <v>0.496667</v>
+        <v>0.480961</v>
       </c>
       <c r="I380">
         <v>0.363636</v>
       </c>
       <c r="J380">
-        <v>0.455263</v>
+        <v>0.461951</v>
       </c>
     </row>
     <row r="381" spans="1:10">
@@ -13736,16 +13886,16 @@
         <v>0.619048</v>
       </c>
       <c r="G381">
-        <v>0.515337</v>
+        <v>0.496718</v>
       </c>
       <c r="H381">
-        <v>0.512039</v>
+        <v>0.512271</v>
       </c>
       <c r="I381">
-        <v>0.397661</v>
+        <v>0.412811</v>
       </c>
       <c r="J381">
-        <v>0.513929</v>
+        <v>0.5127159999999999</v>
       </c>
     </row>
     <row r="382" spans="1:10">
@@ -13768,16 +13918,16 @@
         <v>0.272727</v>
       </c>
       <c r="G382">
-        <v>0.569794</v>
+        <v>0.540541</v>
       </c>
       <c r="H382">
-        <v>0.500973</v>
+        <v>0.490264</v>
       </c>
       <c r="I382">
-        <v>0.401869</v>
+        <v>0.333333</v>
       </c>
       <c r="J382">
-        <v>0.511226</v>
+        <v>0.498709</v>
       </c>
     </row>
     <row r="383" spans="1:10">
@@ -13800,16 +13950,16 @@
         <v>0.52381</v>
       </c>
       <c r="G383">
-        <v>0.465241</v>
+        <v>0.477322</v>
       </c>
       <c r="H383">
-        <v>0.512056</v>
+        <v>0.504849</v>
       </c>
       <c r="I383">
-        <v>0.316062</v>
+        <v>0.337553</v>
       </c>
       <c r="J383">
-        <v>0.483421</v>
+        <v>0.486532</v>
       </c>
     </row>
     <row r="384" spans="1:10">
@@ -13832,16 +13982,16 @@
         <v>0.157895</v>
       </c>
       <c r="G384">
-        <v>0.518828</v>
+        <v>0.484029</v>
       </c>
       <c r="H384">
-        <v>0.487395</v>
+        <v>0.479716</v>
       </c>
       <c r="I384">
         <v>0.107692</v>
       </c>
       <c r="J384">
-        <v>0.49579</v>
+        <v>0.494905</v>
       </c>
     </row>
     <row r="385" spans="1:10">
@@ -13864,16 +14014,16 @@
         <v>0.318182</v>
       </c>
       <c r="G385">
-        <v>0.567961</v>
+        <v>0.534737</v>
       </c>
       <c r="H385">
-        <v>0.521312</v>
+        <v>0.512463</v>
       </c>
       <c r="I385">
-        <v>0.254717</v>
+        <v>0.234899</v>
       </c>
       <c r="J385">
-        <v>0.454277</v>
+        <v>0.503993</v>
       </c>
     </row>
     <row r="386" spans="1:10">
@@ -13896,16 +14046,16 @@
         <v>0.52381</v>
       </c>
       <c r="G386">
-        <v>0.543956</v>
+        <v>0.533186</v>
       </c>
       <c r="H386">
-        <v>0.50141</v>
+        <v>0.500513</v>
       </c>
       <c r="I386">
-        <v>0.437126</v>
+        <v>0.416309</v>
       </c>
       <c r="J386">
-        <v>0.486988</v>
+        <v>0.475643</v>
       </c>
     </row>
     <row r="387" spans="1:10">
@@ -13928,16 +14078,16 @@
         <v>0.318182</v>
       </c>
       <c r="G387">
-        <v>0.545455</v>
+        <v>0.547521</v>
       </c>
       <c r="H387">
-        <v>0.55108</v>
+        <v>0.54113</v>
       </c>
       <c r="I387">
-        <v>0.290909</v>
+        <v>0.294118</v>
       </c>
       <c r="J387">
-        <v>0.48994</v>
+        <v>0.491831</v>
       </c>
     </row>
     <row r="388" spans="1:10">
@@ -13960,16 +14110,16 @@
         <v>0.375</v>
       </c>
       <c r="G388">
-        <v>0.487805</v>
+        <v>0.481707</v>
       </c>
       <c r="H388">
-        <v>0.450367</v>
+        <v>0.449171</v>
       </c>
       <c r="I388">
-        <v>0.025641</v>
+        <v>0.176471</v>
       </c>
       <c r="J388">
-        <v>0.508891</v>
+        <v>0.500308</v>
       </c>
     </row>
     <row r="389" spans="1:10">
@@ -13992,16 +14142,16 @@
         <v>0.590909</v>
       </c>
       <c r="G389">
-        <v>0.570071</v>
+        <v>0.574949</v>
       </c>
       <c r="H389">
-        <v>0.559505</v>
+        <v>0.530803</v>
       </c>
       <c r="I389">
-        <v>0.45082</v>
+        <v>0.472222</v>
       </c>
       <c r="J389">
-        <v>0.538914</v>
+        <v>0.5235340000000001</v>
       </c>
     </row>
     <row r="390" spans="1:10">
@@ -14024,16 +14174,16 @@
         <v>0.136364</v>
       </c>
       <c r="G390">
-        <v>0.563158</v>
+        <v>0.568035</v>
       </c>
       <c r="H390">
-        <v>0.493914</v>
+        <v>0.486543</v>
       </c>
       <c r="I390">
-        <v>0.210526</v>
+        <v>0.22807</v>
       </c>
       <c r="J390">
-        <v>0.530081</v>
+        <v>0.501247</v>
       </c>
     </row>
     <row r="391" spans="1:10">
@@ -14056,16 +14206,16 @@
         <v>0.954545</v>
       </c>
       <c r="G391">
-        <v>0.392453</v>
+        <v>0.403153</v>
       </c>
       <c r="H391">
-        <v>0.504119</v>
+        <v>0.488983</v>
       </c>
       <c r="I391">
-        <v>0.366255</v>
+        <v>0.388626</v>
       </c>
       <c r="J391">
-        <v>0.501275</v>
+        <v>0.484966</v>
       </c>
     </row>
     <row r="392" spans="1:10">
@@ -14088,16 +14238,16 @@
         <v>0.363636</v>
       </c>
       <c r="G392">
-        <v>0.442857</v>
+        <v>0.472574</v>
       </c>
       <c r="H392">
-        <v>0.484669</v>
+        <v>0.481474</v>
       </c>
       <c r="I392">
-        <v>0.166667</v>
+        <v>0.241176</v>
       </c>
       <c r="J392">
-        <v>0.506481</v>
+        <v>0.495146</v>
       </c>
     </row>
     <row r="393" spans="1:10">
@@ -14120,16 +14270,16 @@
         <v>0.045455</v>
       </c>
       <c r="G393">
-        <v>0.438356</v>
+        <v>0.5629</v>
       </c>
       <c r="H393">
-        <v>0.509311</v>
+        <v>0.497823</v>
       </c>
       <c r="I393">
         <v>0.136364</v>
       </c>
       <c r="J393">
-        <v>0.5</v>
+        <v>0.52452</v>
       </c>
     </row>
     <row r="394" spans="1:10">
@@ -14152,16 +14302,16 @@
         <v>0.272727</v>
       </c>
       <c r="G394">
-        <v>0.473684</v>
+        <v>0.521472</v>
       </c>
       <c r="H394">
-        <v>0.526514</v>
+        <v>0.506578</v>
       </c>
       <c r="I394">
-        <v>0.340659</v>
+        <v>0.323529</v>
       </c>
       <c r="J394">
-        <v>0.497517</v>
+        <v>0.491199</v>
       </c>
     </row>
     <row r="395" spans="1:10">
@@ -14187,13 +14337,13 @@
         <v>0.530398</v>
       </c>
       <c r="H395">
-        <v>0.49782</v>
+        <v>0.496217</v>
       </c>
       <c r="I395">
         <v>0.277778</v>
       </c>
       <c r="J395">
-        <v>0.49935</v>
+        <v>0.476498</v>
       </c>
     </row>
     <row r="396" spans="1:10">
@@ -14216,16 +14366,16 @@
         <v>0.25</v>
       </c>
       <c r="G396">
-        <v>0.566038</v>
+        <v>0.540724</v>
       </c>
       <c r="H396">
-        <v>0.487986</v>
+        <v>0.468488</v>
       </c>
       <c r="I396">
-        <v>0.227273</v>
+        <v>0.192661</v>
       </c>
       <c r="J396">
-        <v>0.513746</v>
+        <v>0.502412</v>
       </c>
     </row>
     <row r="397" spans="1:10">
@@ -14248,16 +14398,16 @@
         <v>0.227273</v>
       </c>
       <c r="G397">
-        <v>0.622517</v>
+        <v>0.570526</v>
       </c>
       <c r="H397">
-        <v>0.51908</v>
+        <v>0.504386</v>
       </c>
       <c r="I397">
-        <v>0.325581</v>
+        <v>0.266667</v>
       </c>
       <c r="J397">
-        <v>0.483536</v>
+        <v>0.47216</v>
       </c>
     </row>
     <row r="398" spans="1:10">
@@ -14280,16 +14430,16 @@
         <v>0.611111</v>
       </c>
       <c r="G398">
-        <v>0.422222</v>
+        <v>0.468085</v>
       </c>
       <c r="H398">
-        <v>0.483725</v>
+        <v>0.465396</v>
       </c>
       <c r="I398">
-        <v>0.310924</v>
+        <v>0.297872</v>
       </c>
       <c r="J398">
-        <v>0.511364</v>
+        <v>0.487827</v>
       </c>
     </row>
     <row r="399" spans="1:10">
@@ -14312,16 +14462,16 @@
         <v>0.454545</v>
       </c>
       <c r="G399">
-        <v>0.566952</v>
+        <v>0.550725</v>
       </c>
       <c r="H399">
-        <v>0.564169</v>
+        <v>0.542208</v>
       </c>
       <c r="I399">
-        <v>0.388158</v>
+        <v>0.385321</v>
       </c>
       <c r="J399">
-        <v>0.531929</v>
+        <v>0.519824</v>
       </c>
     </row>
     <row r="400" spans="1:10">
@@ -14344,16 +14494,16 @@
         <v>0.545455</v>
       </c>
       <c r="G400">
-        <v>0.56654</v>
+        <v>0.5669459999999999</v>
       </c>
       <c r="H400">
-        <v>0.531084</v>
+        <v>0.523699</v>
       </c>
       <c r="I400">
-        <v>0.353846</v>
+        <v>0.40613</v>
       </c>
       <c r="J400">
-        <v>0.519039</v>
+        <v>0.523001</v>
       </c>
     </row>
     <row r="401" spans="1:10">
@@ -14376,16 +14526,16 @@
         <v>0.136364</v>
       </c>
       <c r="G401">
-        <v>0.5546219999999999</v>
+        <v>0.549696</v>
       </c>
       <c r="H401">
-        <v>0.521284</v>
+        <v>0.514426</v>
       </c>
       <c r="I401">
-        <v>0.377778</v>
+        <v>0.294118</v>
       </c>
       <c r="J401">
-        <v>0.483083</v>
+        <v>0.487162</v>
       </c>
     </row>
     <row r="402" spans="1:10">
@@ -14408,16 +14558,16 @@
         <v>0.681818</v>
       </c>
       <c r="G402">
-        <v>0.467532</v>
+        <v>0.470954</v>
       </c>
       <c r="H402">
-        <v>0.544517</v>
+        <v>0.528058</v>
       </c>
       <c r="I402">
-        <v>0.425287</v>
+        <v>0.435583</v>
       </c>
       <c r="J402">
-        <v>0.518875</v>
+        <v>0.505771</v>
       </c>
     </row>
     <row r="403" spans="1:10">
@@ -14428,16 +14578,16 @@
         <v>0.285714</v>
       </c>
       <c r="G403">
-        <v>0.591549</v>
+        <v>0.419903</v>
       </c>
       <c r="H403">
-        <v>0.460592</v>
+        <v>0.464982</v>
       </c>
       <c r="I403">
-        <v>0.235294</v>
+        <v>0.142857</v>
       </c>
       <c r="J403">
-        <v>0.453258</v>
+        <v>0.445388</v>
       </c>
     </row>
     <row r="404" spans="1:10">
@@ -14460,16 +14610,16 @@
         <v>0.434783</v>
       </c>
       <c r="G404">
-        <v>0.525469</v>
+        <v>0.52381</v>
       </c>
       <c r="H404">
-        <v>0.5425720000000001</v>
+        <v>0.524517</v>
       </c>
       <c r="I404">
-        <v>0.276923</v>
+        <v>0.310185</v>
       </c>
       <c r="J404">
-        <v>0.515281</v>
+        <v>0.506219</v>
       </c>
     </row>
     <row r="405" spans="1:10">
@@ -14492,16 +14642,16 @@
         <v>0.565217</v>
       </c>
       <c r="G405">
-        <v>0.541538</v>
+        <v>0.506986</v>
       </c>
       <c r="H405">
-        <v>0.515305</v>
+        <v>0.515785</v>
       </c>
       <c r="I405">
-        <v>0.37013</v>
+        <v>0.327465</v>
       </c>
       <c r="J405">
-        <v>0.519508</v>
+        <v>0.514135</v>
       </c>
     </row>
     <row r="406" spans="1:10">
@@ -14524,16 +14674,16 @@
         <v>0.2</v>
       </c>
       <c r="G406">
-        <v>0.473856</v>
+        <v>0.457666</v>
       </c>
       <c r="H406">
-        <v>0.478032</v>
+        <v>0.477804</v>
       </c>
       <c r="I406">
-        <v>0.092308</v>
+        <v>0.09195399999999999</v>
       </c>
       <c r="J406">
-        <v>0.534496</v>
+        <v>0.526204</v>
       </c>
     </row>
     <row r="407" spans="1:10">
@@ -14556,16 +14706,16 @@
         <v>0.380952</v>
       </c>
       <c r="G407">
-        <v>0.501976</v>
+        <v>0.484163</v>
       </c>
       <c r="H407">
-        <v>0.513196</v>
+        <v>0.485671</v>
       </c>
       <c r="I407">
-        <v>0.179104</v>
+        <v>0.247191</v>
       </c>
       <c r="J407">
-        <v>0.513388</v>
+        <v>0.491236</v>
       </c>
     </row>
     <row r="408" spans="1:10">
@@ -14588,16 +14738,16 @@
         <v>0.4</v>
       </c>
       <c r="G408">
-        <v>0.51073</v>
+        <v>0.503546</v>
       </c>
       <c r="H408">
-        <v>0.52379</v>
+        <v>0.497949</v>
       </c>
       <c r="I408">
-        <v>0.227273</v>
+        <v>0.237288</v>
       </c>
       <c r="J408">
-        <v>0.5081870000000001</v>
+        <v>0.488028</v>
       </c>
     </row>
     <row r="409" spans="1:10">
@@ -14620,16 +14770,16 @@
         <v>0.619048</v>
       </c>
       <c r="G409">
-        <v>0.619048</v>
+        <v>0.538071</v>
       </c>
       <c r="H409">
-        <v>0.53713</v>
+        <v>0.525766</v>
       </c>
       <c r="I409">
-        <v>0.571429</v>
+        <v>0.504348</v>
       </c>
       <c r="J409">
-        <v>0.516024</v>
+        <v>0.5115459999999999</v>
       </c>
     </row>
     <row r="410" spans="1:10">
@@ -14652,16 +14802,16 @@
         <v>0.227273</v>
       </c>
       <c r="G410">
-        <v>0.600592</v>
+        <v>0.564935</v>
       </c>
       <c r="H410">
-        <v>0.500822</v>
+        <v>0.493645</v>
       </c>
       <c r="I410">
-        <v>0.303797</v>
+        <v>0.257732</v>
       </c>
       <c r="J410">
-        <v>0.535772</v>
+        <v>0.508257</v>
       </c>
     </row>
     <row r="411" spans="1:10">
@@ -14684,16 +14834,16 @@
         <v>0.869565</v>
       </c>
       <c r="G411">
-        <v>0.574074</v>
+        <v>0.529175</v>
       </c>
       <c r="H411">
-        <v>0.536013</v>
+        <v>0.517525</v>
       </c>
       <c r="I411">
-        <v>0.527132</v>
+        <v>0.4942</v>
       </c>
       <c r="J411">
-        <v>0.518748</v>
+        <v>0.505498</v>
       </c>
     </row>
     <row r="412" spans="1:10">
@@ -14716,16 +14866,16 @@
         <v>0.130435</v>
       </c>
       <c r="G412">
-        <v>0.487864</v>
+        <v>0.492032</v>
       </c>
       <c r="H412">
-        <v>0.517446</v>
+        <v>0.515952</v>
       </c>
       <c r="I412">
         <v>0.096774</v>
       </c>
       <c r="J412">
-        <v>0.504512</v>
+        <v>0.507749</v>
       </c>
     </row>
     <row r="413" spans="1:10">
@@ -14748,16 +14898,16 @@
         <v>0.4</v>
       </c>
       <c r="G413">
-        <v>0.548476</v>
+        <v>0.495261</v>
       </c>
       <c r="H413">
-        <v>0.5047970000000001</v>
+        <v>0.501346</v>
       </c>
       <c r="I413">
-        <v>0.252033</v>
+        <v>0.226994</v>
       </c>
       <c r="J413">
-        <v>0.502456</v>
+        <v>0.495743</v>
       </c>
     </row>
     <row r="414" spans="1:10">
@@ -14767,6 +14917,18 @@
       <c r="F414">
         <v>0</v>
       </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+      <c r="H414">
+        <v>0</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
     </row>
     <row r="415" spans="1:10">
       <c r="A415" t="s">
@@ -14791,13 +14953,13 @@
         <v>0.512195</v>
       </c>
       <c r="H415">
-        <v>0.521602</v>
+        <v>0.504644</v>
       </c>
       <c r="I415">
         <v>0.245614</v>
       </c>
       <c r="J415">
-        <v>0.5287190000000001</v>
+        <v>0.515619</v>
       </c>
     </row>
     <row r="416" spans="1:10">
@@ -14823,13 +14985,13 @@
         <v>0.452229</v>
       </c>
       <c r="H416">
-        <v>0.509841</v>
+        <v>0.495644</v>
       </c>
       <c r="I416">
         <v>0.222222</v>
       </c>
       <c r="J416">
-        <v>0.477848</v>
+        <v>0.453543</v>
       </c>
     </row>
     <row r="417" spans="1:10">
@@ -14852,16 +15014,16 @@
         <v>0.238095</v>
       </c>
       <c r="G417">
-        <v>0.538462</v>
+        <v>0.46</v>
       </c>
       <c r="H417">
-        <v>0.445978</v>
+        <v>0.456901</v>
       </c>
       <c r="I417">
-        <v>0.204545</v>
+        <v>0.171429</v>
       </c>
       <c r="J417">
-        <v>0.436279</v>
+        <v>0.454492</v>
       </c>
     </row>
     <row r="418" spans="1:10">
@@ -14884,16 +15046,16 @@
         <v>0.818182</v>
       </c>
       <c r="G418">
-        <v>0.440104</v>
+        <v>0.428875</v>
       </c>
       <c r="H418">
-        <v>0.505406</v>
+        <v>0.494167</v>
       </c>
       <c r="I418">
-        <v>0.319865</v>
+        <v>0.333333</v>
       </c>
       <c r="J418">
-        <v>0.51344</v>
+        <v>0.501398</v>
       </c>
     </row>
     <row r="419" spans="1:10">
@@ -14916,16 +15078,16 @@
         <v>0.681818</v>
       </c>
       <c r="G419">
-        <v>0.538226</v>
+        <v>0.538622</v>
       </c>
       <c r="H419">
-        <v>0.50802</v>
+        <v>0.50365</v>
       </c>
       <c r="I419">
-        <v>0.460829</v>
+        <v>0.470769</v>
       </c>
       <c r="J419">
-        <v>0.514315</v>
+        <v>0.499318</v>
       </c>
     </row>
     <row r="420" spans="1:10">
@@ -14951,7 +15113,7 @@
         <v>0.508734</v>
       </c>
       <c r="H420">
-        <v>0.460661</v>
+        <v>0.475431</v>
       </c>
       <c r="I420">
         <v>0.142857</v>
@@ -14980,16 +15142,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G421">
-        <v>0.538961</v>
+        <v>0.488565</v>
       </c>
       <c r="H421">
-        <v>0.547895</v>
+        <v>0.52733</v>
       </c>
       <c r="I421">
-        <v>0.443878</v>
+        <v>0.422764</v>
       </c>
       <c r="J421">
-        <v>0.527674</v>
+        <v>0.511206</v>
       </c>
     </row>
     <row r="422" spans="1:10">
@@ -15012,16 +15174,16 @@
         <v>0.454545</v>
       </c>
       <c r="G422">
-        <v>0.498233</v>
+        <v>0.519833</v>
       </c>
       <c r="H422">
-        <v>0.521746</v>
+        <v>0.515167</v>
       </c>
       <c r="I422">
-        <v>0.414062</v>
+        <v>0.402778</v>
       </c>
       <c r="J422">
-        <v>0.532689</v>
+        <v>0.527649</v>
       </c>
     </row>
     <row r="423" spans="1:10">
@@ -15044,16 +15206,16 @@
         <v>0.4</v>
       </c>
       <c r="G423">
-        <v>0.452229</v>
+        <v>0.45977</v>
       </c>
       <c r="H423">
-        <v>0.477157</v>
+        <v>0.463861</v>
       </c>
       <c r="I423">
-        <v>0.09302299999999999</v>
+        <v>0.113636</v>
       </c>
       <c r="J423">
-        <v>0.513203</v>
+        <v>0.506787</v>
       </c>
     </row>
     <row r="424" spans="1:10">
@@ -15067,7 +15229,13 @@
         <v>0.575342</v>
       </c>
       <c r="H424">
-        <v>0.505663</v>
+        <v>0.4816</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:10">
@@ -15090,16 +15258,16 @@
         <v>0.818182</v>
       </c>
       <c r="G425">
-        <v>0.449541</v>
+        <v>0.438669</v>
       </c>
       <c r="H425">
-        <v>0.503413</v>
+        <v>0.512266</v>
       </c>
       <c r="I425">
-        <v>0.370229</v>
+        <v>0.357868</v>
       </c>
       <c r="J425">
-        <v>0.503868</v>
+        <v>0.514914</v>
       </c>
     </row>
     <row r="426" spans="1:10">
@@ -15122,16 +15290,16 @@
         <v>0.666667</v>
       </c>
       <c r="G426">
-        <v>0.409639</v>
+        <v>0.405034</v>
       </c>
       <c r="H426">
-        <v>0.488719</v>
+        <v>0.486272</v>
       </c>
       <c r="I426">
-        <v>0.331288</v>
+        <v>0.303448</v>
       </c>
       <c r="J426">
-        <v>0.487202</v>
+        <v>0.484536</v>
       </c>
     </row>
     <row r="427" spans="1:10">
@@ -15141,6 +15309,18 @@
       <c r="F427">
         <v>0</v>
       </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>0</v>
+      </c>
+      <c r="I427">
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
     </row>
     <row r="428" spans="1:10">
       <c r="A428" t="s">
@@ -15162,16 +15342,16 @@
         <v>1</v>
       </c>
       <c r="G428">
-        <v>0.534296</v>
+        <v>0.486607</v>
       </c>
       <c r="H428">
-        <v>0.539825</v>
+        <v>0.517079</v>
       </c>
       <c r="I428">
-        <v>0.534296</v>
+        <v>0.486607</v>
       </c>
       <c r="J428">
-        <v>0.539825</v>
+        <v>0.517079</v>
       </c>
     </row>
     <row r="429" spans="1:10">
@@ -15197,13 +15377,13 @@
         <v>0.449679</v>
       </c>
       <c r="H429">
-        <v>0.486739</v>
+        <v>0.473515</v>
       </c>
       <c r="I429">
         <v>0.140625</v>
       </c>
       <c r="J429">
-        <v>0.519585</v>
+        <v>0.504463</v>
       </c>
     </row>
     <row r="430" spans="1:10">
@@ -15226,16 +15406,16 @@
         <v>0.666667</v>
       </c>
       <c r="G430">
-        <v>0.610714</v>
+        <v>0.579775</v>
       </c>
       <c r="H430">
-        <v>0.507498</v>
+        <v>0.491146</v>
       </c>
       <c r="I430">
-        <v>0.476471</v>
+        <v>0.458904</v>
       </c>
       <c r="J430">
-        <v>0.5228429999999999</v>
+        <v>0.497744</v>
       </c>
     </row>
     <row r="431" spans="1:10">
@@ -15258,16 +15438,16 @@
         <v>0.45</v>
       </c>
       <c r="G431">
-        <v>0.448276</v>
+        <v>0.436725</v>
       </c>
       <c r="H431">
-        <v>0.464116</v>
+        <v>0.459671</v>
       </c>
       <c r="I431">
-        <v>0.162162</v>
+        <v>0.175439</v>
       </c>
       <c r="J431">
-        <v>0.509733</v>
+        <v>0.49484</v>
       </c>
     </row>
     <row r="432" spans="1:10">
@@ -15277,6 +15457,18 @@
       <c r="F432">
         <v>0</v>
       </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>0</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
     </row>
     <row r="433" spans="1:10">
       <c r="A433" t="s">
@@ -15298,16 +15490,16 @@
         <v>0.318182</v>
       </c>
       <c r="G433">
-        <v>0.42</v>
+        <v>0.461864</v>
       </c>
       <c r="H433">
-        <v>0.512051</v>
+        <v>0.498498</v>
       </c>
       <c r="I433">
-        <v>0.29771</v>
+        <v>0.263158</v>
       </c>
       <c r="J433">
-        <v>0.516531</v>
+        <v>0.506526</v>
       </c>
     </row>
     <row r="434" spans="1:10">
@@ -15330,16 +15522,16 @@
         <v>0.545455</v>
       </c>
       <c r="G434">
-        <v>0.498845</v>
+        <v>0.478992</v>
       </c>
       <c r="H434">
-        <v>0.528745</v>
+        <v>0.5154609999999999</v>
       </c>
       <c r="I434">
-        <v>0.400943</v>
+        <v>0.380392</v>
       </c>
       <c r="J434">
-        <v>0.496382</v>
+        <v>0.485778</v>
       </c>
     </row>
     <row r="435" spans="1:10">
@@ -15362,16 +15554,16 @@
         <v>0.652174</v>
       </c>
       <c r="G435">
-        <v>0.588235</v>
+        <v>0.584795</v>
       </c>
       <c r="H435">
-        <v>0.568537</v>
+        <v>0.558341</v>
       </c>
       <c r="I435">
-        <v>0.50813</v>
+        <v>0.483582</v>
       </c>
       <c r="J435">
-        <v>0.549055</v>
+        <v>0.539453</v>
       </c>
     </row>
     <row r="436" spans="1:10">
@@ -15394,16 +15586,16 @@
         <v>0.47619</v>
       </c>
       <c r="G436">
-        <v>0.566489</v>
+        <v>0.549654</v>
       </c>
       <c r="H436">
-        <v>0.513439</v>
+        <v>0.495572</v>
       </c>
       <c r="I436">
-        <v>0.386076</v>
+        <v>0.362694</v>
       </c>
       <c r="J436">
-        <v>0.528432</v>
+        <v>0.510305</v>
       </c>
     </row>
     <row r="437" spans="1:10">
@@ -15429,13 +15621,13 @@
         <v>0.613537</v>
       </c>
       <c r="H437">
-        <v>0.5377150000000001</v>
+        <v>0.533461</v>
       </c>
       <c r="I437">
         <v>0.348837</v>
       </c>
       <c r="J437">
-        <v>0.485953</v>
+        <v>0.471116</v>
       </c>
     </row>
     <row r="438" spans="1:10">
@@ -15445,6 +15637,18 @@
       <c r="F438">
         <v>0</v>
       </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+      <c r="H438">
+        <v>0</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
     </row>
     <row r="439" spans="1:10">
       <c r="A439" t="s">
@@ -15466,16 +15670,16 @@
         <v>0.608696</v>
       </c>
       <c r="G439">
-        <v>0.6023810000000001</v>
+        <v>0.607143</v>
       </c>
       <c r="H439">
-        <v>0.557361</v>
+        <v>0.547116</v>
       </c>
       <c r="I439">
-        <v>0.532075</v>
+        <v>0.508143</v>
       </c>
       <c r="J439">
-        <v>0.550366</v>
+        <v>0.534477</v>
       </c>
     </row>
     <row r="440" spans="1:10">
@@ -15498,16 +15702,16 @@
         <v>0.545455</v>
       </c>
       <c r="G440">
-        <v>0.657303</v>
+        <v>0.653061</v>
       </c>
       <c r="H440">
-        <v>0.571345</v>
+        <v>0.563279</v>
       </c>
       <c r="I440">
-        <v>0.58296</v>
+        <v>0.554307</v>
       </c>
       <c r="J440">
-        <v>0.5370509999999999</v>
+        <v>0.528152</v>
       </c>
     </row>
     <row r="441" spans="1:10">
@@ -15530,16 +15734,16 @@
         <v>0.304348</v>
       </c>
       <c r="G441">
-        <v>0.5333329999999999</v>
+        <v>0.49</v>
       </c>
       <c r="H441">
-        <v>0.501445</v>
+        <v>0.490995</v>
       </c>
       <c r="I441">
-        <v>0.183908</v>
+        <v>0.190789</v>
       </c>
       <c r="J441">
-        <v>0.5105229999999999</v>
+        <v>0.495366</v>
       </c>
     </row>
     <row r="442" spans="1:10">
@@ -15562,16 +15766,16 @@
         <v>0.909091</v>
       </c>
       <c r="G442">
-        <v>0.563636</v>
+        <v>0.549587</v>
       </c>
       <c r="H442">
-        <v>0.569923</v>
+        <v>0.555873</v>
       </c>
       <c r="I442">
-        <v>0.533981</v>
+        <v>0.5147389999999999</v>
       </c>
       <c r="J442">
-        <v>0.571778</v>
+        <v>0.560155</v>
       </c>
     </row>
     <row r="443" spans="1:10">
@@ -15594,16 +15798,16 @@
         <v>0.285714</v>
       </c>
       <c r="G443">
-        <v>0.515759</v>
+        <v>0.505447</v>
       </c>
       <c r="H443">
-        <v>0.497221</v>
+        <v>0.491005</v>
       </c>
       <c r="I443">
-        <v>0.275229</v>
+        <v>0.25</v>
       </c>
       <c r="J443">
-        <v>0.516178</v>
+        <v>0.50682</v>
       </c>
     </row>
     <row r="444" spans="1:10">
@@ -15626,16 +15830,16 @@
         <v>0.428571</v>
       </c>
       <c r="G444">
-        <v>0.522581</v>
+        <v>0.513978</v>
       </c>
       <c r="H444">
-        <v>0.524697</v>
+        <v>0.5096079999999999</v>
       </c>
       <c r="I444">
-        <v>0.318182</v>
+        <v>0.319797</v>
       </c>
       <c r="J444">
-        <v>0.512269</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="445" spans="1:10">
@@ -15658,16 +15862,16 @@
         <v>0.35</v>
       </c>
       <c r="G445">
-        <v>0.5278969999999999</v>
+        <v>0.47494</v>
       </c>
       <c r="H445">
-        <v>0.504649</v>
+        <v>0.494839</v>
       </c>
       <c r="I445">
-        <v>0.108108</v>
+        <v>0.148148</v>
       </c>
       <c r="J445">
-        <v>0.558079</v>
+        <v>0.488326</v>
       </c>
     </row>
     <row r="446" spans="1:10">
@@ -15690,16 +15894,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G446">
-        <v>0.441176</v>
+        <v>0.441237</v>
       </c>
       <c r="H446">
-        <v>0.5125</v>
+        <v>0.507623</v>
       </c>
       <c r="I446">
-        <v>0.32197</v>
+        <v>0.357333</v>
       </c>
       <c r="J446">
-        <v>0.514107</v>
+        <v>0.511777</v>
       </c>
     </row>
     <row r="447" spans="1:10">
@@ -15722,16 +15926,16 @@
         <v>0.809524</v>
       </c>
       <c r="G447">
-        <v>0.465649</v>
+        <v>0.498901</v>
       </c>
       <c r="H447">
-        <v>0.55354</v>
+        <v>0.540408</v>
       </c>
       <c r="I447">
-        <v>0.391705</v>
+        <v>0.435967</v>
       </c>
       <c r="J447">
-        <v>0.5452360000000001</v>
+        <v>0.536185</v>
       </c>
     </row>
     <row r="448" spans="1:10">
@@ -15754,16 +15958,16 @@
         <v>0.454545</v>
       </c>
       <c r="G448">
-        <v>0.552339</v>
+        <v>0.535032</v>
       </c>
       <c r="H448">
-        <v>0.547612</v>
+        <v>0.536393</v>
       </c>
       <c r="I448">
-        <v>0.407407</v>
+        <v>0.383886</v>
       </c>
       <c r="J448">
-        <v>0.537983</v>
+        <v>0.517393</v>
       </c>
     </row>
     <row r="449" spans="1:10">
@@ -15786,16 +15990,16 @@
         <v>0.85</v>
       </c>
       <c r="G449">
-        <v>0.383621</v>
+        <v>0.424821</v>
       </c>
       <c r="H449">
-        <v>0.494126</v>
+        <v>0.502319</v>
       </c>
       <c r="I449">
-        <v>0.367021</v>
+        <v>0.403955</v>
       </c>
       <c r="J449">
-        <v>0.48099</v>
+        <v>0.493517</v>
       </c>
     </row>
     <row r="450" spans="1:10">
@@ -15818,16 +16022,16 @@
         <v>0.5</v>
       </c>
       <c r="G450">
-        <v>0.576471</v>
+        <v>0.544041</v>
       </c>
       <c r="H450">
-        <v>0.505233</v>
+        <v>0.471346</v>
       </c>
       <c r="I450">
-        <v>0.340909</v>
+        <v>0.373057</v>
       </c>
       <c r="J450">
-        <v>0.487288</v>
+        <v>0.471802</v>
       </c>
     </row>
     <row r="451" spans="1:10">
@@ -15850,16 +16054,16 @@
         <v>0.818182</v>
       </c>
       <c r="G451">
-        <v>0.44582</v>
+        <v>0.465409</v>
       </c>
       <c r="H451">
-        <v>0.517315</v>
+        <v>0.514997</v>
       </c>
       <c r="I451">
-        <v>0.45</v>
+        <v>0.435897</v>
       </c>
       <c r="J451">
-        <v>0.513392</v>
+        <v>0.511176</v>
       </c>
     </row>
     <row r="452" spans="1:10">
@@ -15885,13 +16089,13 @@
         <v>0.495652</v>
       </c>
       <c r="H452">
-        <v>0.537019</v>
+        <v>0.513272</v>
       </c>
       <c r="I452">
         <v>0.26087</v>
       </c>
       <c r="J452">
-        <v>0.322695</v>
+        <v>0.371179</v>
       </c>
     </row>
     <row r="453" spans="1:10">
@@ -15917,13 +16121,13 @@
         <v>0.554167</v>
       </c>
       <c r="H453">
-        <v>0.545027</v>
+        <v>0.533314</v>
       </c>
       <c r="I453">
         <v>0.174419</v>
       </c>
       <c r="J453">
-        <v>0.520243</v>
+        <v>0.518499</v>
       </c>
     </row>
     <row r="454" spans="1:10">
@@ -15937,7 +16141,13 @@
         <v>0.556818</v>
       </c>
       <c r="H454">
-        <v>0.542955</v>
+        <v>0.529602</v>
+      </c>
+      <c r="I454">
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:10">
@@ -15963,13 +16173,13 @@
         <v>0.5082989999999999</v>
       </c>
       <c r="H455">
-        <v>0.544143</v>
+        <v>0.534621</v>
       </c>
       <c r="I455">
         <v>0.333333</v>
       </c>
       <c r="J455">
-        <v>0.434667</v>
+        <v>0.466523</v>
       </c>
     </row>
     <row r="456" spans="1:10">
@@ -15992,16 +16202,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G456">
-        <v>0.545161</v>
+        <v>0.549383</v>
       </c>
       <c r="H456">
-        <v>0.540274</v>
+        <v>0.527339</v>
       </c>
       <c r="I456">
-        <v>0.510204</v>
+        <v>0.5</v>
       </c>
       <c r="J456">
-        <v>0.523452</v>
+        <v>0.51509</v>
       </c>
     </row>
     <row r="457" spans="1:10">
@@ -16024,16 +16234,16 @@
         <v>0.826087</v>
       </c>
       <c r="G457">
-        <v>0.509804</v>
+        <v>0.475634</v>
       </c>
       <c r="H457">
-        <v>0.539257</v>
+        <v>0.521031</v>
       </c>
       <c r="I457">
-        <v>0.410448</v>
+        <v>0.40566</v>
       </c>
       <c r="J457">
-        <v>0.523773</v>
+        <v>0.508923</v>
       </c>
     </row>
     <row r="458" spans="1:10">
@@ -16056,16 +16266,16 @@
         <v>0.26087</v>
       </c>
       <c r="G458">
-        <v>0.492481</v>
+        <v>0.456522</v>
       </c>
       <c r="H458">
-        <v>0.491214</v>
+        <v>0.479787</v>
       </c>
       <c r="I458">
-        <v>0.16092</v>
+        <v>0.147287</v>
       </c>
       <c r="J458">
-        <v>0.489085</v>
+        <v>0.493791</v>
       </c>
     </row>
     <row r="459" spans="1:10">
@@ -16088,16 +16298,16 @@
         <v>0.863636</v>
       </c>
       <c r="G459">
-        <v>0.528967</v>
+        <v>0.512346</v>
       </c>
       <c r="H459">
-        <v>0.520792</v>
+        <v>0.514397</v>
       </c>
       <c r="I459">
-        <v>0.478788</v>
+        <v>0.470167</v>
       </c>
       <c r="J459">
-        <v>0.506343</v>
+        <v>0.503452</v>
       </c>
     </row>
     <row r="460" spans="1:10">
@@ -16107,6 +16317,18 @@
       <c r="F460">
         <v>0</v>
       </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+      <c r="H460">
+        <v>0</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
     </row>
     <row r="461" spans="1:10">
       <c r="A461" t="s">
@@ -16128,16 +16350,16 @@
         <v>0.35</v>
       </c>
       <c r="G461">
-        <v>0.566489</v>
+        <v>0.546485</v>
       </c>
       <c r="H461">
-        <v>0.508051</v>
+        <v>0.497914</v>
       </c>
       <c r="I461">
-        <v>0.328244</v>
+        <v>0.289474</v>
       </c>
       <c r="J461">
-        <v>0.485226</v>
+        <v>0.48051</v>
       </c>
     </row>
     <row r="462" spans="1:10">
@@ -16160,16 +16382,16 @@
         <v>0.5</v>
       </c>
       <c r="G462">
-        <v>0.539171</v>
+        <v>0.474771</v>
       </c>
       <c r="H462">
-        <v>0.527111</v>
+        <v>0.5135459999999999</v>
       </c>
       <c r="I462">
-        <v>0.312977</v>
+        <v>0.248848</v>
       </c>
       <c r="J462">
-        <v>0.5476259999999999</v>
+        <v>0.533681</v>
       </c>
     </row>
     <row r="463" spans="1:10">
@@ -16195,7 +16417,13 @@
         <v>0.408451</v>
       </c>
       <c r="H463">
-        <v>0.41543</v>
+        <v>0.428673</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:10">
@@ -16218,16 +16446,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G464">
-        <v>0.533898</v>
+        <v>0.524625</v>
       </c>
       <c r="H464">
-        <v>0.557476</v>
+        <v>0.543287</v>
       </c>
       <c r="I464">
-        <v>0.430189</v>
+        <v>0.429775</v>
       </c>
       <c r="J464">
-        <v>0.552691</v>
+        <v>0.542745</v>
       </c>
     </row>
     <row r="465" spans="1:10">
@@ -16250,16 +16478,16 @@
         <v>0.619048</v>
       </c>
       <c r="G465">
-        <v>0.41954</v>
+        <v>0.468132</v>
       </c>
       <c r="H465">
-        <v>0.508818</v>
+        <v>0.506794</v>
       </c>
       <c r="I465">
-        <v>0.356589</v>
+        <v>0.370504</v>
       </c>
       <c r="J465">
-        <v>0.5092410000000001</v>
+        <v>0.507198</v>
       </c>
     </row>
     <row r="466" spans="1:10">
@@ -16282,16 +16510,16 @@
         <v>0.619048</v>
       </c>
       <c r="G466">
-        <v>0.470423</v>
+        <v>0.459052</v>
       </c>
       <c r="H466">
-        <v>0.501987</v>
+        <v>0.5001100000000001</v>
       </c>
       <c r="I466">
-        <v>0.400901</v>
+        <v>0.362369</v>
       </c>
       <c r="J466">
-        <v>0.498374</v>
+        <v>0.490892</v>
       </c>
     </row>
     <row r="467" spans="1:10">
@@ -16314,16 +16542,16 @@
         <v>0.65</v>
       </c>
       <c r="G467">
-        <v>0.442446</v>
+        <v>0.444706</v>
       </c>
       <c r="H467">
-        <v>0.538557</v>
+        <v>0.518545</v>
       </c>
       <c r="I467">
-        <v>0.386905</v>
+        <v>0.372694</v>
       </c>
       <c r="J467">
-        <v>0.506565</v>
+        <v>0.484402</v>
       </c>
     </row>
     <row r="468" spans="1:10">
@@ -16346,16 +16574,16 @@
         <v>0.681818</v>
       </c>
       <c r="G468">
-        <v>0.444767</v>
+        <v>0.454352</v>
       </c>
       <c r="H468">
-        <v>0.480505</v>
+        <v>0.47612</v>
       </c>
       <c r="I468">
-        <v>0.348936</v>
+        <v>0.328125</v>
       </c>
       <c r="J468">
-        <v>0.494782</v>
+        <v>0.476561</v>
       </c>
     </row>
     <row r="469" spans="1:10">
@@ -16378,16 +16606,16 @@
         <v>0.157895</v>
       </c>
       <c r="G469">
-        <v>0.559322</v>
+        <v>0.536896</v>
       </c>
       <c r="H469">
-        <v>0.476626</v>
+        <v>0.463293</v>
       </c>
       <c r="I469">
-        <v>0.368421</v>
+        <v>0.408163</v>
       </c>
       <c r="J469">
-        <v>0.467391</v>
+        <v>0.445513</v>
       </c>
     </row>
     <row r="470" spans="1:10">
@@ -16410,13 +16638,16 @@
         <v>0.047619</v>
       </c>
       <c r="G470">
-        <v>0.555556</v>
+        <v>0.488839</v>
       </c>
       <c r="H470">
-        <v>0.495019</v>
+        <v>0.487971</v>
+      </c>
+      <c r="I470">
+        <v>0.05</v>
       </c>
       <c r="J470">
-        <v>0.619048</v>
+        <v>0.535632</v>
       </c>
     </row>
     <row r="471" spans="1:10">
@@ -16439,16 +16670,16 @@
         <v>0.7727270000000001</v>
       </c>
       <c r="G471">
-        <v>0.53125</v>
+        <v>0.476891</v>
       </c>
       <c r="H471">
-        <v>0.5256729999999999</v>
+        <v>0.524736</v>
       </c>
       <c r="I471">
-        <v>0.494118</v>
+        <v>0.418033</v>
       </c>
       <c r="J471">
-        <v>0.5265879999999999</v>
+        <v>0.52986</v>
       </c>
     </row>
     <row r="472" spans="1:10">
@@ -16471,16 +16702,16 @@
         <v>0.47619</v>
       </c>
       <c r="G472">
-        <v>0.555556</v>
+        <v>0.56087</v>
       </c>
       <c r="H472">
-        <v>0.525292</v>
+        <v>0.524608</v>
       </c>
       <c r="I472">
-        <v>0.372093</v>
+        <v>0.389908</v>
       </c>
       <c r="J472">
-        <v>0.51861</v>
+        <v>0.519159</v>
       </c>
     </row>
     <row r="473" spans="1:10">
@@ -16503,16 +16734,16 @@
         <v>0.4</v>
       </c>
       <c r="G473">
-        <v>0.485612</v>
+        <v>0.441315</v>
       </c>
       <c r="H473">
-        <v>0.468821</v>
+        <v>0.449283</v>
       </c>
       <c r="I473">
-        <v>0.2</v>
+        <v>0.174699</v>
       </c>
       <c r="J473">
-        <v>0.467023</v>
+        <v>0.45591</v>
       </c>
     </row>
     <row r="474" spans="1:10">
@@ -16535,16 +16766,16 @@
         <v>0.7272729999999999</v>
       </c>
       <c r="G474">
-        <v>0.511236</v>
+        <v>0.461224</v>
       </c>
       <c r="H474">
-        <v>0.519408</v>
+        <v>0.511073</v>
       </c>
       <c r="I474">
-        <v>0.386179</v>
+        <v>0.340782</v>
       </c>
       <c r="J474">
-        <v>0.513249</v>
+        <v>0.508147</v>
       </c>
     </row>
     <row r="475" spans="1:10">
@@ -16567,16 +16798,16 @@
         <v>0.2</v>
       </c>
       <c r="G475">
-        <v>0.477124</v>
+        <v>0.520548</v>
       </c>
       <c r="H475">
-        <v>0.532464</v>
+        <v>0.51777</v>
       </c>
       <c r="I475">
         <v>0.302326</v>
       </c>
       <c r="J475">
-        <v>0.50169</v>
+        <v>0.485546</v>
       </c>
     </row>
     <row r="476" spans="1:10">
@@ -16599,16 +16830,16 @@
         <v>0.666667</v>
       </c>
       <c r="G476">
-        <v>0.624561</v>
+        <v>0.570499</v>
       </c>
       <c r="H476">
-        <v>0.559322</v>
+        <v>0.538489</v>
       </c>
       <c r="I476">
-        <v>0.5057469999999999</v>
+        <v>0.439739</v>
       </c>
       <c r="J476">
-        <v>0.553953</v>
+        <v>0.539026</v>
       </c>
     </row>
     <row r="477" spans="1:10">
@@ -16631,16 +16862,16 @@
         <v>0.409091</v>
       </c>
       <c r="G477">
-        <v>0.4791</v>
+        <v>0.478261</v>
       </c>
       <c r="H477">
-        <v>0.5224800000000001</v>
+        <v>0.515742</v>
       </c>
       <c r="I477">
-        <v>0.254545</v>
+        <v>0.311224</v>
       </c>
       <c r="J477">
-        <v>0.52</v>
+        <v>0.513885</v>
       </c>
     </row>
     <row r="478" spans="1:10">
@@ -16663,16 +16894,16 @@
         <v>0.909091</v>
       </c>
       <c r="G478">
-        <v>0.398693</v>
+        <v>0.400419</v>
       </c>
       <c r="H478">
-        <v>0.549902</v>
+        <v>0.53172</v>
       </c>
       <c r="I478">
-        <v>0.307692</v>
+        <v>0.345708</v>
       </c>
       <c r="J478">
-        <v>0.546199</v>
+        <v>0.530972</v>
       </c>
     </row>
     <row r="479" spans="1:10">
@@ -16695,16 +16926,16 @@
         <v>0.45</v>
       </c>
       <c r="G479">
-        <v>0.543147</v>
+        <v>0.524027</v>
       </c>
       <c r="H479">
-        <v>0.495622</v>
+        <v>0.49366</v>
       </c>
       <c r="I479">
-        <v>0.364706</v>
+        <v>0.326425</v>
       </c>
       <c r="J479">
-        <v>0.503914</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="480" spans="1:10">
@@ -16727,16 +16958,16 @@
         <v>0.619048</v>
       </c>
       <c r="G480">
-        <v>0.50974</v>
+        <v>0.490196</v>
       </c>
       <c r="H480">
-        <v>0.510794</v>
+        <v>0.501389</v>
       </c>
       <c r="I480">
-        <v>0.41954</v>
+        <v>0.380783</v>
       </c>
       <c r="J480">
-        <v>0.507784</v>
+        <v>0.49124</v>
       </c>
     </row>
     <row r="481" spans="1:10">
@@ -16759,16 +16990,16 @@
         <v>0.695652</v>
       </c>
       <c r="G481">
-        <v>0.641447</v>
+        <v>0.638723</v>
       </c>
       <c r="H481">
-        <v>0.540781</v>
+        <v>0.530228</v>
       </c>
       <c r="I481">
-        <v>0.541237</v>
+        <v>0.54755</v>
       </c>
       <c r="J481">
-        <v>0.523114</v>
+        <v>0.520365</v>
       </c>
     </row>
     <row r="482" spans="1:10">
@@ -16776,6 +17007,18 @@
         <v>490</v>
       </c>
       <c r="F482">
+        <v>0</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+      <c r="H482">
+        <v>0</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="J482">
         <v>0</v>
       </c>
     </row>
